--- a/ProjectBlue1/Assets/StreamingAssets/Excel/MonsterStat.xlsx
+++ b/ProjectBlue1/Assets/StreamingAssets/Excel/MonsterStat.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ProjectBlue1\ProjectBlue1\Assets\StreamingAssets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ProjectBlue1\ProjectBlue1\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6AC7A5-154B-4C90-AF44-6EAE6D48583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="1680" windowWidth="11355" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="1680" windowWidth="11355" windowHeight="13335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -449,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -497,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -523,7 +522,7 @@
       </c>
       <c r="C3" s="2">
         <f>LOG(2)*A3*2.5+C2</f>
-        <v>101.50514997831991</v>
+        <v>201.50514997831991</v>
       </c>
       <c r="D3" s="2">
         <f>D2+0.5</f>
@@ -553,7 +552,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C67" si="1">LOG(2)*A4*2.5+C3</f>
-        <v>103.76287494579977</v>
+        <v>203.76287494579975</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D67" si="2">D3+0.5</f>
@@ -583,7 +582,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>106.77317490243958</v>
+        <v>206.77317490243956</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
@@ -613,7 +612,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>110.53604984823934</v>
+        <v>210.53604984823932</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
@@ -643,7 +642,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>115.05149978319906</v>
+        <v>215.05149978319903</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
@@ -673,7 +672,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>120.31952470731873</v>
+        <v>220.31952470731869</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="2"/>
@@ -703,7 +702,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>126.34012462059836</v>
+        <v>226.34012462059832</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
@@ -733,7 +732,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>133.11329952303794</v>
+        <v>233.11329952303788</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
@@ -763,7 +762,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>140.63904941463747</v>
+        <v>240.63904941463741</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
@@ -793,7 +792,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>148.91737429539694</v>
+        <v>248.91737429539688</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
@@ -823,7 +822,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>157.94827416531638</v>
+        <v>257.94827416531632</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
@@ -853,7 +852,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>167.73174902439575</v>
+        <v>267.7317490243957</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
@@ -883,7 +882,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>178.2677988726351</v>
+        <v>278.26779887263501</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
@@ -913,7 +912,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>189.55642371003438</v>
+        <v>289.55642371003432</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
@@ -943,7 +942,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>201.59762353659363</v>
+        <v>301.59762353659357</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
@@ -973,7 +972,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>214.39139835231282</v>
+        <v>314.39139835231276</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="2"/>
@@ -1003,7 +1002,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>227.93774815719198</v>
+        <v>327.93774815719189</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
@@ -1033,7 +1032,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>242.23667295123107</v>
+        <v>342.23667295123101</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
@@ -1063,7 +1062,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>257.28817273443013</v>
+        <v>357.28817273443008</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
@@ -1093,7 +1092,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>273.09224750678914</v>
+        <v>373.09224750678908</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="2"/>
@@ -1123,7 +1122,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>289.64889726830808</v>
+        <v>389.64889726830802</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
@@ -1153,7 +1152,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>306.95812201898701</v>
+        <v>406.95812201898696</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
@@ -1183,7 +1182,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>325.01992175882589</v>
+        <v>425.01992175882583</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="2"/>
@@ -1213,7 +1212,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>343.8342964878247</v>
+        <v>443.83429648782464</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="2"/>
@@ -1243,7 +1242,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>363.40124620598345</v>
+        <v>463.4012462059834</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="2"/>
@@ -1273,7 +1272,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>383.7207709133022</v>
+        <v>483.72077091330215</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="2"/>
@@ -1303,7 +1302,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>404.79287060978089</v>
+        <v>504.79287060978083</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="2"/>
@@ -1333,7 +1332,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>426.61754529541952</v>
+        <v>526.61754529541952</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="2"/>
@@ -1363,7 +1362,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>449.19479497021808</v>
+        <v>549.19479497021814</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="2"/>
@@ -1393,7 +1392,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>472.52461963417664</v>
+        <v>572.5246196341767</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="2"/>
@@ -1423,7 +1422,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>496.60701928729515</v>
+        <v>596.6070192872952</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="2"/>
@@ -1453,7 +1452,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>521.44199392957364</v>
+        <v>621.44199392957364</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
@@ -1483,7 +1482,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" si="1"/>
-        <v>547.02954356101202</v>
+        <v>647.02954356101202</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
@@ -1513,7 +1512,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="1"/>
-        <v>573.36966818161034</v>
+        <v>673.36966818161034</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" si="1"/>
-        <v>600.46236779136859</v>
+        <v>700.46236779136859</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
@@ -1573,7 +1572,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" si="1"/>
-        <v>628.3076423902869</v>
+        <v>728.3076423902869</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
@@ -1603,7 +1602,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" si="1"/>
-        <v>656.90549197836515</v>
+        <v>756.90549197836515</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
@@ -1633,7 +1632,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" si="1"/>
-        <v>686.25591655560333</v>
+        <v>786.25591655560333</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
@@ -1663,7 +1662,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" si="1"/>
-        <v>716.35891612200146</v>
+        <v>816.35891612200146</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="2"/>
@@ -1693,7 +1692,7 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" si="1"/>
-        <v>747.21449067755952</v>
+        <v>847.21449067755952</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="2"/>
@@ -1723,7 +1722,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" si="1"/>
-        <v>778.82264022227753</v>
+        <v>878.82264022227753</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="2"/>
@@ -1753,7 +1752,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" si="1"/>
-        <v>811.18336475615547</v>
+        <v>911.18336475615547</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="2"/>
@@ -1783,7 +1782,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" si="1"/>
-        <v>844.29666427919335</v>
+        <v>944.29666427919335</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="2"/>
@@ -1813,7 +1812,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" si="1"/>
-        <v>878.16253879139128</v>
+        <v>978.16253879139128</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="2"/>
@@ -1843,7 +1842,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" si="1"/>
-        <v>912.78098829274916</v>
+        <v>1012.7809882927492</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="2"/>
@@ -1873,7 +1872,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" si="1"/>
-        <v>948.15201278326697</v>
+        <v>1048.1520127832669</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="2"/>
@@ -1903,7 +1902,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" si="1"/>
-        <v>984.27561226294472</v>
+        <v>1084.2756122629446</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="2"/>
@@ -1933,7 +1932,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" si="1"/>
-        <v>1021.1517867317824</v>
+        <v>1121.1517867317823</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="2"/>
@@ -1963,7 +1962,7 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" si="1"/>
-        <v>1058.7805361897802</v>
+        <v>1158.7805361897799</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="2"/>
@@ -1993,7 +1992,7 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" si="1"/>
-        <v>1097.1618606369377</v>
+        <v>1197.1618606369375</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="2"/>
@@ -2023,7 +2022,7 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" si="1"/>
-        <v>1136.2957600732552</v>
+        <v>1236.295760073255</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="2"/>
@@ -2053,7 +2052,7 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" si="1"/>
-        <v>1176.1822344987327</v>
+        <v>1276.1822344987324</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="2"/>
@@ -2083,7 +2082,7 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" si="1"/>
-        <v>1216.8212839133701</v>
+        <v>1316.8212839133698</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="2"/>
@@ -2113,7 +2112,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" si="1"/>
-        <v>1258.2129083171674</v>
+        <v>1358.2129083171671</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="2"/>
@@ -2143,7 +2142,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" si="1"/>
-        <v>1300.3571077101246</v>
+        <v>1400.3571077101244</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="2"/>
@@ -2173,7 +2172,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" si="1"/>
-        <v>1343.2538820922421</v>
+        <v>1443.2538820922418</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="2"/>
@@ -2203,7 +2202,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" si="1"/>
-        <v>1386.9032314635194</v>
+        <v>1486.9032314635192</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="2"/>
@@ -2233,7 +2232,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" si="1"/>
-        <v>1431.3051558239567</v>
+        <v>1531.3051558239565</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="2"/>
@@ -2263,7 +2262,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" si="1"/>
-        <v>1476.459655173554</v>
+        <v>1576.4596551735538</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="2"/>
@@ -2293,7 +2292,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" si="1"/>
-        <v>1522.3667295123112</v>
+        <v>1622.3667295123109</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="2"/>
@@ -2323,7 +2322,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" si="1"/>
-        <v>1569.0263788402283</v>
+        <v>1669.0263788402281</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="2"/>
@@ -2353,7 +2352,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" si="1"/>
-        <v>1616.4386031573054</v>
+        <v>1716.4386031573051</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="2"/>
@@ -2383,7 +2382,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" si="1"/>
-        <v>1664.6034024635424</v>
+        <v>1764.6034024635421</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="2"/>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" si="1"/>
-        <v>1713.5207767589393</v>
+        <v>1813.5207767589391</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="2"/>
@@ -2443,7 +2442,7 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" si="1"/>
-        <v>1763.1907260434962</v>
+        <v>1863.1907260434959</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" si="2"/>
@@ -2473,7 +2472,7 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ref="C68:C131" si="7">LOG(2)*A68*2.5+C67</f>
-        <v>1813.613250317213</v>
+        <v>1913.6132503172128</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ref="D68:D131" si="8">D67+0.5</f>
@@ -2503,7 +2502,7 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" si="7"/>
-        <v>1864.7883495800897</v>
+        <v>1964.7883495800895</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="8"/>
@@ -2533,7 +2532,7 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" si="7"/>
-        <v>1916.7160238321264</v>
+        <v>2016.7160238321262</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="8"/>
@@ -2563,7 +2562,7 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" si="7"/>
-        <v>1969.3962730733231</v>
+        <v>2069.3962730733228</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="8"/>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="C72" s="2">
         <f t="shared" si="7"/>
-        <v>2022.8290973036796</v>
+        <v>2122.8290973036796</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="8"/>
@@ -2623,7 +2622,7 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" si="7"/>
-        <v>2077.0144965231962</v>
+        <v>2177.0144965231962</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="8"/>
@@ -2653,7 +2652,7 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" si="7"/>
-        <v>2131.9524707318728</v>
+        <v>2231.9524707318728</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="8"/>
@@ -2683,7 +2682,7 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" si="7"/>
-        <v>2187.6430199297092</v>
+        <v>2287.6430199297092</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="8"/>
@@ -2713,7 +2712,7 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" si="7"/>
-        <v>2244.0861441167058</v>
+        <v>2344.0861441167058</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="8"/>
@@ -2743,7 +2742,7 @@
       </c>
       <c r="C77" s="2">
         <f t="shared" si="7"/>
-        <v>2301.281843292862</v>
+        <v>2401.281843292862</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" si="8"/>
@@ -2773,7 +2772,7 @@
       </c>
       <c r="C78" s="2">
         <f t="shared" si="7"/>
-        <v>2359.2301174581785</v>
+        <v>2459.2301174581785</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="8"/>
@@ -2803,7 +2802,7 @@
       </c>
       <c r="C79" s="2">
         <f t="shared" si="7"/>
-        <v>2417.9309666126546</v>
+        <v>2517.9309666126546</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="8"/>
@@ -2833,7 +2832,7 @@
       </c>
       <c r="C80" s="2">
         <f t="shared" si="7"/>
-        <v>2477.3843907562909</v>
+        <v>2577.3843907562909</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="8"/>
@@ -2863,7 +2862,7 @@
       </c>
       <c r="C81" s="2">
         <f t="shared" si="7"/>
-        <v>2537.590389889087</v>
+        <v>2637.590389889087</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="8"/>
@@ -2893,7 +2892,7 @@
       </c>
       <c r="C82" s="2">
         <f t="shared" si="7"/>
-        <v>2598.5489640110432</v>
+        <v>2698.5489640110432</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="8"/>
@@ -2923,7 +2922,7 @@
       </c>
       <c r="C83" s="2">
         <f t="shared" si="7"/>
-        <v>2660.2601131221595</v>
+        <v>2760.2601131221595</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="8"/>
@@ -2953,7 +2952,7 @@
       </c>
       <c r="C84" s="2">
         <f t="shared" si="7"/>
-        <v>2722.7238372224356</v>
+        <v>2822.7238372224356</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="8"/>
@@ -2983,7 +2982,7 @@
       </c>
       <c r="C85" s="2">
         <f t="shared" si="7"/>
-        <v>2785.9401363118718</v>
+        <v>2885.9401363118718</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="8"/>
@@ -3013,7 +3012,7 @@
       </c>
       <c r="C86" s="2">
         <f t="shared" si="7"/>
-        <v>2849.9090103904678</v>
+        <v>2949.9090103904678</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="8"/>
@@ -3043,7 +3042,7 @@
       </c>
       <c r="C87" s="2">
         <f t="shared" si="7"/>
-        <v>2914.6304594582239</v>
+        <v>3014.6304594582239</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="8"/>
@@ -3073,7 +3072,7 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" si="7"/>
-        <v>2980.1044835151397</v>
+        <v>3080.1044835151397</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="8"/>
@@ -3103,7 +3102,7 @@
       </c>
       <c r="C89" s="2">
         <f t="shared" si="7"/>
-        <v>3046.3310825612157</v>
+        <v>3146.3310825612157</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="8"/>
@@ -3133,7 +3132,7 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" si="7"/>
-        <v>3113.3102565964514</v>
+        <v>3213.3102565964514</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="8"/>
@@ -3163,7 +3162,7 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" si="7"/>
-        <v>3181.0420056208472</v>
+        <v>3281.0420056208472</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="8"/>
@@ -3193,7 +3192,7 @@
       </c>
       <c r="C92" s="2">
         <f t="shared" si="7"/>
-        <v>3249.5263296344028</v>
+        <v>3349.5263296344028</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" si="8"/>
@@ -3223,7 +3222,7 @@
       </c>
       <c r="C93" s="2">
         <f t="shared" si="7"/>
-        <v>3318.7632286371186</v>
+        <v>3418.7632286371186</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" si="8"/>
@@ -3253,7 +3252,7 @@
       </c>
       <c r="C94" s="2">
         <f t="shared" si="7"/>
-        <v>3388.752702628994</v>
+        <v>3488.752702628994</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" si="8"/>
@@ -3283,7 +3282,7 @@
       </c>
       <c r="C95" s="2">
         <f t="shared" si="7"/>
-        <v>3459.4947516100297</v>
+        <v>3559.4947516100297</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" si="8"/>
@@ -3313,7 +3312,7 @@
       </c>
       <c r="C96" s="2">
         <f t="shared" si="7"/>
-        <v>3530.989375580225</v>
+        <v>3630.989375580225</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" si="8"/>
@@ -3343,7 +3342,7 @@
       </c>
       <c r="C97" s="2">
         <f t="shared" si="7"/>
-        <v>3603.2365745395805</v>
+        <v>3703.2365745395805</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" si="8"/>
@@ -3373,7 +3372,7 @@
       </c>
       <c r="C98" s="2">
         <f t="shared" si="7"/>
-        <v>3676.2363484880962</v>
+        <v>3776.2363484880962</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" si="8"/>
@@ -3403,7 +3402,7 @@
       </c>
       <c r="C99" s="2">
         <f t="shared" si="7"/>
-        <v>3749.9886974257715</v>
+        <v>3849.9886974257715</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="8"/>
@@ -3433,7 +3432,7 @@
       </c>
       <c r="C100" s="2">
         <f t="shared" si="7"/>
-        <v>3824.4936213526071</v>
+        <v>3924.4936213526071</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="8"/>
@@ -3463,7 +3462,7 @@
       </c>
       <c r="C101" s="2">
         <f t="shared" si="7"/>
-        <v>3899.7511202686023</v>
+        <v>3999.7511202686023</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" si="8"/>
@@ -3493,7 +3492,7 @@
       </c>
       <c r="C102" s="2">
         <f t="shared" si="7"/>
-        <v>3975.7611941737578</v>
+        <v>4075.7611941737578</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" si="8"/>
@@ -3523,7 +3522,7 @@
       </c>
       <c r="C103" s="2">
         <f t="shared" si="7"/>
-        <v>4052.5238430680729</v>
+        <v>4152.5238430680729</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" si="8"/>
@@ -3553,7 +3552,7 @@
       </c>
       <c r="C104" s="2">
         <f t="shared" si="7"/>
-        <v>4130.0390669515482</v>
+        <v>4230.0390669515482</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" si="8"/>
@@ -3583,7 +3582,7 @@
       </c>
       <c r="C105" s="2">
         <f t="shared" si="7"/>
-        <v>4208.3068658241837</v>
+        <v>4308.3068658241837</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" si="8"/>
@@ -3613,7 +3612,7 @@
       </c>
       <c r="C106" s="2">
         <f t="shared" si="7"/>
-        <v>4287.3272396859784</v>
+        <v>4387.3272396859784</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" si="8"/>
@@ -3643,7 +3642,7 @@
       </c>
       <c r="C107" s="2">
         <f t="shared" si="7"/>
-        <v>4367.1001885369333</v>
+        <v>4467.1001885369333</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" si="8"/>
@@ -3673,7 +3672,7 @@
       </c>
       <c r="C108" s="2">
         <f t="shared" si="7"/>
-        <v>4447.6257123770483</v>
+        <v>4547.6257123770483</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" si="8"/>
@@ -3703,7 +3702,7 @@
       </c>
       <c r="C109" s="2">
         <f t="shared" si="7"/>
-        <v>4528.9038112063236</v>
+        <v>4628.9038112063236</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" si="8"/>
@@ -3733,7 +3732,7 @@
       </c>
       <c r="C110" s="2">
         <f t="shared" si="7"/>
-        <v>4610.934485024758</v>
+        <v>4710.934485024758</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" si="8"/>
@@ -3763,7 +3762,7 @@
       </c>
       <c r="C111" s="2">
         <f t="shared" si="7"/>
-        <v>4693.7177338323527</v>
+        <v>4793.7177338323527</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" si="8"/>
@@ -3793,7 +3792,7 @@
       </c>
       <c r="C112" s="2">
         <f t="shared" si="7"/>
-        <v>4777.2535576291075</v>
+        <v>4877.2535576291075</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" si="8"/>
@@ -3823,7 +3822,7 @@
       </c>
       <c r="C113" s="2">
         <f t="shared" si="7"/>
-        <v>4861.5419564150225</v>
+        <v>4961.5419564150225</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" si="8"/>
@@ -3853,7 +3852,7 @@
       </c>
       <c r="C114" s="2">
         <f t="shared" si="7"/>
-        <v>4946.5829301900976</v>
+        <v>5046.5829301900976</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" si="8"/>
@@ -3883,7 +3882,7 @@
       </c>
       <c r="C115" s="2">
         <f t="shared" si="7"/>
-        <v>5032.376478954332</v>
+        <v>5132.376478954332</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" si="8"/>
@@ -3913,7 +3912,7 @@
       </c>
       <c r="C116" s="2">
         <f t="shared" si="7"/>
-        <v>5118.9226027077266</v>
+        <v>5218.9226027077266</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="8"/>
@@ -3943,7 +3942,7 @@
       </c>
       <c r="C117" s="2">
         <f t="shared" si="7"/>
-        <v>5206.2213014502813</v>
+        <v>5306.2213014502813</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" si="8"/>
@@ -3973,7 +3972,7 @@
       </c>
       <c r="C118" s="2">
         <f t="shared" si="7"/>
-        <v>5294.2725751819962</v>
+        <v>5394.2725751819962</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" si="8"/>
@@ -4003,7 +4002,7 @@
       </c>
       <c r="C119" s="2">
         <f t="shared" si="7"/>
-        <v>5383.0764239028704</v>
+        <v>5483.0764239028704</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" si="8"/>
@@ -4033,7 +4032,7 @@
       </c>
       <c r="C120" s="2">
         <f t="shared" si="7"/>
-        <v>5472.6328476129047</v>
+        <v>5572.6328476129047</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" si="8"/>
@@ -4063,7 +4062,7 @@
       </c>
       <c r="C121" s="2">
         <f t="shared" si="7"/>
-        <v>5562.9418463120992</v>
+        <v>5662.9418463120992</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" si="8"/>
@@ -4093,7 +4092,7 @@
       </c>
       <c r="C122" s="2">
         <f t="shared" si="7"/>
-        <v>5654.0034200004538</v>
+        <v>5754.0034200004538</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" si="8"/>
@@ -4123,7 +4122,7 @@
       </c>
       <c r="C123" s="2">
         <f t="shared" si="7"/>
-        <v>5745.8175686779678</v>
+        <v>5845.8175686779678</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" si="8"/>
@@ -4153,7 +4152,7 @@
       </c>
       <c r="C124" s="2">
         <f t="shared" si="7"/>
-        <v>5838.3842923446418</v>
+        <v>5938.3842923446418</v>
       </c>
       <c r="D124" s="2">
         <f t="shared" si="8"/>
@@ -4183,7 +4182,7 @@
       </c>
       <c r="C125" s="2">
         <f t="shared" si="7"/>
-        <v>5931.7035910004761</v>
+        <v>6031.7035910004761</v>
       </c>
       <c r="D125" s="2">
         <f t="shared" si="8"/>
@@ -4213,7 +4212,7 @@
       </c>
       <c r="C126" s="2">
         <f t="shared" si="7"/>
-        <v>6025.7754646454705</v>
+        <v>6125.7754646454705</v>
       </c>
       <c r="D126" s="2">
         <f t="shared" si="8"/>
@@ -4243,7 +4242,7 @@
       </c>
       <c r="C127" s="2">
         <f t="shared" si="7"/>
-        <v>6120.5999132796242</v>
+        <v>6220.5999132796242</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" si="8"/>
@@ -4273,7 +4272,7 @@
       </c>
       <c r="C128" s="2">
         <f t="shared" si="7"/>
-        <v>6216.176936902938</v>
+        <v>6316.176936902938</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" si="8"/>
@@ -4303,7 +4302,7 @@
       </c>
       <c r="C129" s="2">
         <f t="shared" si="7"/>
-        <v>6312.506535515412</v>
+        <v>6412.506535515412</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" si="8"/>
@@ -4333,7 +4332,7 @@
       </c>
       <c r="C130" s="2">
         <f t="shared" si="7"/>
-        <v>6409.5887091170462</v>
+        <v>6509.5887091170462</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" si="8"/>
@@ -4363,7 +4362,7 @@
       </c>
       <c r="C131" s="2">
         <f t="shared" si="7"/>
-        <v>6507.4234577078405</v>
+        <v>6607.4234577078405</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" si="8"/>
@@ -4393,7 +4392,7 @@
       </c>
       <c r="C132" s="2">
         <f t="shared" ref="C132:C195" si="13">LOG(2)*A132*2.5+C131</f>
-        <v>6606.0107812877941</v>
+        <v>6706.0107812877941</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" ref="D132:D192" si="14">D131+0.5</f>
@@ -4423,7 +4422,7 @@
       </c>
       <c r="C133" s="2">
         <f t="shared" si="13"/>
-        <v>6705.3506798569078</v>
+        <v>6805.3506798569078</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" si="14"/>
@@ -4453,7 +4452,7 @@
       </c>
       <c r="C134" s="2">
         <f t="shared" si="13"/>
-        <v>6805.4431534151818</v>
+        <v>6905.4431534151818</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" si="14"/>
@@ -4483,7 +4482,7 @@
       </c>
       <c r="C135" s="2">
         <f t="shared" si="13"/>
-        <v>6906.2882019626159</v>
+        <v>7006.2882019626159</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="14"/>
@@ -4513,7 +4512,7 @@
       </c>
       <c r="C136" s="2">
         <f t="shared" si="13"/>
-        <v>7007.8858254992092</v>
+        <v>7107.8858254992092</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="14"/>
@@ -4543,7 +4542,7 @@
       </c>
       <c r="C137" s="2">
         <f t="shared" si="13"/>
-        <v>7110.2360240249627</v>
+        <v>7210.2360240249627</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" si="14"/>
@@ -4573,7 +4572,7 @@
       </c>
       <c r="C138" s="2">
         <f t="shared" si="13"/>
-        <v>7213.3387975398764</v>
+        <v>7313.3387975398764</v>
       </c>
       <c r="D138" s="2">
         <f t="shared" si="14"/>
@@ -4603,7 +4602,7 @@
       </c>
       <c r="C139" s="2">
         <f t="shared" si="13"/>
-        <v>7317.1941460439502</v>
+        <v>7417.1941460439502</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" si="14"/>
@@ -4633,7 +4632,7 @@
       </c>
       <c r="C140" s="2">
         <f t="shared" si="13"/>
-        <v>7421.8020695371833</v>
+        <v>7521.8020695371833</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" si="14"/>
@@ -4663,7 +4662,7 @@
       </c>
       <c r="C141" s="2">
         <f t="shared" si="13"/>
-        <v>7527.1625680195766</v>
+        <v>7627.1625680195766</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" si="14"/>
@@ -4693,7 +4692,7 @@
       </c>
       <c r="C142" s="2">
         <f t="shared" si="13"/>
-        <v>7633.27564149113</v>
+        <v>7733.27564149113</v>
       </c>
       <c r="D142" s="2">
         <f t="shared" si="14"/>
@@ -4723,7 +4722,7 @@
       </c>
       <c r="C143" s="2">
         <f t="shared" si="13"/>
-        <v>7740.1412899518436</v>
+        <v>7840.1412899518436</v>
       </c>
       <c r="D143" s="2">
         <f t="shared" si="14"/>
@@ -4753,7 +4752,7 @@
       </c>
       <c r="C144" s="2">
         <f t="shared" si="13"/>
-        <v>7847.7595134017165</v>
+        <v>7947.7595134017165</v>
       </c>
       <c r="D144" s="2">
         <f t="shared" si="14"/>
@@ -4783,7 +4782,7 @@
       </c>
       <c r="C145" s="2">
         <f t="shared" si="13"/>
-        <v>7956.1303118407495</v>
+        <v>8056.1303118407495</v>
       </c>
       <c r="D145" s="2">
         <f t="shared" si="14"/>
@@ -4813,7 +4812,7 @@
       </c>
       <c r="C146" s="2">
         <f t="shared" si="13"/>
-        <v>8065.2536852689427</v>
+        <v>8165.2536852689427</v>
       </c>
       <c r="D146" s="2">
         <f t="shared" si="14"/>
@@ -4843,7 +4842,7 @@
       </c>
       <c r="C147" s="2">
         <f t="shared" si="13"/>
-        <v>8175.1296336862961</v>
+        <v>8275.1296336862961</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" si="14"/>
@@ -4873,7 +4872,7 @@
       </c>
       <c r="C148" s="2">
         <f t="shared" si="13"/>
-        <v>8285.7581570928087</v>
+        <v>8385.7581570928087</v>
       </c>
       <c r="D148" s="2">
         <f t="shared" si="14"/>
@@ -4903,7 +4902,7 @@
       </c>
       <c r="C149" s="2">
         <f t="shared" si="13"/>
-        <v>8397.1392554884824</v>
+        <v>8497.1392554884824</v>
       </c>
       <c r="D149" s="2">
         <f t="shared" si="14"/>
@@ -4933,7 +4932,7 @@
       </c>
       <c r="C150" s="2">
         <f t="shared" si="13"/>
-        <v>8509.2729288733153</v>
+        <v>8609.2729288733153</v>
       </c>
       <c r="D150" s="2">
         <f t="shared" si="14"/>
@@ -4963,7 +4962,7 @@
       </c>
       <c r="C151" s="2">
         <f t="shared" si="13"/>
-        <v>8622.1591772473075</v>
+        <v>8722.1591772473075</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" si="14"/>
@@ -4993,7 +4992,7 @@
       </c>
       <c r="C152" s="2">
         <f t="shared" si="13"/>
-        <v>8735.7980006104608</v>
+        <v>8835.7980006104608</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="14"/>
@@ -5023,7 +5022,7 @@
       </c>
       <c r="C153" s="2">
         <f t="shared" si="13"/>
-        <v>8850.1893989627733</v>
+        <v>8950.1893989627733</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" si="14"/>
@@ -5053,7 +5052,7 @@
       </c>
       <c r="C154" s="2">
         <f t="shared" si="13"/>
-        <v>8965.333372304247</v>
+        <v>9065.333372304247</v>
       </c>
       <c r="D154" s="2">
         <f t="shared" si="14"/>
@@ -5083,7 +5082,7 @@
       </c>
       <c r="C155" s="2">
         <f t="shared" si="13"/>
-        <v>9081.2299206348798</v>
+        <v>9181.2299206348798</v>
       </c>
       <c r="D155" s="2">
         <f t="shared" si="14"/>
@@ -5113,7 +5112,7 @@
       </c>
       <c r="C156" s="2">
         <f t="shared" si="13"/>
-        <v>9197.8790439546719</v>
+        <v>9297.8790439546719</v>
       </c>
       <c r="D156" s="2">
         <f t="shared" si="14"/>
@@ -5143,7 +5142,7 @@
       </c>
       <c r="C157" s="2">
         <f t="shared" si="13"/>
-        <v>9315.2807422636251</v>
+        <v>9415.2807422636251</v>
       </c>
       <c r="D157" s="2">
         <f t="shared" si="14"/>
@@ -5173,7 +5172,7 @@
       </c>
       <c r="C158" s="2">
         <f t="shared" si="13"/>
-        <v>9433.4350155617376</v>
+        <v>9533.4350155617376</v>
       </c>
       <c r="D158" s="2">
         <f t="shared" si="14"/>
@@ -5203,7 +5202,7 @@
       </c>
       <c r="C159" s="2">
         <f t="shared" si="13"/>
-        <v>9552.3418638490093</v>
+        <v>9652.3418638490093</v>
       </c>
       <c r="D159" s="2">
         <f t="shared" si="14"/>
@@ -5233,7 +5232,7 @@
       </c>
       <c r="C160" s="2">
         <f t="shared" si="13"/>
-        <v>9672.0012871254421</v>
+        <v>9772.0012871254421</v>
       </c>
       <c r="D160" s="2">
         <f t="shared" si="14"/>
@@ -5263,7 +5262,7 @@
       </c>
       <c r="C161" s="2">
         <f t="shared" si="13"/>
-        <v>9792.4132853910342</v>
+        <v>9892.4132853910342</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" si="14"/>
@@ -5293,7 +5292,7 @@
       </c>
       <c r="C162" s="2">
         <f t="shared" si="13"/>
-        <v>9913.5778586457873</v>
+        <v>10013.577858645787</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="14"/>
@@ -5323,7 +5322,7 @@
       </c>
       <c r="C163" s="2">
         <f t="shared" si="13"/>
-        <v>10035.4950068897</v>
+        <v>10135.4950068897</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" si="14"/>
@@ -5353,7 +5352,7 @@
       </c>
       <c r="C164" s="2">
         <f t="shared" si="13"/>
-        <v>10158.164730122771</v>
+        <v>10258.164730122771</v>
       </c>
       <c r="D164" s="2">
         <f t="shared" si="14"/>
@@ -5383,7 +5382,7 @@
       </c>
       <c r="C165" s="2">
         <f t="shared" si="13"/>
-        <v>10281.587028345004</v>
+        <v>10381.587028345004</v>
       </c>
       <c r="D165" s="2">
         <f t="shared" si="14"/>
@@ -5413,7 +5412,7 @@
       </c>
       <c r="C166" s="2">
         <f t="shared" si="13"/>
-        <v>10405.761901556396</v>
+        <v>10505.761901556396</v>
       </c>
       <c r="D166" s="2">
         <f t="shared" si="14"/>
@@ -5443,7 +5442,7 @@
       </c>
       <c r="C167" s="2">
         <f t="shared" si="13"/>
-        <v>10530.689349756949</v>
+        <v>10630.689349756949</v>
       </c>
       <c r="D167" s="2">
         <f t="shared" si="14"/>
@@ -5473,7 +5472,7 @@
       </c>
       <c r="C168" s="2">
         <f t="shared" si="13"/>
-        <v>10656.369372946661</v>
+        <v>10756.369372946661</v>
       </c>
       <c r="D168" s="2">
         <f t="shared" si="14"/>
@@ -5503,7 +5502,7 @@
       </c>
       <c r="C169" s="2">
         <f t="shared" si="13"/>
-        <v>10782.801971125533</v>
+        <v>10882.801971125533</v>
       </c>
       <c r="D169" s="2">
         <f t="shared" si="14"/>
@@ -5533,7 +5532,7 @@
       </c>
       <c r="C170" s="2">
         <f t="shared" si="13"/>
-        <v>10909.987144293566</v>
+        <v>11009.987144293566</v>
       </c>
       <c r="D170" s="2">
         <f t="shared" si="14"/>
@@ -5563,7 +5562,7 @@
       </c>
       <c r="C171" s="2">
         <f t="shared" si="13"/>
-        <v>11037.924892450757</v>
+        <v>11137.924892450757</v>
       </c>
       <c r="D171" s="2">
         <f t="shared" si="14"/>
@@ -5593,7 +5592,7 @@
       </c>
       <c r="C172" s="2">
         <f t="shared" si="13"/>
-        <v>11166.615215597109</v>
+        <v>11266.615215597109</v>
       </c>
       <c r="D172" s="2">
         <f t="shared" si="14"/>
@@ -5623,7 +5622,7 @@
       </c>
       <c r="C173" s="2">
         <f t="shared" si="13"/>
-        <v>11296.058113732621</v>
+        <v>11396.058113732621</v>
       </c>
       <c r="D173" s="2">
         <f t="shared" si="14"/>
@@ -5653,7 +5652,7 @@
       </c>
       <c r="C174" s="2">
         <f t="shared" si="13"/>
-        <v>11426.253586857292</v>
+        <v>11526.253586857292</v>
       </c>
       <c r="D174" s="2">
         <f t="shared" si="14"/>
@@ -5683,7 +5682,7 @@
       </c>
       <c r="C175" s="2">
         <f t="shared" si="13"/>
-        <v>11557.201634971125</v>
+        <v>11657.201634971125</v>
       </c>
       <c r="D175" s="2">
         <f t="shared" si="14"/>
@@ -5713,7 +5712,7 @@
       </c>
       <c r="C176" s="2">
         <f t="shared" si="13"/>
-        <v>11688.902258074117</v>
+        <v>11788.902258074117</v>
       </c>
       <c r="D176" s="2">
         <f t="shared" si="14"/>
@@ -5743,7 +5742,7 @@
       </c>
       <c r="C177" s="2">
         <f t="shared" si="13"/>
-        <v>11821.355456166268</v>
+        <v>11921.355456166268</v>
       </c>
       <c r="D177" s="2">
         <f t="shared" si="14"/>
@@ -5773,7 +5772,7 @@
       </c>
       <c r="C178" s="2">
         <f t="shared" si="13"/>
-        <v>11954.56122924758</v>
+        <v>12054.56122924758</v>
       </c>
       <c r="D178" s="2">
         <f t="shared" si="14"/>
@@ -5803,7 +5802,7 @@
       </c>
       <c r="C179" s="2">
         <f t="shared" si="13"/>
-        <v>12088.519577318051</v>
+        <v>12188.519577318051</v>
       </c>
       <c r="D179" s="2">
         <f t="shared" si="14"/>
@@ -5833,7 +5832,7 @@
       </c>
       <c r="C180" s="2">
         <f t="shared" si="13"/>
-        <v>12223.230500377684</v>
+        <v>12323.230500377684</v>
       </c>
       <c r="D180" s="2">
         <f t="shared" si="14"/>
@@ -5863,7 +5862,7 @@
       </c>
       <c r="C181" s="2">
         <f t="shared" si="13"/>
-        <v>12358.693998426475</v>
+        <v>12458.693998426475</v>
       </c>
       <c r="D181" s="2">
         <f t="shared" si="14"/>
@@ -5893,7 +5892,7 @@
       </c>
       <c r="C182" s="2">
         <f t="shared" si="13"/>
-        <v>12494.910071464426</v>
+        <v>12594.910071464426</v>
       </c>
       <c r="D182" s="2">
         <f t="shared" si="14"/>
@@ -5923,7 +5922,7 @@
       </c>
       <c r="C183" s="2">
         <f t="shared" si="13"/>
-        <v>12631.878719491539</v>
+        <v>12731.878719491539</v>
       </c>
       <c r="D183" s="2">
         <f t="shared" si="14"/>
@@ -5953,7 +5952,7 @@
       </c>
       <c r="C184" s="2">
         <f t="shared" si="13"/>
-        <v>12769.59994250781</v>
+        <v>12869.59994250781</v>
       </c>
       <c r="D184" s="2">
         <f t="shared" si="14"/>
@@ -5983,7 +5982,7 @@
       </c>
       <c r="C185" s="2">
         <f t="shared" si="13"/>
-        <v>12908.07374051324</v>
+        <v>13008.07374051324</v>
       </c>
       <c r="D185" s="2">
         <f t="shared" si="14"/>
@@ -6013,7 +6012,7 @@
       </c>
       <c r="C186" s="2">
         <f t="shared" si="13"/>
-        <v>13047.300113507832</v>
+        <v>13147.300113507832</v>
       </c>
       <c r="D186" s="2">
         <f t="shared" si="14"/>
@@ -6043,7 +6042,7 @@
       </c>
       <c r="C187" s="2">
         <f t="shared" si="13"/>
-        <v>13187.279061491583</v>
+        <v>13287.279061491583</v>
       </c>
       <c r="D187" s="2">
         <f t="shared" si="14"/>
@@ -6073,7 +6072,7 @@
       </c>
       <c r="C188" s="2">
         <f t="shared" si="13"/>
-        <v>13328.010584464495</v>
+        <v>13428.010584464495</v>
       </c>
       <c r="D188" s="2">
         <f t="shared" si="14"/>
@@ -6103,7 +6102,7 @@
       </c>
       <c r="C189" s="2">
         <f t="shared" si="13"/>
-        <v>13469.494682426566</v>
+        <v>13569.494682426566</v>
       </c>
       <c r="D189" s="2">
         <f t="shared" si="14"/>
@@ -6133,7 +6132,7 @@
       </c>
       <c r="C190" s="2">
         <f t="shared" si="13"/>
-        <v>13611.731355377797</v>
+        <v>13711.731355377797</v>
       </c>
       <c r="D190" s="2">
         <f t="shared" si="14"/>
@@ -6163,7 +6162,7 @@
       </c>
       <c r="C191" s="2">
         <f t="shared" si="13"/>
-        <v>13754.720603318188</v>
+        <v>13854.720603318188</v>
       </c>
       <c r="D191" s="2">
         <f t="shared" si="14"/>
@@ -6193,7 +6192,7 @@
       </c>
       <c r="C192" s="2">
         <f t="shared" si="13"/>
-        <v>13898.462426247739</v>
+        <v>13998.462426247739</v>
       </c>
       <c r="D192" s="2">
         <f t="shared" si="14"/>
@@ -6223,7 +6222,7 @@
       </c>
       <c r="C193" s="2">
         <f t="shared" si="13"/>
-        <v>14042.956824166449</v>
+        <v>14142.956824166449</v>
       </c>
       <c r="D193" s="2">
         <v>100</v>
@@ -6252,7 +6251,7 @@
       </c>
       <c r="C194" s="2">
         <f t="shared" si="13"/>
-        <v>14188.20379707432</v>
+        <v>14288.20379707432</v>
       </c>
       <c r="D194" s="2">
         <v>100</v>
@@ -6281,7 +6280,7 @@
       </c>
       <c r="C195" s="2">
         <f t="shared" si="13"/>
-        <v>14334.203344971351</v>
+        <v>14434.203344971351</v>
       </c>
       <c r="D195" s="2">
         <v>100</v>
@@ -6310,7 +6309,7 @@
       </c>
       <c r="C196" s="2">
         <f t="shared" ref="C196:C259" si="20">LOG(2)*A196*2.5+C195</f>
-        <v>14480.955467857542</v>
+        <v>14580.955467857542</v>
       </c>
       <c r="D196" s="2">
         <v>100</v>
@@ -6339,7 +6338,7 @@
       </c>
       <c r="C197" s="2">
         <f t="shared" si="20"/>
-        <v>14628.460165732893</v>
+        <v>14728.460165732893</v>
       </c>
       <c r="D197" s="2">
         <v>100</v>
@@ -6368,7 +6367,7 @@
       </c>
       <c r="C198" s="2">
         <f t="shared" si="20"/>
-        <v>14776.717438597403</v>
+        <v>14876.717438597403</v>
       </c>
       <c r="D198" s="2">
         <v>100</v>
@@ -6397,7 +6396,7 @@
       </c>
       <c r="C199" s="2">
         <f t="shared" si="20"/>
-        <v>14925.727286451074</v>
+        <v>15025.727286451074</v>
       </c>
       <c r="D199" s="2">
         <v>100</v>
@@ -6426,7 +6425,7 @@
       </c>
       <c r="C200" s="2">
         <f t="shared" si="20"/>
-        <v>15075.489709293905</v>
+        <v>15175.489709293905</v>
       </c>
       <c r="D200" s="2">
         <v>100</v>
@@ -6455,7 +6454,7 @@
       </c>
       <c r="C201" s="2">
         <f t="shared" si="20"/>
-        <v>15226.004707125896</v>
+        <v>15326.004707125896</v>
       </c>
       <c r="D201" s="2">
         <v>100</v>
@@ -6484,7 +6483,7 @@
       </c>
       <c r="C202" s="2">
         <f t="shared" si="20"/>
-        <v>15377.272279947047</v>
+        <v>15477.272279947047</v>
       </c>
       <c r="D202" s="2">
         <v>100</v>
@@ -6513,7 +6512,7 @@
       </c>
       <c r="C203" s="2">
         <f t="shared" si="20"/>
-        <v>15529.292427757357</v>
+        <v>15629.292427757357</v>
       </c>
       <c r="D203" s="2">
         <v>100</v>
@@ -6542,7 +6541,7 @@
       </c>
       <c r="C204" s="2">
         <f t="shared" si="20"/>
-        <v>15682.065150556828</v>
+        <v>15782.065150556828</v>
       </c>
       <c r="D204" s="2">
         <v>100</v>
@@ -6571,7 +6570,7 @@
       </c>
       <c r="C205" s="2">
         <f t="shared" si="20"/>
-        <v>15835.590448345458</v>
+        <v>15935.590448345458</v>
       </c>
       <c r="D205" s="2">
         <v>100</v>
@@ -6600,7 +6599,7 @@
       </c>
       <c r="C206" s="2">
         <f t="shared" si="20"/>
-        <v>15989.868321123247</v>
+        <v>16089.868321123247</v>
       </c>
       <c r="D206" s="2">
         <v>100</v>
@@ -6629,7 +6628,7 @@
       </c>
       <c r="C207" s="2">
         <f t="shared" si="20"/>
-        <v>16144.898768890198</v>
+        <v>16244.898768890198</v>
       </c>
       <c r="D207" s="2">
         <v>100</v>
@@ -6658,7 +6657,7 @@
       </c>
       <c r="C208" s="2">
         <f t="shared" si="20"/>
-        <v>16300.681791646308</v>
+        <v>16400.681791646308</v>
       </c>
       <c r="D208" s="2">
         <v>100</v>
@@ -6687,7 +6686,7 @@
       </c>
       <c r="C209" s="2">
         <f t="shared" si="20"/>
-        <v>16457.217389391579</v>
+        <v>16557.217389391579</v>
       </c>
       <c r="D209" s="2">
         <v>100</v>
@@ -6716,7 +6715,7 @@
       </c>
       <c r="C210" s="2">
         <f t="shared" si="20"/>
-        <v>16614.505562126007</v>
+        <v>16714.505562126007</v>
       </c>
       <c r="D210" s="2">
         <v>100</v>
@@ -6745,7 +6744,7 @@
       </c>
       <c r="C211" s="2">
         <f t="shared" si="20"/>
-        <v>16772.546309849597</v>
+        <v>16872.546309849597</v>
       </c>
       <c r="D211" s="2">
         <v>100</v>
@@ -6774,7 +6773,7 @@
       </c>
       <c r="C212" s="2">
         <f t="shared" si="20"/>
-        <v>16931.339632562347</v>
+        <v>17031.339632562347</v>
       </c>
       <c r="D212" s="2">
         <v>100</v>
@@ -6803,7 +6802,7 @@
       </c>
       <c r="C213" s="2">
         <f t="shared" si="20"/>
-        <v>17090.885530264259</v>
+        <v>17190.885530264259</v>
       </c>
       <c r="D213" s="2">
         <v>100</v>
@@ -6832,7 +6831,7 @@
       </c>
       <c r="C214" s="2">
         <f t="shared" si="20"/>
-        <v>17251.184002955328</v>
+        <v>17351.184002955328</v>
       </c>
       <c r="D214" s="2">
         <v>100</v>
@@ -6861,7 +6860,7 @@
       </c>
       <c r="C215" s="2">
         <f t="shared" si="20"/>
-        <v>17412.235050635558</v>
+        <v>17512.235050635558</v>
       </c>
       <c r="D215" s="2">
         <v>100</v>
@@ -6890,7 +6889,7 @@
       </c>
       <c r="C216" s="2">
         <f t="shared" si="20"/>
-        <v>17574.038673304949</v>
+        <v>17674.038673304949</v>
       </c>
       <c r="D216" s="2">
         <v>100</v>
@@ -6919,7 +6918,7 @@
       </c>
       <c r="C217" s="2">
         <f t="shared" si="20"/>
-        <v>17736.594870963498</v>
+        <v>17836.594870963498</v>
       </c>
       <c r="D217" s="2">
         <v>100</v>
@@ -6948,7 +6947,7 @@
       </c>
       <c r="C218" s="2">
         <f t="shared" si="20"/>
-        <v>17899.903643611207</v>
+        <v>17999.903643611207</v>
       </c>
       <c r="D218" s="2">
         <v>100</v>
@@ -6977,7 +6976,7 @@
       </c>
       <c r="C219" s="2">
         <f t="shared" si="20"/>
-        <v>18063.964991248078</v>
+        <v>18163.964991248078</v>
       </c>
       <c r="D219" s="2">
         <v>100</v>
@@ -7006,7 +7005,7 @@
       </c>
       <c r="C220" s="2">
         <f t="shared" si="20"/>
-        <v>18228.778913874106</v>
+        <v>18328.778913874106</v>
       </c>
       <c r="D220" s="2">
         <v>100</v>
@@ -7035,7 +7034,7 @@
       </c>
       <c r="C221" s="2">
         <f t="shared" si="20"/>
-        <v>18394.345411489296</v>
+        <v>18494.345411489296</v>
       </c>
       <c r="D221" s="2">
         <v>100</v>
@@ -7064,7 +7063,7 @@
       </c>
       <c r="C222" s="2">
         <f t="shared" si="20"/>
-        <v>18560.664484093646</v>
+        <v>18660.664484093646</v>
       </c>
       <c r="D222" s="2">
         <v>100</v>
@@ -7093,7 +7092,7 @@
       </c>
       <c r="C223" s="2">
         <f t="shared" si="20"/>
-        <v>18727.736131687154</v>
+        <v>18827.736131687154</v>
       </c>
       <c r="D223" s="2">
         <v>100</v>
@@ -7122,7 +7121,7 @@
       </c>
       <c r="C224" s="2">
         <f t="shared" si="20"/>
-        <v>18895.560354269823</v>
+        <v>18995.560354269823</v>
       </c>
       <c r="D224" s="2">
         <v>100</v>
@@ -7151,7 +7150,7 @@
       </c>
       <c r="C225" s="2">
         <f t="shared" si="20"/>
-        <v>19064.137151841653</v>
+        <v>19164.137151841653</v>
       </c>
       <c r="D225" s="2">
         <v>100</v>
@@ -7180,7 +7179,7 @@
       </c>
       <c r="C226" s="2">
         <f t="shared" si="20"/>
-        <v>19233.466524402644</v>
+        <v>19333.466524402644</v>
       </c>
       <c r="D226" s="2">
         <v>100</v>
@@ -7209,7 +7208,7 @@
       </c>
       <c r="C227" s="2">
         <f t="shared" si="20"/>
-        <v>19403.548471952792</v>
+        <v>19503.548471952792</v>
       </c>
       <c r="D227" s="2">
         <v>100</v>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C228" s="2">
         <f t="shared" si="20"/>
-        <v>19574.382994492102</v>
+        <v>19674.382994492102</v>
       </c>
       <c r="D228" s="2">
         <v>100</v>
@@ -7267,7 +7266,7 @@
       </c>
       <c r="C229" s="2">
         <f t="shared" si="20"/>
-        <v>19745.970092020572</v>
+        <v>19845.970092020572</v>
       </c>
       <c r="D229" s="2">
         <v>100</v>
@@ -7296,7 +7295,7 @@
       </c>
       <c r="C230" s="2">
         <f t="shared" si="20"/>
-        <v>19918.3097645382</v>
+        <v>20018.3097645382</v>
       </c>
       <c r="D230" s="2">
         <v>100</v>
@@ -7325,7 +7324,7 @@
       </c>
       <c r="C231" s="2">
         <f t="shared" si="20"/>
-        <v>20091.40201204499</v>
+        <v>20191.40201204499</v>
       </c>
       <c r="D231" s="2">
         <v>100</v>
@@ -7354,7 +7353,7 @@
       </c>
       <c r="C232" s="2">
         <f t="shared" si="20"/>
-        <v>20265.24683454094</v>
+        <v>20365.24683454094</v>
       </c>
       <c r="D232" s="2">
         <v>100</v>
@@ -7383,7 +7382,7 @@
       </c>
       <c r="C233" s="2">
         <f t="shared" si="20"/>
-        <v>20439.844232026047</v>
+        <v>20539.844232026047</v>
       </c>
       <c r="D233" s="2">
         <v>100</v>
@@ -7412,7 +7411,7 @@
       </c>
       <c r="C234" s="2">
         <f t="shared" si="20"/>
-        <v>20615.194204500316</v>
+        <v>20715.194204500316</v>
       </c>
       <c r="D234" s="2">
         <v>100</v>
@@ -7441,7 +7440,7 @@
       </c>
       <c r="C235" s="2">
         <f t="shared" si="20"/>
-        <v>20791.296751963746</v>
+        <v>20891.296751963746</v>
       </c>
       <c r="D235" s="2">
         <v>100</v>
@@ -7470,7 +7469,7 @@
       </c>
       <c r="C236" s="2">
         <f t="shared" si="20"/>
-        <v>20968.151874416333</v>
+        <v>21068.151874416333</v>
       </c>
       <c r="D236" s="2">
         <v>100</v>
@@ -7499,7 +7498,7 @@
       </c>
       <c r="C237" s="2">
         <f t="shared" si="20"/>
-        <v>21145.759571858081</v>
+        <v>21245.759571858081</v>
       </c>
       <c r="D237" s="2">
         <v>100</v>
@@ -7528,7 +7527,7 @@
       </c>
       <c r="C238" s="2">
         <f t="shared" si="20"/>
-        <v>21324.119844288991</v>
+        <v>21424.119844288991</v>
       </c>
       <c r="D238" s="2">
         <v>100</v>
@@ -7557,7 +7556,7 @@
       </c>
       <c r="C239" s="2">
         <f t="shared" si="20"/>
-        <v>21503.232691709061</v>
+        <v>21603.232691709061</v>
       </c>
       <c r="D239" s="2">
         <v>100</v>
@@ -7586,7 +7585,7 @@
       </c>
       <c r="C240" s="2">
         <f t="shared" si="20"/>
-        <v>21683.098114118289</v>
+        <v>21783.098114118289</v>
       </c>
       <c r="D240" s="2">
         <v>100</v>
@@ -7615,7 +7614,7 @@
       </c>
       <c r="C241" s="2">
         <f t="shared" si="20"/>
-        <v>21863.716111516678</v>
+        <v>21963.716111516678</v>
       </c>
       <c r="D241" s="2">
         <v>100</v>
@@ -7644,7 +7643,7 @@
       </c>
       <c r="C242" s="2">
         <f t="shared" si="20"/>
-        <v>22045.086683904228</v>
+        <v>22145.086683904228</v>
       </c>
       <c r="D242" s="2">
         <v>100</v>
@@ -7673,7 +7672,7 @@
       </c>
       <c r="C243" s="2">
         <f t="shared" si="20"/>
-        <v>22227.209831280936</v>
+        <v>22327.209831280936</v>
       </c>
       <c r="D243" s="2">
         <v>100</v>
@@ -7702,7 +7701,7 @@
       </c>
       <c r="C244" s="2">
         <f t="shared" si="20"/>
-        <v>22410.085553646804</v>
+        <v>22510.085553646804</v>
       </c>
       <c r="D244" s="2">
         <v>100</v>
@@ -7731,7 +7730,7 @@
       </c>
       <c r="C245" s="2">
         <f t="shared" si="20"/>
-        <v>22593.713851001834</v>
+        <v>22693.713851001834</v>
       </c>
       <c r="D245" s="2">
         <v>100</v>
@@ -7760,7 +7759,7 @@
       </c>
       <c r="C246" s="2">
         <f t="shared" si="20"/>
-        <v>22778.094723346021</v>
+        <v>22878.094723346021</v>
       </c>
       <c r="D246" s="2">
         <v>100</v>
@@ -7789,7 +7788,7 @@
       </c>
       <c r="C247" s="2">
         <f t="shared" si="20"/>
-        <v>22963.228170679369</v>
+        <v>23063.228170679369</v>
       </c>
       <c r="D247" s="2">
         <v>100</v>
@@ -7818,7 +7817,7 @@
       </c>
       <c r="C248" s="2">
         <f t="shared" si="20"/>
-        <v>23149.114193001878</v>
+        <v>23249.114193001878</v>
       </c>
       <c r="D248" s="2">
         <v>100</v>
@@ -7847,7 +7846,7 @@
       </c>
       <c r="C249" s="2">
         <f t="shared" si="20"/>
-        <v>23335.752790313545</v>
+        <v>23435.752790313545</v>
       </c>
       <c r="D249" s="2">
         <v>100</v>
@@ -7876,7 +7875,7 @@
       </c>
       <c r="C250" s="2">
         <f t="shared" si="20"/>
-        <v>23523.143962614373</v>
+        <v>23623.143962614373</v>
       </c>
       <c r="D250" s="2">
         <v>100</v>
@@ -7905,7 +7904,7 @@
       </c>
       <c r="C251" s="2">
         <f t="shared" si="20"/>
-        <v>23711.287709904362</v>
+        <v>23811.287709904362</v>
       </c>
       <c r="D251" s="2">
         <v>100</v>
@@ -7934,7 +7933,7 @@
       </c>
       <c r="C252" s="2">
         <f t="shared" si="20"/>
-        <v>23900.184032183512</v>
+        <v>24000.184032183512</v>
       </c>
       <c r="D252" s="2">
         <v>100</v>
@@ -7963,7 +7962,7 @@
       </c>
       <c r="C253" s="2">
         <f t="shared" si="20"/>
-        <v>24089.832929451819</v>
+        <v>24189.832929451819</v>
       </c>
       <c r="D253" s="2">
         <v>100</v>
@@ -7992,7 +7991,7 @@
       </c>
       <c r="C254" s="2">
         <f t="shared" si="20"/>
-        <v>24280.234401709287</v>
+        <v>24380.234401709287</v>
       </c>
       <c r="D254" s="2">
         <v>100</v>
@@ -8021,7 +8020,7 @@
       </c>
       <c r="C255" s="2">
         <f t="shared" si="20"/>
-        <v>24471.388448955917</v>
+        <v>24571.388448955917</v>
       </c>
       <c r="D255" s="2">
         <v>100</v>
@@ -8050,7 +8049,7 @@
       </c>
       <c r="C256" s="2">
         <f t="shared" si="20"/>
-        <v>24663.295071191704</v>
+        <v>24763.295071191704</v>
       </c>
       <c r="D256" s="2">
         <v>100</v>
@@ -8079,7 +8078,7 @@
       </c>
       <c r="C257" s="2">
         <f t="shared" si="20"/>
-        <v>24855.954268416652</v>
+        <v>24955.954268416652</v>
       </c>
       <c r="D257" s="2">
         <v>100</v>
@@ -8108,7 +8107,7 @@
       </c>
       <c r="C258" s="2">
         <f t="shared" si="20"/>
-        <v>25049.366040630761</v>
+        <v>25149.366040630761</v>
       </c>
       <c r="D258" s="2">
         <v>100</v>
@@ -8137,7 +8136,7 @@
       </c>
       <c r="C259" s="2">
         <f t="shared" si="20"/>
-        <v>25243.530387834027</v>
+        <v>25343.530387834027</v>
       </c>
       <c r="D259" s="2">
         <v>100</v>
@@ -8166,7 +8165,7 @@
       </c>
       <c r="C260" s="2">
         <f t="shared" ref="C260:C323" si="25">LOG(2)*A260*2.5+C259</f>
-        <v>25438.447310026455</v>
+        <v>25538.447310026455</v>
       </c>
       <c r="D260" s="2">
         <v>100</v>
@@ -8195,7 +8194,7 @@
       </c>
       <c r="C261" s="2">
         <f t="shared" si="25"/>
-        <v>25634.116807208044</v>
+        <v>25734.116807208044</v>
       </c>
       <c r="D261" s="2">
         <v>100</v>
@@ -8224,7 +8223,7 @@
       </c>
       <c r="C262" s="2">
         <f t="shared" si="25"/>
-        <v>25830.53887937879</v>
+        <v>25930.53887937879</v>
       </c>
       <c r="D262" s="2">
         <v>100</v>
@@ -8253,7 +8252,7 @@
       </c>
       <c r="C263" s="2">
         <f t="shared" si="25"/>
-        <v>26027.713526538697</v>
+        <v>26127.713526538697</v>
       </c>
       <c r="D263" s="2">
         <v>100</v>
@@ -8282,7 +8281,7 @@
       </c>
       <c r="C264" s="2">
         <f t="shared" si="25"/>
-        <v>26225.640748687765</v>
+        <v>26325.640748687765</v>
       </c>
       <c r="D264" s="2">
         <v>100</v>
@@ -8311,7 +8310,7 @@
       </c>
       <c r="C265" s="2">
         <f t="shared" si="25"/>
-        <v>26424.320545825994</v>
+        <v>26524.320545825994</v>
       </c>
       <c r="D265" s="2">
         <v>100</v>
@@ -8340,7 +8339,7 @@
       </c>
       <c r="C266" s="2">
         <f t="shared" si="25"/>
-        <v>26623.752917953381</v>
+        <v>26723.752917953381</v>
       </c>
       <c r="D266" s="2">
         <v>100</v>
@@ -8369,7 +8368,7 @@
       </c>
       <c r="C267" s="2">
         <f t="shared" si="25"/>
-        <v>26823.937865069929</v>
+        <v>26923.937865069929</v>
       </c>
       <c r="D267" s="2">
         <v>100</v>
@@ -8398,7 +8397,7 @@
       </c>
       <c r="C268" s="2">
         <f t="shared" si="25"/>
-        <v>27024.875387175638</v>
+        <v>27124.875387175638</v>
       </c>
       <c r="D268" s="2">
         <v>100</v>
@@ -8427,7 +8426,7 @@
       </c>
       <c r="C269" s="2">
         <f t="shared" si="25"/>
-        <v>27226.565484270504</v>
+        <v>27326.565484270504</v>
       </c>
       <c r="D269" s="2">
         <v>100</v>
@@ -8456,7 +8455,7 @@
       </c>
       <c r="C270" s="2">
         <f t="shared" si="25"/>
-        <v>27429.008156354532</v>
+        <v>27529.008156354532</v>
       </c>
       <c r="D270" s="2">
         <v>100</v>
@@ -8485,7 +8484,7 @@
       </c>
       <c r="C271" s="2">
         <f t="shared" si="25"/>
-        <v>27632.20340342772</v>
+        <v>27732.20340342772</v>
       </c>
       <c r="D271" s="2">
         <v>100</v>
@@ -8514,7 +8513,7 @@
       </c>
       <c r="C272" s="2">
         <f t="shared" si="25"/>
-        <v>27836.151225490066</v>
+        <v>27936.151225490066</v>
       </c>
       <c r="D272" s="2">
         <v>100</v>
@@ -8543,7 +8542,7 @@
       </c>
       <c r="C273" s="2">
         <f t="shared" si="25"/>
-        <v>28040.851622541573</v>
+        <v>28140.851622541573</v>
       </c>
       <c r="D273" s="2">
         <v>100</v>
@@ -8572,7 +8571,7 @@
       </c>
       <c r="C274" s="2">
         <f t="shared" si="25"/>
-        <v>28246.304594582241</v>
+        <v>28346.304594582241</v>
       </c>
       <c r="D274" s="2">
         <v>100</v>
@@ -8601,7 +8600,7 @@
       </c>
       <c r="C275" s="2">
         <f t="shared" si="25"/>
-        <v>28452.510141612067</v>
+        <v>28552.510141612067</v>
       </c>
       <c r="D275" s="2">
         <v>100</v>
@@ -8630,7 +8629,7 @@
       </c>
       <c r="C276" s="2">
         <f t="shared" si="25"/>
-        <v>28659.468263631054</v>
+        <v>28759.468263631054</v>
       </c>
       <c r="D276" s="2">
         <v>100</v>
@@ -8659,7 +8658,7 @@
       </c>
       <c r="C277" s="2">
         <f t="shared" si="25"/>
-        <v>28867.178960639201</v>
+        <v>28967.178960639201</v>
       </c>
       <c r="D277" s="2">
         <v>100</v>
@@ -8688,7 +8687,7 @@
       </c>
       <c r="C278" s="2">
         <f t="shared" si="25"/>
-        <v>29075.64223263651</v>
+        <v>29175.64223263651</v>
       </c>
       <c r="D278" s="2">
         <v>100</v>
@@ -8717,7 +8716,7 @@
       </c>
       <c r="C279" s="2">
         <f t="shared" si="25"/>
-        <v>29284.858079622976</v>
+        <v>29384.858079622976</v>
       </c>
       <c r="D279" s="2">
         <v>100</v>
@@ -8746,7 +8745,7 @@
       </c>
       <c r="C280" s="2">
         <f t="shared" si="25"/>
-        <v>29494.826501598603</v>
+        <v>29594.826501598603</v>
       </c>
       <c r="D280" s="2">
         <v>100</v>
@@ -8775,7 +8774,7 @@
       </c>
       <c r="C281" s="2">
         <f t="shared" si="25"/>
-        <v>29705.547498563392</v>
+        <v>29805.547498563392</v>
       </c>
       <c r="D281" s="2">
         <v>100</v>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C282" s="2">
         <f t="shared" si="25"/>
-        <v>29917.021070517338</v>
+        <v>30017.021070517338</v>
       </c>
       <c r="D282" s="2">
         <v>100</v>
@@ -8833,7 +8832,7 @@
       </c>
       <c r="C283" s="2">
         <f t="shared" si="25"/>
-        <v>30129.247217460445</v>
+        <v>30229.247217460445</v>
       </c>
       <c r="D283" s="2">
         <v>100</v>
@@ -8862,7 +8861,7 @@
       </c>
       <c r="C284" s="2">
         <f t="shared" si="25"/>
-        <v>30342.225939392712</v>
+        <v>30442.225939392712</v>
       </c>
       <c r="D284" s="2">
         <v>100</v>
@@ -8891,7 +8890,7 @@
       </c>
       <c r="C285" s="2">
         <f t="shared" si="25"/>
-        <v>30555.957236314138</v>
+        <v>30655.957236314138</v>
       </c>
       <c r="D285" s="2">
         <v>100</v>
@@ -8920,7 +8919,7 @@
       </c>
       <c r="C286" s="2">
         <f t="shared" si="25"/>
-        <v>30770.441108224724</v>
+        <v>30870.441108224724</v>
       </c>
       <c r="D286" s="2">
         <v>100</v>
@@ -8949,7 +8948,7 @@
       </c>
       <c r="C287" s="2">
         <f t="shared" si="25"/>
-        <v>30985.677555124472</v>
+        <v>31085.677555124472</v>
       </c>
       <c r="D287" s="2">
         <v>100</v>
@@ -8978,7 +8977,7 @@
       </c>
       <c r="C288" s="2">
         <f t="shared" si="25"/>
-        <v>31201.666577013377</v>
+        <v>31301.666577013377</v>
       </c>
       <c r="D288" s="2">
         <v>100</v>
@@ -9007,7 +9006,7 @@
       </c>
       <c r="C289" s="2">
         <f t="shared" si="25"/>
-        <v>31418.408173891443</v>
+        <v>31518.408173891443</v>
       </c>
       <c r="D289" s="2">
         <v>100</v>
@@ -9036,7 +9035,7 @@
       </c>
       <c r="C290" s="2">
         <f t="shared" si="25"/>
-        <v>31635.90234575867</v>
+        <v>31735.90234575867</v>
       </c>
       <c r="D290" s="2">
         <v>100</v>
@@ -9065,7 +9064,7 @@
       </c>
       <c r="C291" s="2">
         <f t="shared" si="25"/>
-        <v>31854.149092615058</v>
+        <v>31954.149092615058</v>
       </c>
       <c r="D291" s="2">
         <v>100</v>
@@ -9094,7 +9093,7 @@
       </c>
       <c r="C292" s="2">
         <f t="shared" si="25"/>
-        <v>32073.148414460604</v>
+        <v>32173.148414460604</v>
       </c>
       <c r="D292" s="2">
         <v>100</v>
@@ -9123,7 +9122,7 @@
       </c>
       <c r="C293" s="2">
         <f t="shared" si="25"/>
-        <v>32292.900311295311</v>
+        <v>32392.900311295311</v>
       </c>
       <c r="D293" s="2">
         <v>100</v>
@@ -9152,7 +9151,7 @@
       </c>
       <c r="C294" s="2">
         <f t="shared" si="25"/>
-        <v>32513.404783119178</v>
+        <v>32613.404783119178</v>
       </c>
       <c r="D294" s="2">
         <v>100</v>
@@ -9181,7 +9180,7 @@
       </c>
       <c r="C295" s="2">
         <f t="shared" si="25"/>
-        <v>32734.661829932204</v>
+        <v>32834.661829932207</v>
       </c>
       <c r="D295" s="2">
         <v>100</v>
@@ -9210,7 +9209,7 @@
       </c>
       <c r="C296" s="2">
         <f t="shared" si="25"/>
-        <v>32956.671451734386</v>
+        <v>33056.671451734393</v>
       </c>
       <c r="D296" s="2">
         <v>100</v>
@@ -9239,7 +9238,7 @@
       </c>
       <c r="C297" s="2">
         <f t="shared" si="25"/>
-        <v>33179.43364852573</v>
+        <v>33279.433648525737</v>
       </c>
       <c r="D297" s="2">
         <v>100</v>
@@ -9268,7 +9267,7 @@
       </c>
       <c r="C298" s="2">
         <f t="shared" si="25"/>
-        <v>33402.948420306238</v>
+        <v>33502.948420306246</v>
       </c>
       <c r="D298" s="2">
         <v>100</v>
@@ -9297,7 +9296,7 @@
       </c>
       <c r="C299" s="2">
         <f t="shared" si="25"/>
-        <v>33627.215767075904</v>
+        <v>33727.215767075912</v>
       </c>
       <c r="D299" s="2">
         <v>100</v>
@@ -9326,7 +9325,7 @@
       </c>
       <c r="C300" s="2">
         <f t="shared" si="25"/>
-        <v>33852.235688834728</v>
+        <v>33952.235688834735</v>
       </c>
       <c r="D300" s="2">
         <v>100</v>
@@ -9355,7 +9354,7 @@
       </c>
       <c r="C301" s="2">
         <f t="shared" si="25"/>
-        <v>34078.008185582716</v>
+        <v>34178.008185582723</v>
       </c>
       <c r="D301" s="2">
         <v>100</v>
@@ -9384,7 +9383,7 @@
       </c>
       <c r="C302" s="2">
         <f t="shared" si="25"/>
-        <v>34304.533257319861</v>
+        <v>34404.533257319868</v>
       </c>
       <c r="D302" s="2">
         <v>100</v>
@@ -9413,7 +9412,7 @@
       </c>
       <c r="C303" s="2">
         <f t="shared" si="25"/>
-        <v>34531.810904046164</v>
+        <v>34631.810904046171</v>
       </c>
       <c r="D303" s="2">
         <v>100</v>
@@ -9442,7 +9441,7 @@
       </c>
       <c r="C304" s="2">
         <f t="shared" si="25"/>
-        <v>34759.841125761632</v>
+        <v>34859.841125761639</v>
       </c>
       <c r="D304" s="2">
         <v>100</v>
@@ -9471,7 +9470,7 @@
       </c>
       <c r="C305" s="2">
         <f t="shared" si="25"/>
-        <v>34988.623922466257</v>
+        <v>35088.623922466264</v>
       </c>
       <c r="D305" s="2">
         <v>100</v>
@@ -9500,7 +9499,7 @@
       </c>
       <c r="C306" s="2">
         <f t="shared" si="25"/>
-        <v>35218.159294160039</v>
+        <v>35318.159294160047</v>
       </c>
       <c r="D306" s="2">
         <v>100</v>
@@ -9529,7 +9528,7 @@
       </c>
       <c r="C307" s="2">
         <f t="shared" si="25"/>
-        <v>35448.447240842987</v>
+        <v>35548.447240842994</v>
       </c>
       <c r="D307" s="2">
         <v>100</v>
@@ -9558,7 +9557,7 @@
       </c>
       <c r="C308" s="2">
         <f t="shared" si="25"/>
-        <v>35679.487762515091</v>
+        <v>35779.487762515098</v>
       </c>
       <c r="D308" s="2">
         <v>100</v>
@@ -9587,7 +9586,7 @@
       </c>
       <c r="C309" s="2">
         <f t="shared" si="25"/>
-        <v>35911.280859176353</v>
+        <v>36011.280859176361</v>
       </c>
       <c r="D309" s="2">
         <v>100</v>
@@ -9616,7 +9615,7 @@
       </c>
       <c r="C310" s="2">
         <f t="shared" si="25"/>
-        <v>36143.82653082678</v>
+        <v>36243.826530826787</v>
       </c>
       <c r="D310" s="2">
         <v>100</v>
@@ -9645,7 +9644,7 @@
       </c>
       <c r="C311" s="2">
         <f t="shared" si="25"/>
-        <v>36377.124777466364</v>
+        <v>36477.124777466372</v>
       </c>
       <c r="D311" s="2">
         <v>100</v>
@@ -9674,7 +9673,7 @@
       </c>
       <c r="C312" s="2">
         <f t="shared" si="25"/>
-        <v>36611.175599095113</v>
+        <v>36711.175599095121</v>
       </c>
       <c r="D312" s="2">
         <v>100</v>
@@ -9703,7 +9702,7 @@
       </c>
       <c r="C313" s="2">
         <f t="shared" si="25"/>
-        <v>36845.97899571302</v>
+        <v>36945.978995713027</v>
       </c>
       <c r="D313" s="2">
         <v>100</v>
@@ -9732,7 +9731,7 @@
       </c>
       <c r="C314" s="2">
         <f t="shared" si="25"/>
-        <v>37081.534967320084</v>
+        <v>37181.534967320091</v>
       </c>
       <c r="D314" s="2">
         <v>100</v>
@@ -9761,7 +9760,7 @@
       </c>
       <c r="C315" s="2">
         <f t="shared" si="25"/>
-        <v>37317.843513916312</v>
+        <v>37417.843513916319</v>
       </c>
       <c r="D315" s="2">
         <v>100</v>
@@ -9790,7 +9789,7 @@
       </c>
       <c r="C316" s="2">
         <f t="shared" si="25"/>
-        <v>37554.904635501698</v>
+        <v>37654.904635501705</v>
       </c>
       <c r="D316" s="2">
         <v>100</v>
@@ -9819,7 +9818,7 @@
       </c>
       <c r="C317" s="2">
         <f t="shared" si="25"/>
-        <v>37792.718332076241</v>
+        <v>37892.718332076249</v>
       </c>
       <c r="D317" s="2">
         <v>100</v>
@@ -9848,7 +9847,7 @@
       </c>
       <c r="C318" s="2">
         <f t="shared" si="25"/>
-        <v>38031.28460363995</v>
+        <v>38131.284603639957</v>
       </c>
       <c r="D318" s="2">
         <v>100</v>
@@ -9877,7 +9876,7 @@
       </c>
       <c r="C319" s="2">
         <f t="shared" si="25"/>
-        <v>38270.603450192815</v>
+        <v>38370.603450192822</v>
       </c>
       <c r="D319" s="2">
         <v>100</v>
@@ -9906,7 +9905,7 @@
       </c>
       <c r="C320" s="2">
         <f t="shared" si="25"/>
-        <v>38510.674871734838</v>
+        <v>38610.674871734846</v>
       </c>
       <c r="D320" s="2">
         <v>100</v>
@@ -9935,7 +9934,7 @@
       </c>
       <c r="C321" s="2">
         <f t="shared" si="25"/>
-        <v>38751.498868266026</v>
+        <v>38851.498868266033</v>
       </c>
       <c r="D321" s="2">
         <v>100</v>
@@ -9964,7 +9963,7 @@
       </c>
       <c r="C322" s="2">
         <f t="shared" si="25"/>
-        <v>38993.075439786371</v>
+        <v>39093.075439786378</v>
       </c>
       <c r="D322" s="2">
         <v>100</v>
@@ -9993,7 +9992,7 @@
       </c>
       <c r="C323" s="2">
         <f t="shared" si="25"/>
-        <v>39235.404586295874</v>
+        <v>39335.404586295881</v>
       </c>
       <c r="D323" s="2">
         <v>100</v>
@@ -10022,7 +10021,7 @@
       </c>
       <c r="C324" s="2">
         <f t="shared" ref="C324:C387" si="30">LOG(2)*A324*2.5+C323</f>
-        <v>39478.486307794541</v>
+        <v>39578.486307794548</v>
       </c>
       <c r="D324" s="2">
         <v>100</v>
@@ -10051,7 +10050,7 @@
       </c>
       <c r="C325" s="2">
         <f t="shared" si="30"/>
-        <v>39722.320604282366</v>
+        <v>39822.320604282373</v>
       </c>
       <c r="D325" s="2">
         <v>100</v>
@@ -10080,7 +10079,7 @@
       </c>
       <c r="C326" s="2">
         <f t="shared" si="30"/>
-        <v>39966.907475759348</v>
+        <v>40066.907475759355</v>
       </c>
       <c r="D326" s="2">
         <v>100</v>
@@ -10109,7 +10108,7 @@
       </c>
       <c r="C327" s="2">
         <f t="shared" si="30"/>
-        <v>40212.246922225495</v>
+        <v>40312.246922225502</v>
       </c>
       <c r="D327" s="2">
         <v>100</v>
@@ -10138,7 +10137,7 @@
       </c>
       <c r="C328" s="2">
         <f t="shared" si="30"/>
-        <v>40458.338943680799</v>
+        <v>40558.338943680807</v>
       </c>
       <c r="D328" s="2">
         <v>100</v>
@@ -10167,7 +10166,7 @@
       </c>
       <c r="C329" s="2">
         <f t="shared" si="30"/>
-        <v>40705.183540125261</v>
+        <v>40805.183540125268</v>
       </c>
       <c r="D329" s="2">
         <v>100</v>
@@ -10196,7 +10195,7 @@
       </c>
       <c r="C330" s="2">
         <f t="shared" si="30"/>
-        <v>40952.780711558888</v>
+        <v>41052.780711558895</v>
       </c>
       <c r="D330" s="2">
         <v>100</v>
@@ -10225,7 +10224,7 @@
       </c>
       <c r="C331" s="2">
         <f t="shared" si="30"/>
-        <v>41201.130457981671</v>
+        <v>41301.130457981679</v>
       </c>
       <c r="D331" s="2">
         <v>100</v>
@@ -10254,7 +10253,7 @@
       </c>
       <c r="C332" s="2">
         <f t="shared" si="30"/>
-        <v>41450.232779393613</v>
+        <v>41550.23277939362</v>
       </c>
       <c r="D332" s="2">
         <v>100</v>
@@ -10283,7 +10282,7 @@
       </c>
       <c r="C333" s="2">
         <f t="shared" si="30"/>
-        <v>41700.087675794719</v>
+        <v>41800.087675794726</v>
       </c>
       <c r="D333" s="2">
         <v>100</v>
@@ -10312,7 +10311,7 @@
       </c>
       <c r="C334" s="2">
         <f t="shared" si="30"/>
-        <v>41950.695147184982</v>
+        <v>42050.69514718499</v>
       </c>
       <c r="D334" s="2">
         <v>100</v>
@@ -10341,7 +10340,7 @@
       </c>
       <c r="C335" s="2">
         <f t="shared" si="30"/>
-        <v>42202.055193564403</v>
+        <v>42302.055193564411</v>
       </c>
       <c r="D335" s="2">
         <v>100</v>
@@ -10370,7 +10369,7 @@
       </c>
       <c r="C336" s="2">
         <f t="shared" si="30"/>
-        <v>42454.167814932989</v>
+        <v>42554.167814932996</v>
       </c>
       <c r="D336" s="2">
         <v>100</v>
@@ -10399,7 +10398,7 @@
       </c>
       <c r="C337" s="2">
         <f t="shared" si="30"/>
-        <v>42707.033011290732</v>
+        <v>42807.03301129074</v>
       </c>
       <c r="D337" s="2">
         <v>100</v>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C338" s="2">
         <f t="shared" si="30"/>
-        <v>42960.650782637633</v>
+        <v>43060.65078263764</v>
       </c>
       <c r="D338" s="2">
         <v>100</v>
@@ -10457,7 +10456,7 @@
       </c>
       <c r="C339" s="2">
         <f t="shared" si="30"/>
-        <v>43215.021128973698</v>
+        <v>43315.021128973705</v>
       </c>
       <c r="D339" s="2">
         <v>100</v>
@@ -10486,7 +10485,7 @@
       </c>
       <c r="C340" s="2">
         <f t="shared" si="30"/>
-        <v>43470.144050298921</v>
+        <v>43570.144050298928</v>
       </c>
       <c r="D340" s="2">
         <v>100</v>
@@ -10515,7 +10514,7 @@
       </c>
       <c r="C341" s="2">
         <f t="shared" si="30"/>
-        <v>43726.019546613308</v>
+        <v>43826.019546613315</v>
       </c>
       <c r="D341" s="2">
         <v>100</v>
@@ -10544,7 +10543,7 @@
       </c>
       <c r="C342" s="2">
         <f t="shared" si="30"/>
-        <v>43982.647617916853</v>
+        <v>44082.64761791686</v>
       </c>
       <c r="D342" s="2">
         <v>100</v>
@@ -10573,7 +10572,7 @@
       </c>
       <c r="C343" s="2">
         <f t="shared" si="30"/>
-        <v>44240.028264209555</v>
+        <v>44340.028264209563</v>
       </c>
       <c r="D343" s="2">
         <v>100</v>
@@ -10602,7 +10601,7 @@
       </c>
       <c r="C344" s="2">
         <f t="shared" si="30"/>
-        <v>44498.161485491422</v>
+        <v>44598.16148549143</v>
       </c>
       <c r="D344" s="2">
         <v>100</v>
@@ -10631,7 +10630,7 @@
       </c>
       <c r="C345" s="2">
         <f t="shared" si="30"/>
-        <v>44757.047281762447</v>
+        <v>44857.047281762454</v>
       </c>
       <c r="D345" s="2">
         <v>100</v>
@@ -10660,7 +10659,7 @@
       </c>
       <c r="C346" s="2">
         <f t="shared" si="30"/>
-        <v>45016.685653022629</v>
+        <v>45116.685653022636</v>
       </c>
       <c r="D346" s="2">
         <v>100</v>
@@ -10689,7 +10688,7 @@
       </c>
       <c r="C347" s="2">
         <f t="shared" si="30"/>
-        <v>45277.076599271975</v>
+        <v>45377.076599271983</v>
       </c>
       <c r="D347" s="2">
         <v>100</v>
@@ -10718,7 +10717,7 @@
       </c>
       <c r="C348" s="2">
         <f t="shared" si="30"/>
-        <v>45538.220120510479</v>
+        <v>45638.220120510487</v>
       </c>
       <c r="D348" s="2">
         <v>100</v>
@@ -10747,7 +10746,7 @@
       </c>
       <c r="C349" s="2">
         <f t="shared" si="30"/>
-        <v>45800.116216738141</v>
+        <v>45900.116216738148</v>
       </c>
       <c r="D349" s="2">
         <v>100</v>
@@ -10776,7 +10775,7 @@
       </c>
       <c r="C350" s="2">
         <f t="shared" si="30"/>
-        <v>46062.764887954967</v>
+        <v>46162.764887954974</v>
       </c>
       <c r="D350" s="2">
         <v>100</v>
@@ -10805,7 +10804,7 @@
       </c>
       <c r="C351" s="2">
         <f t="shared" si="30"/>
-        <v>46326.166134160951</v>
+        <v>46426.166134160958</v>
       </c>
       <c r="D351" s="2">
         <v>100</v>
@@ -10834,7 +10833,7 @@
       </c>
       <c r="C352" s="2">
         <f t="shared" si="30"/>
-        <v>46590.319955356092</v>
+        <v>46690.319955356099</v>
       </c>
       <c r="D352" s="2">
         <v>100</v>
@@ -10863,7 +10862,7 @@
       </c>
       <c r="C353" s="2">
         <f t="shared" si="30"/>
-        <v>46855.226351540397</v>
+        <v>46955.226351540405</v>
       </c>
       <c r="D353" s="2">
         <v>100</v>
@@ -10892,7 +10891,7 @@
       </c>
       <c r="C354" s="2">
         <f t="shared" si="30"/>
-        <v>47120.885322713861</v>
+        <v>47220.885322713868</v>
       </c>
       <c r="D354" s="2">
         <v>100</v>
@@ -10921,7 +10920,7 @@
       </c>
       <c r="C355" s="2">
         <f t="shared" si="30"/>
-        <v>47387.296868876481</v>
+        <v>47487.296868876489</v>
       </c>
       <c r="D355" s="2">
         <v>100</v>
@@ -10950,7 +10949,7 @@
       </c>
       <c r="C356" s="2">
         <f t="shared" si="30"/>
-        <v>47654.460990028267</v>
+        <v>47754.460990028274</v>
       </c>
       <c r="D356" s="2">
         <v>100</v>
@@ -10979,7 +10978,7 @@
       </c>
       <c r="C357" s="2">
         <f t="shared" si="30"/>
-        <v>47922.377686169209</v>
+        <v>48022.377686169217</v>
       </c>
       <c r="D357" s="2">
         <v>100</v>
@@ -11008,7 +11007,7 @@
       </c>
       <c r="C358" s="2">
         <f t="shared" si="30"/>
-        <v>48191.04695729931</v>
+        <v>48291.046957299317</v>
       </c>
       <c r="D358" s="2">
         <v>100</v>
@@ -11037,7 +11036,7 @@
       </c>
       <c r="C359" s="2">
         <f t="shared" si="30"/>
-        <v>48460.468803418575</v>
+        <v>48560.468803418582</v>
       </c>
       <c r="D359" s="2">
         <v>100</v>
@@ -11066,7 +11065,7 @@
       </c>
       <c r="C360" s="2">
         <f t="shared" si="30"/>
-        <v>48730.643224526997</v>
+        <v>48830.643224527004</v>
       </c>
       <c r="D360" s="2">
         <v>100</v>
@@ -11095,7 +11094,7 @@
       </c>
       <c r="C361" s="2">
         <f t="shared" si="30"/>
-        <v>49001.570220624577</v>
+        <v>49101.570220624584</v>
       </c>
       <c r="D361" s="2">
         <v>100</v>
@@ -11124,7 +11123,7 @@
       </c>
       <c r="C362" s="2">
         <f t="shared" si="30"/>
-        <v>49273.249791711321</v>
+        <v>49373.249791711329</v>
       </c>
       <c r="D362" s="2">
         <v>100</v>
@@ -11153,7 +11152,7 @@
       </c>
       <c r="C363" s="2">
         <f t="shared" si="30"/>
-        <v>49545.681937787223</v>
+        <v>49645.681937787231</v>
       </c>
       <c r="D363" s="2">
         <v>100</v>
@@ -11182,7 +11181,7 @@
       </c>
       <c r="C364" s="2">
         <f t="shared" si="30"/>
-        <v>49818.866658852283</v>
+        <v>49918.86665885229</v>
       </c>
       <c r="D364" s="2">
         <v>100</v>
@@ -11211,7 +11210,7 @@
       </c>
       <c r="C365" s="2">
         <f t="shared" si="30"/>
-        <v>50092.803954906507</v>
+        <v>50192.803954906514</v>
       </c>
       <c r="D365" s="2">
         <v>100</v>
@@ -11240,7 +11239,7 @@
       </c>
       <c r="C366" s="2">
         <f t="shared" si="30"/>
-        <v>50367.493825949889</v>
+        <v>50467.493825949896</v>
       </c>
       <c r="D366" s="2">
         <v>100</v>
@@ -11269,7 +11268,7 @@
       </c>
       <c r="C367" s="2">
         <f t="shared" si="30"/>
-        <v>50642.936271982435</v>
+        <v>50742.936271982442</v>
       </c>
       <c r="D367" s="2">
         <v>100</v>
@@ -11298,7 +11297,7 @@
       </c>
       <c r="C368" s="2">
         <f t="shared" si="30"/>
-        <v>50919.131293004139</v>
+        <v>51019.131293004146</v>
       </c>
       <c r="D368" s="2">
         <v>100</v>
@@ -11327,7 +11326,7 @@
       </c>
       <c r="C369" s="2">
         <f t="shared" si="30"/>
-        <v>51196.078889015</v>
+        <v>51296.078889015007</v>
       </c>
       <c r="D369" s="2">
         <v>100</v>
@@ -11356,7 +11355,7 @@
       </c>
       <c r="C370" s="2">
         <f t="shared" si="30"/>
-        <v>51473.779060015026</v>
+        <v>51573.779060015033</v>
       </c>
       <c r="D370" s="2">
         <v>100</v>
@@ -11385,7 +11384,7 @@
       </c>
       <c r="C371" s="2">
         <f t="shared" si="30"/>
-        <v>51752.231806004209</v>
+        <v>51852.231806004216</v>
       </c>
       <c r="D371" s="2">
         <v>100</v>
@@ -11414,7 +11413,7 @@
       </c>
       <c r="C372" s="2">
         <f t="shared" si="30"/>
-        <v>52031.43712698255</v>
+        <v>52131.437126982557</v>
       </c>
       <c r="D372" s="2">
         <v>100</v>
@@ -11443,7 +11442,7 @@
       </c>
       <c r="C373" s="2">
         <f t="shared" si="30"/>
-        <v>52311.395022950055</v>
+        <v>52411.395022950062</v>
       </c>
       <c r="D373" s="2">
         <v>100</v>
@@ -11472,7 +11471,7 @@
       </c>
       <c r="C374" s="2">
         <f t="shared" si="30"/>
-        <v>52592.105493906718</v>
+        <v>52692.105493906725</v>
       </c>
       <c r="D374" s="2">
         <v>100</v>
@@ -11501,7 +11500,7 @@
       </c>
       <c r="C375" s="2">
         <f t="shared" si="30"/>
-        <v>52873.568539852538</v>
+        <v>52973.568539852546</v>
       </c>
       <c r="D375" s="2">
         <v>100</v>
@@ -11530,7 +11529,7 @@
       </c>
       <c r="C376" s="2">
         <f t="shared" si="30"/>
-        <v>53155.784160787523</v>
+        <v>53255.784160787531</v>
       </c>
       <c r="D376" s="2">
         <v>100</v>
@@ -11559,7 +11558,7 @@
       </c>
       <c r="C377" s="2">
         <f t="shared" si="30"/>
-        <v>53438.752356711666</v>
+        <v>53538.752356711673</v>
       </c>
       <c r="D377" s="2">
         <v>100</v>
@@ -11588,7 +11587,7 @@
       </c>
       <c r="C378" s="2">
         <f t="shared" si="30"/>
-        <v>53722.473127624966</v>
+        <v>53822.473127624973</v>
       </c>
       <c r="D378" s="2">
         <v>100</v>
@@ -11617,7 +11616,7 @@
       </c>
       <c r="C379" s="2">
         <f t="shared" si="30"/>
-        <v>54006.94647352743</v>
+        <v>54106.946473527438</v>
       </c>
       <c r="D379" s="2">
         <v>100</v>
@@ -11646,7 +11645,7 @@
       </c>
       <c r="C380" s="2">
         <f t="shared" si="30"/>
-        <v>54292.172394419053</v>
+        <v>54392.17239441906</v>
       </c>
       <c r="D380" s="2">
         <v>100</v>
@@ -11675,7 +11674,7 @@
       </c>
       <c r="C381" s="2">
         <f t="shared" si="30"/>
-        <v>54578.150890299832</v>
+        <v>54678.150890299839</v>
       </c>
       <c r="D381" s="2">
         <v>100</v>
@@ -11704,7 +11703,7 @@
       </c>
       <c r="C382" s="2">
         <f t="shared" si="30"/>
-        <v>54864.881961169776</v>
+        <v>54964.881961169784</v>
       </c>
       <c r="D382" s="2">
         <v>100</v>
@@ -11733,7 +11732,7 @@
       </c>
       <c r="C383" s="2">
         <f t="shared" si="30"/>
-        <v>55152.365607028878</v>
+        <v>55252.365607028885</v>
       </c>
       <c r="D383" s="2">
         <v>100</v>
@@ -11762,7 +11761,7 @@
       </c>
       <c r="C384" s="2">
         <f t="shared" si="30"/>
-        <v>55440.601827877137</v>
+        <v>55540.601827877144</v>
       </c>
       <c r="D384" s="2">
         <v>100</v>
@@ -11791,7 +11790,7 @@
       </c>
       <c r="C385" s="2">
         <f t="shared" si="30"/>
-        <v>55729.590623714561</v>
+        <v>55829.590623714568</v>
       </c>
       <c r="D385" s="2">
         <v>100</v>
@@ -11820,7 +11819,7 @@
       </c>
       <c r="C386" s="2">
         <f t="shared" si="30"/>
-        <v>56019.331994541142</v>
+        <v>56119.331994541149</v>
       </c>
       <c r="D386" s="2">
         <v>100</v>
@@ -11849,7 +11848,7 @@
       </c>
       <c r="C387" s="2">
         <f t="shared" si="30"/>
-        <v>56309.825940356881</v>
+        <v>56409.825940356888</v>
       </c>
       <c r="D387" s="2">
         <v>100</v>
@@ -11878,7 +11877,7 @@
       </c>
       <c r="C388" s="2">
         <f t="shared" ref="C388:C451" si="35">LOG(2)*A388*2.5+C387</f>
-        <v>56601.072461161784</v>
+        <v>56701.072461161792</v>
       </c>
       <c r="D388" s="2">
         <v>100</v>
@@ -11907,7 +11906,7 @@
       </c>
       <c r="C389" s="2">
         <f t="shared" si="35"/>
-        <v>56893.071556955845</v>
+        <v>56993.071556955852</v>
       </c>
       <c r="D389" s="2">
         <v>100</v>
@@ -11936,7 +11935,7 @@
       </c>
       <c r="C390" s="2">
         <f t="shared" si="35"/>
-        <v>57185.823227739063</v>
+        <v>57285.823227739071</v>
       </c>
       <c r="D390" s="2">
         <v>100</v>
@@ -11965,7 +11964,7 @@
       </c>
       <c r="C391" s="2">
         <f t="shared" si="35"/>
-        <v>57479.327473511446</v>
+        <v>57579.327473511454</v>
       </c>
       <c r="D391" s="2">
         <v>100</v>
@@ -11994,7 +11993,7 @@
       </c>
       <c r="C392" s="2">
         <f t="shared" si="35"/>
-        <v>57773.584294272987</v>
+        <v>57873.584294272994</v>
       </c>
       <c r="D392" s="2">
         <v>100</v>
@@ -12023,7 +12022,7 @@
       </c>
       <c r="C393" s="2">
         <f t="shared" si="35"/>
-        <v>58068.593690023692</v>
+        <v>58168.593690023699</v>
       </c>
       <c r="D393" s="2">
         <v>100</v>
@@ -12052,7 +12051,7 @@
       </c>
       <c r="C394" s="2">
         <f t="shared" si="35"/>
-        <v>58364.355660763555</v>
+        <v>58464.355660763562</v>
       </c>
       <c r="D394" s="2">
         <v>100</v>
@@ -12081,7 +12080,7 @@
       </c>
       <c r="C395" s="2">
         <f t="shared" si="35"/>
-        <v>58660.870206492575</v>
+        <v>58760.870206492582</v>
       </c>
       <c r="D395" s="2">
         <v>100</v>
@@ -12110,7 +12109,7 @@
       </c>
       <c r="C396" s="2">
         <f t="shared" si="35"/>
-        <v>58958.137327210759</v>
+        <v>59058.137327210767</v>
       </c>
       <c r="D396" s="2">
         <v>100</v>
@@ -12139,7 +12138,7 @@
       </c>
       <c r="C397" s="2">
         <f t="shared" si="35"/>
-        <v>59256.157022918102</v>
+        <v>59356.157022918109</v>
       </c>
       <c r="D397" s="2">
         <v>100</v>
@@ -12168,7 +12167,7 @@
       </c>
       <c r="C398" s="2">
         <f t="shared" si="35"/>
-        <v>59554.929293614601</v>
+        <v>59654.929293614608</v>
       </c>
       <c r="D398" s="2">
         <v>100</v>
@@ -12197,7 +12196,7 @@
       </c>
       <c r="C399" s="2">
         <f t="shared" si="35"/>
-        <v>59854.454139300266</v>
+        <v>59954.454139300273</v>
       </c>
       <c r="D399" s="2">
         <v>100</v>
@@ -12226,7 +12225,7 @@
       </c>
       <c r="C400" s="2">
         <f t="shared" si="35"/>
-        <v>60154.731559975087</v>
+        <v>60254.731559975095</v>
       </c>
       <c r="D400" s="2">
         <v>100</v>
@@ -12255,7 +12254,7 @@
       </c>
       <c r="C401" s="2">
         <f t="shared" si="35"/>
-        <v>60455.761555639067</v>
+        <v>60555.761555639074</v>
       </c>
       <c r="D401" s="2">
         <v>100</v>
@@ -12284,7 +12283,7 @@
       </c>
       <c r="C402" s="2">
         <f t="shared" si="35"/>
-        <v>60757.54412629221</v>
+        <v>60857.544126292218</v>
       </c>
       <c r="D402" s="2">
         <v>100</v>
@@ -12313,7 +12312,7 @@
       </c>
       <c r="C403" s="2">
         <f t="shared" si="35"/>
-        <v>61060.079271934512</v>
+        <v>61160.079271934519</v>
       </c>
       <c r="D403" s="2">
         <v>100</v>
@@ -12342,7 +12341,7 @@
       </c>
       <c r="C404" s="2">
         <f t="shared" si="35"/>
-        <v>61363.366992565971</v>
+        <v>61463.366992565978</v>
       </c>
       <c r="D404" s="2">
         <v>100</v>
@@ -12371,7 +12370,7 @@
       </c>
       <c r="C405" s="2">
         <f t="shared" si="35"/>
-        <v>61667.407288186594</v>
+        <v>61767.407288186601</v>
       </c>
       <c r="D405" s="2">
         <v>100</v>
@@ -12400,7 +12399,7 @@
       </c>
       <c r="C406" s="2">
         <f t="shared" si="35"/>
-        <v>61972.200158796375</v>
+        <v>62072.200158796382</v>
       </c>
       <c r="D406" s="2">
         <v>100</v>
@@ -12429,7 +12428,7 @@
       </c>
       <c r="C407" s="2">
         <f t="shared" si="35"/>
-        <v>62277.745604395313</v>
+        <v>62377.745604395321</v>
       </c>
       <c r="D407" s="2">
         <v>100</v>
@@ -12458,7 +12457,7 @@
       </c>
       <c r="C408" s="2">
         <f t="shared" si="35"/>
-        <v>62584.043624983417</v>
+        <v>62684.043624983424</v>
       </c>
       <c r="D408" s="2">
         <v>100</v>
@@ -12487,7 +12486,7 @@
       </c>
       <c r="C409" s="2">
         <f t="shared" si="35"/>
-        <v>62891.094220560677</v>
+        <v>62991.094220560684</v>
       </c>
       <c r="D409" s="2">
         <v>100</v>
@@ -12516,7 +12515,7 @@
       </c>
       <c r="C410" s="2">
         <f t="shared" si="35"/>
-        <v>63198.897391127095</v>
+        <v>63298.897391127102</v>
       </c>
       <c r="D410" s="2">
         <v>100</v>
@@ -12545,7 +12544,7 @@
       </c>
       <c r="C411" s="2">
         <f t="shared" si="35"/>
-        <v>63507.453136682678</v>
+        <v>63607.453136682685</v>
       </c>
       <c r="D411" s="2">
         <v>100</v>
@@ -12574,7 +12573,7 @@
       </c>
       <c r="C412" s="2">
         <f t="shared" si="35"/>
-        <v>63816.761457227418</v>
+        <v>63916.761457227425</v>
       </c>
       <c r="D412" s="2">
         <v>100</v>
@@ -12603,7 +12602,7 @@
       </c>
       <c r="C413" s="2">
         <f t="shared" si="35"/>
-        <v>64126.822352761315</v>
+        <v>64226.822352761323</v>
       </c>
       <c r="D413" s="2">
         <v>100</v>
@@ -12632,7 +12631,7 @@
       </c>
       <c r="C414" s="2">
         <f t="shared" si="35"/>
-        <v>64437.635823284378</v>
+        <v>64537.635823284385</v>
       </c>
       <c r="D414" s="2">
         <v>100</v>
@@ -12661,7 +12660,7 @@
       </c>
       <c r="C415" s="2">
         <f t="shared" si="35"/>
-        <v>64749.201868796597</v>
+        <v>64849.201868796605</v>
       </c>
       <c r="D415" s="2">
         <v>100</v>
@@ -12690,7 +12689,7 @@
       </c>
       <c r="C416" s="2">
         <f t="shared" si="35"/>
-        <v>65061.520489297975</v>
+        <v>65161.520489297982</v>
       </c>
       <c r="D416" s="2">
         <v>100</v>
@@ -12719,7 +12718,7 @@
       </c>
       <c r="C417" s="2">
         <f t="shared" si="35"/>
-        <v>65374.591684788516</v>
+        <v>65474.591684788524</v>
       </c>
       <c r="D417" s="2">
         <v>100</v>
@@ -12748,7 +12747,7 @@
       </c>
       <c r="C418" s="2">
         <f t="shared" si="35"/>
-        <v>65688.415455268216</v>
+        <v>65788.41545526823</v>
       </c>
       <c r="D418" s="2">
         <v>100</v>
@@ -12777,7 +12776,7 @@
       </c>
       <c r="C419" s="2">
         <f t="shared" si="35"/>
-        <v>66002.991800737072</v>
+        <v>66102.991800737087</v>
       </c>
       <c r="D419" s="2">
         <v>100</v>
@@ -12806,7 +12805,7 @@
       </c>
       <c r="C420" s="2">
         <f t="shared" si="35"/>
-        <v>66318.320721195094</v>
+        <v>66418.320721195108</v>
       </c>
       <c r="D420" s="2">
         <v>100</v>
@@ -12835,7 +12834,7 @@
       </c>
       <c r="C421" s="2">
         <f t="shared" si="35"/>
-        <v>66634.40221664228</v>
+        <v>66734.402216642295</v>
       </c>
       <c r="D421" s="2">
         <v>100</v>
@@ -12864,7 +12863,7 @@
       </c>
       <c r="C422" s="2">
         <f t="shared" si="35"/>
-        <v>66951.236287078616</v>
+        <v>67051.236287078631</v>
       </c>
       <c r="D422" s="2">
         <v>100</v>
@@ -12893,7 +12892,7 @@
       </c>
       <c r="C423" s="2">
         <f t="shared" si="35"/>
-        <v>67268.822932504117</v>
+        <v>67368.822932504132</v>
       </c>
       <c r="D423" s="2">
         <v>100</v>
@@ -12922,7 +12921,7 @@
       </c>
       <c r="C424" s="2">
         <f t="shared" si="35"/>
-        <v>67587.162152918783</v>
+        <v>67687.162152918798</v>
       </c>
       <c r="D424" s="2">
         <v>100</v>
@@ -12951,7 +12950,7 @@
       </c>
       <c r="C425" s="2">
         <f t="shared" si="35"/>
-        <v>67906.253948322599</v>
+        <v>68006.253948322614</v>
       </c>
       <c r="D425" s="2">
         <v>100</v>
@@ -12980,7 +12979,7 @@
       </c>
       <c r="C426" s="2">
         <f t="shared" si="35"/>
-        <v>68226.09831871558</v>
+        <v>68326.098318715594</v>
       </c>
       <c r="D426" s="2">
         <v>100</v>
@@ -13009,7 +13008,7 @@
       </c>
       <c r="C427" s="2">
         <f t="shared" si="35"/>
-        <v>68546.695264097725</v>
+        <v>68646.69526409774</v>
       </c>
       <c r="D427" s="2">
         <v>100</v>
@@ -13038,7 +13037,7 @@
       </c>
       <c r="C428" s="2">
         <f t="shared" si="35"/>
-        <v>68868.044784469021</v>
+        <v>68968.044784469035</v>
       </c>
       <c r="D428" s="2">
         <v>100</v>
@@ -13067,7 +13066,7 @@
       </c>
       <c r="C429" s="2">
         <f t="shared" si="35"/>
-        <v>69190.146879829481</v>
+        <v>69290.146879829495</v>
       </c>
       <c r="D429" s="2">
         <v>100</v>
@@ -13096,7 +13095,7 @@
       </c>
       <c r="C430" s="2">
         <f t="shared" si="35"/>
-        <v>69513.001550179106</v>
+        <v>69613.00155017912</v>
       </c>
       <c r="D430" s="2">
         <v>100</v>
@@ -13125,7 +13124,7 @@
       </c>
       <c r="C431" s="2">
         <f t="shared" si="35"/>
-        <v>69836.608795517881</v>
+        <v>69936.608795517895</v>
       </c>
       <c r="D431" s="2">
         <v>100</v>
@@ -13154,7 +13153,7 @@
       </c>
       <c r="C432" s="2">
         <f t="shared" si="35"/>
-        <v>70160.968615845821</v>
+        <v>70260.968615845835</v>
       </c>
       <c r="D432" s="2">
         <v>100</v>
@@ -13183,7 +13182,7 @@
       </c>
       <c r="C433" s="2">
         <f t="shared" si="35"/>
-        <v>70486.081011162925</v>
+        <v>70586.08101116294</v>
       </c>
       <c r="D433" s="2">
         <v>100</v>
@@ -13212,7 +13211,7 @@
       </c>
       <c r="C434" s="2">
         <f t="shared" si="35"/>
-        <v>70811.94598146918</v>
+        <v>70911.945981469195</v>
       </c>
       <c r="D434" s="2">
         <v>100</v>
@@ -13241,7 +13240,7 @@
       </c>
       <c r="C435" s="2">
         <f t="shared" si="35"/>
-        <v>71138.563526764599</v>
+        <v>71238.563526764614</v>
       </c>
       <c r="D435" s="2">
         <v>100</v>
@@ -13270,7 +13269,7 @@
       </c>
       <c r="C436" s="2">
         <f t="shared" si="35"/>
-        <v>71465.933647049183</v>
+        <v>71565.933647049198</v>
       </c>
       <c r="D436" s="2">
         <v>100</v>
@@ -13299,7 +13298,7 @@
       </c>
       <c r="C437" s="2">
         <f t="shared" si="35"/>
-        <v>71794.056342322918</v>
+        <v>71894.056342322932</v>
       </c>
       <c r="D437" s="2">
         <v>100</v>
@@ -13328,7 +13327,7 @@
       </c>
       <c r="C438" s="2">
         <f t="shared" si="35"/>
-        <v>72122.931612585817</v>
+        <v>72222.931612585831</v>
       </c>
       <c r="D438" s="2">
         <v>100</v>
@@ -13357,7 +13356,7 @@
       </c>
       <c r="C439" s="2">
         <f t="shared" si="35"/>
-        <v>72452.55945783788</v>
+        <v>72552.559457837895</v>
       </c>
       <c r="D439" s="2">
         <v>100</v>
@@ -13386,7 +13385,7 @@
       </c>
       <c r="C440" s="2">
         <f t="shared" si="35"/>
-        <v>72782.939878079094</v>
+        <v>72882.939878079109</v>
       </c>
       <c r="D440" s="2">
         <v>100</v>
@@ -13415,7 +13414,7 @@
       </c>
       <c r="C441" s="2">
         <f t="shared" si="35"/>
-        <v>73114.072873309473</v>
+        <v>73214.072873309487</v>
       </c>
       <c r="D441" s="2">
         <v>100</v>
@@ -13444,7 +13443,7 @@
       </c>
       <c r="C442" s="2">
         <f t="shared" si="35"/>
-        <v>73445.958443529016</v>
+        <v>73545.958443529031</v>
       </c>
       <c r="D442" s="2">
         <v>100</v>
@@ -13473,7 +13472,7 @@
       </c>
       <c r="C443" s="2">
         <f t="shared" si="35"/>
-        <v>73778.59658873771</v>
+        <v>73878.596588737724</v>
       </c>
       <c r="D443" s="2">
         <v>100</v>
@@ -13502,7 +13501,7 @@
       </c>
       <c r="C444" s="2">
         <f t="shared" si="35"/>
-        <v>74111.987308935568</v>
+        <v>74211.987308935582</v>
       </c>
       <c r="D444" s="2">
         <v>100</v>
@@ -13531,7 +13530,7 @@
       </c>
       <c r="C445" s="2">
         <f t="shared" si="35"/>
-        <v>74446.130604122591</v>
+        <v>74546.130604122605</v>
       </c>
       <c r="D445" s="2">
         <v>100</v>
@@ -13560,7 +13559,7 @@
       </c>
       <c r="C446" s="2">
         <f t="shared" si="35"/>
-        <v>74781.026474298764</v>
+        <v>74881.026474298778</v>
       </c>
       <c r="D446" s="2">
         <v>100</v>
@@ -13589,7 +13588,7 @@
       </c>
       <c r="C447" s="2">
         <f t="shared" si="35"/>
-        <v>75116.674919464102</v>
+        <v>75216.674919464116</v>
       </c>
       <c r="D447" s="2">
         <v>100</v>
@@ -13618,7 +13617,7 @@
       </c>
       <c r="C448" s="2">
         <f t="shared" si="35"/>
-        <v>75453.075939618604</v>
+        <v>75553.075939618619</v>
       </c>
       <c r="D448" s="2">
         <v>100</v>
@@ -13647,7 +13646,7 @@
       </c>
       <c r="C449" s="2">
         <f t="shared" si="35"/>
-        <v>75790.229534762257</v>
+        <v>75890.229534762271</v>
       </c>
       <c r="D449" s="2">
         <v>100</v>
@@ -13676,7 +13675,7 @@
       </c>
       <c r="C450" s="2">
         <f t="shared" si="35"/>
-        <v>76128.135704895074</v>
+        <v>76228.135704895089</v>
       </c>
       <c r="D450" s="2">
         <v>100</v>
@@ -13705,7 +13704,7 @@
       </c>
       <c r="C451" s="2">
         <f t="shared" si="35"/>
-        <v>76466.794450017056</v>
+        <v>76566.794450017071</v>
       </c>
       <c r="D451" s="2">
         <v>100</v>
@@ -13734,7 +13733,7 @@
       </c>
       <c r="C452" s="2">
         <f t="shared" ref="C452:C515" si="40">LOG(2)*A452*2.5+C451</f>
-        <v>76806.205770128188</v>
+        <v>76906.205770128203</v>
       </c>
       <c r="D452" s="2">
         <v>100</v>
@@ -13763,7 +13762,7 @@
       </c>
       <c r="C453" s="2">
         <f t="shared" si="40"/>
-        <v>77146.369665228485</v>
+        <v>77246.3696652285</v>
       </c>
       <c r="D453" s="2">
         <v>100</v>
@@ -13792,7 +13791,7 @@
       </c>
       <c r="C454" s="2">
         <f t="shared" si="40"/>
-        <v>77487.286135317947</v>
+        <v>77587.286135317961</v>
       </c>
       <c r="D454" s="2">
         <v>100</v>
@@ -13821,7 +13820,7 @@
       </c>
       <c r="C455" s="2">
         <f t="shared" si="40"/>
-        <v>77828.955180396559</v>
+        <v>77928.955180396573</v>
       </c>
       <c r="D455" s="2">
         <v>100</v>
@@ -13850,7 +13849,7 @@
       </c>
       <c r="C456" s="2">
         <f t="shared" si="40"/>
-        <v>78171.376800464335</v>
+        <v>78271.37680046435</v>
       </c>
       <c r="D456" s="2">
         <v>100</v>
@@ -13879,7 +13878,7 @@
       </c>
       <c r="C457" s="2">
         <f t="shared" si="40"/>
-        <v>78514.550995521276</v>
+        <v>78614.550995521291</v>
       </c>
       <c r="D457" s="2">
         <v>100</v>
@@ -13908,7 +13907,7 @@
       </c>
       <c r="C458" s="2">
         <f t="shared" si="40"/>
-        <v>78858.477765567368</v>
+        <v>78958.477765567382</v>
       </c>
       <c r="D458" s="2">
         <v>100</v>
@@ -13937,7 +13936,7 @@
       </c>
       <c r="C459" s="2">
         <f t="shared" si="40"/>
-        <v>79203.157110602624</v>
+        <v>79303.157110602639</v>
       </c>
       <c r="D459" s="2">
         <v>100</v>
@@ -13966,7 +13965,7 @@
       </c>
       <c r="C460" s="2">
         <f t="shared" si="40"/>
-        <v>79548.589030627045</v>
+        <v>79648.589030627059</v>
       </c>
       <c r="D460" s="2">
         <v>100</v>
@@ -13995,7 +13994,7 @@
       </c>
       <c r="C461" s="2">
         <f t="shared" si="40"/>
-        <v>79894.77352564063</v>
+        <v>79994.773525640645</v>
       </c>
       <c r="D461" s="2">
         <v>100</v>
@@ -14024,7 +14023,7 @@
       </c>
       <c r="C462" s="2">
         <f t="shared" si="40"/>
-        <v>80241.710595643366</v>
+        <v>80341.710595643381</v>
       </c>
       <c r="D462" s="2">
         <v>100</v>
@@ -14053,7 +14052,7 @@
       </c>
       <c r="C463" s="2">
         <f t="shared" si="40"/>
-        <v>80589.400240635267</v>
+        <v>80689.400240635281</v>
       </c>
       <c r="D463" s="2">
         <v>100</v>
@@ -14082,7 +14081,7 @@
       </c>
       <c r="C464" s="2">
         <f t="shared" si="40"/>
-        <v>80937.842460616332</v>
+        <v>81037.842460616346</v>
       </c>
       <c r="D464" s="2">
         <v>100</v>
@@ -14111,7 +14110,7 @@
       </c>
       <c r="C465" s="2">
         <f t="shared" si="40"/>
-        <v>81287.037255586547</v>
+        <v>81387.037255586562</v>
       </c>
       <c r="D465" s="2">
         <v>100</v>
@@ -14140,7 +14139,7 @@
       </c>
       <c r="C466" s="2">
         <f t="shared" si="40"/>
-        <v>81636.984625545927</v>
+        <v>81736.984625545942</v>
       </c>
       <c r="D466" s="2">
         <v>100</v>
@@ -14169,7 +14168,7 @@
       </c>
       <c r="C467" s="2">
         <f t="shared" si="40"/>
-        <v>81987.684570494472</v>
+        <v>82087.684570494486</v>
       </c>
       <c r="D467" s="2">
         <v>100</v>
@@ -14198,7 +14197,7 @@
       </c>
       <c r="C468" s="2">
         <f t="shared" si="40"/>
-        <v>82339.137090432167</v>
+        <v>82439.137090432181</v>
       </c>
       <c r="D468" s="2">
         <v>100</v>
@@ -14227,7 +14226,7 @@
       </c>
       <c r="C469" s="2">
         <f t="shared" si="40"/>
-        <v>82691.342185359026</v>
+        <v>82791.342185359041</v>
       </c>
       <c r="D469" s="2">
         <v>100</v>
@@ -14256,7 +14255,7 @@
       </c>
       <c r="C470" s="2">
         <f t="shared" si="40"/>
-        <v>83044.299855275051</v>
+        <v>83144.299855275065</v>
       </c>
       <c r="D470" s="2">
         <v>100</v>
@@ -14285,7 +14284,7 @@
       </c>
       <c r="C471" s="2">
         <f t="shared" si="40"/>
-        <v>83398.010100180225</v>
+        <v>83498.01010018024</v>
       </c>
       <c r="D471" s="2">
         <v>100</v>
@@ -14314,7 +14313,7 @@
       </c>
       <c r="C472" s="2">
         <f t="shared" si="40"/>
-        <v>83752.472920074564</v>
+        <v>83852.472920074579</v>
       </c>
       <c r="D472" s="2">
         <v>100</v>
@@ -14343,7 +14342,7 @@
       </c>
       <c r="C473" s="2">
         <f t="shared" si="40"/>
-        <v>84107.688314958068</v>
+        <v>84207.688314958083</v>
       </c>
       <c r="D473" s="2">
         <v>100</v>
@@ -14372,7 +14371,7 @@
       </c>
       <c r="C474" s="2">
         <f t="shared" si="40"/>
-        <v>84463.656284830722</v>
+        <v>84563.656284830737</v>
       </c>
       <c r="D474" s="2">
         <v>100</v>
@@ -14401,7 +14400,7 @@
       </c>
       <c r="C475" s="2">
         <f t="shared" si="40"/>
-        <v>84820.376829692541</v>
+        <v>84920.376829692555</v>
       </c>
       <c r="D475" s="2">
         <v>100</v>
@@ -14430,7 +14429,7 @@
       </c>
       <c r="C476" s="2">
         <f t="shared" si="40"/>
-        <v>85177.849949543524</v>
+        <v>85277.849949543539</v>
       </c>
       <c r="D476" s="2">
         <v>100</v>
@@ -14459,7 +14458,7 @@
       </c>
       <c r="C477" s="2">
         <f t="shared" si="40"/>
-        <v>85536.075644383658</v>
+        <v>85636.075644383673</v>
       </c>
       <c r="D477" s="2">
         <v>100</v>
@@ -14488,7 +14487,7 @@
       </c>
       <c r="C478" s="2">
         <f t="shared" si="40"/>
-        <v>85895.053914212956</v>
+        <v>85995.053914212971</v>
       </c>
       <c r="D478" s="2">
         <v>100</v>
@@ -14517,7 +14516,7 @@
       </c>
       <c r="C479" s="2">
         <f t="shared" si="40"/>
-        <v>86254.78475903142</v>
+        <v>86354.784759031434</v>
       </c>
       <c r="D479" s="2">
         <v>100</v>
@@ -14546,7 +14545,7 @@
       </c>
       <c r="C480" s="2">
         <f t="shared" si="40"/>
-        <v>86615.268178839033</v>
+        <v>86715.268178839047</v>
       </c>
       <c r="D480" s="2">
         <v>100</v>
@@ -14575,7 +14574,7 @@
       </c>
       <c r="C481" s="2">
         <f t="shared" si="40"/>
-        <v>86976.504173635811</v>
+        <v>87076.504173635825</v>
       </c>
       <c r="D481" s="2">
         <v>100</v>
@@ -14604,7 +14603,7 @@
       </c>
       <c r="C482" s="2">
         <f t="shared" si="40"/>
-        <v>87338.492743421753</v>
+        <v>87438.492743421768</v>
       </c>
       <c r="D482" s="2">
         <v>100</v>
@@ -14633,7 +14632,7 @@
       </c>
       <c r="C483" s="2">
         <f t="shared" si="40"/>
-        <v>87701.233888196846</v>
+        <v>87801.233888196861</v>
       </c>
       <c r="D483" s="2">
         <v>100</v>
@@ -14662,7 +14661,7 @@
       </c>
       <c r="C484" s="2">
         <f t="shared" si="40"/>
-        <v>88064.727607961104</v>
+        <v>88164.727607961118</v>
       </c>
       <c r="D484" s="2">
         <v>100</v>
@@ -14691,7 +14690,7 @@
       </c>
       <c r="C485" s="2">
         <f t="shared" si="40"/>
-        <v>88428.973902714526</v>
+        <v>88528.973902714541</v>
       </c>
       <c r="D485" s="2">
         <v>100</v>
@@ -14720,7 +14719,7 @@
       </c>
       <c r="C486" s="2">
         <f t="shared" si="40"/>
-        <v>88793.972772457098</v>
+        <v>88893.972772457113</v>
       </c>
       <c r="D486" s="2">
         <v>100</v>
@@ -14749,7 +14748,7 @@
       </c>
       <c r="C487" s="2">
         <f t="shared" si="40"/>
-        <v>89159.724217188836</v>
+        <v>89259.72421718885</v>
       </c>
       <c r="D487" s="2">
         <v>100</v>
@@ -14778,7 +14777,7 @@
       </c>
       <c r="C488" s="2">
         <f t="shared" si="40"/>
-        <v>89526.228236909737</v>
+        <v>89626.228236909752</v>
       </c>
       <c r="D488" s="2">
         <v>100</v>
@@ -14807,7 +14806,7 @@
       </c>
       <c r="C489" s="2">
         <f t="shared" si="40"/>
-        <v>89893.484831619789</v>
+        <v>89993.484831619804</v>
       </c>
       <c r="D489" s="2">
         <v>100</v>
@@ -14836,7 +14835,7 @@
       </c>
       <c r="C490" s="2">
         <f t="shared" si="40"/>
-        <v>90261.494001319006</v>
+        <v>90361.494001319021</v>
       </c>
       <c r="D490" s="2">
         <v>100</v>
@@ -14865,7 +14864,7 @@
       </c>
       <c r="C491" s="2">
         <f t="shared" si="40"/>
-        <v>90630.255746007388</v>
+        <v>90730.255746007402</v>
       </c>
       <c r="D491" s="2">
         <v>100</v>
@@ -14894,7 +14893,7 @@
       </c>
       <c r="C492" s="2">
         <f t="shared" si="40"/>
-        <v>90999.770065684919</v>
+        <v>91099.770065684934</v>
       </c>
       <c r="D492" s="2">
         <v>100</v>
@@ -14923,7 +14922,7 @@
       </c>
       <c r="C493" s="2">
         <f t="shared" si="40"/>
-        <v>91370.036960351616</v>
+        <v>91470.03696035163</v>
       </c>
       <c r="D493" s="2">
         <v>100</v>
@@ -14952,7 +14951,7 @@
       </c>
       <c r="C494" s="2">
         <f t="shared" si="40"/>
-        <v>91741.056430007477</v>
+        <v>91841.056430007491</v>
       </c>
       <c r="D494" s="2">
         <v>100</v>
@@ -14981,7 +14980,7 @@
       </c>
       <c r="C495" s="2">
         <f t="shared" si="40"/>
-        <v>92112.828474652488</v>
+        <v>92212.828474652502</v>
       </c>
       <c r="D495" s="2">
         <v>100</v>
@@ -15010,7 +15009,7 @@
       </c>
       <c r="C496" s="2">
         <f t="shared" si="40"/>
-        <v>92485.353094286664</v>
+        <v>92585.353094286678</v>
       </c>
       <c r="D496" s="2">
         <v>100</v>
@@ -15039,7 +15038,7 @@
       </c>
       <c r="C497" s="2">
         <f t="shared" si="40"/>
-        <v>92858.630288910004</v>
+        <v>92958.630288910019</v>
       </c>
       <c r="D497" s="2">
         <v>100</v>
@@ -15068,7 +15067,7 @@
       </c>
       <c r="C498" s="2">
         <f t="shared" si="40"/>
-        <v>93232.660058522495</v>
+        <v>93332.66005852251</v>
       </c>
       <c r="D498" s="2">
         <v>100</v>
@@ -15097,7 +15096,7 @@
       </c>
       <c r="C499" s="2">
         <f t="shared" si="40"/>
-        <v>93607.442403124151</v>
+        <v>93707.442403124165</v>
       </c>
       <c r="D499" s="2">
         <v>100</v>
@@ -15126,7 +15125,7 @@
       </c>
       <c r="C500" s="2">
         <f t="shared" si="40"/>
-        <v>93982.977322714971</v>
+        <v>94082.977322714985</v>
       </c>
       <c r="D500" s="2">
         <v>100</v>
@@ -15155,7 +15154,7 @@
       </c>
       <c r="C501" s="2">
         <f t="shared" si="40"/>
-        <v>94359.264817294941</v>
+        <v>94459.264817294956</v>
       </c>
       <c r="D501" s="2">
         <v>100</v>
@@ -15184,7 +15183,7 @@
       </c>
       <c r="C502" s="2">
         <f t="shared" si="40"/>
-        <v>94736.304886864076</v>
+        <v>94836.304886864091</v>
       </c>
       <c r="D502" s="2">
         <v>100</v>
@@ -15213,7 +15212,7 @@
       </c>
       <c r="C503" s="2">
         <f t="shared" si="40"/>
-        <v>95114.097531422376</v>
+        <v>95214.097531422391</v>
       </c>
       <c r="D503" s="2">
         <v>100</v>
@@ -15242,7 +15241,7 @@
       </c>
       <c r="C504" s="2">
         <f t="shared" si="40"/>
-        <v>95492.642750969826</v>
+        <v>95592.642750969841</v>
       </c>
       <c r="D504" s="2">
         <v>100</v>
@@ -15271,7 +15270,7 @@
       </c>
       <c r="C505" s="2">
         <f t="shared" si="40"/>
-        <v>95871.940545506441</v>
+        <v>95971.940545506455</v>
       </c>
       <c r="D505" s="2">
         <v>100</v>
@@ -15300,7 +15299,7 @@
       </c>
       <c r="C506" s="2">
         <f t="shared" si="40"/>
-        <v>96251.99091503222</v>
+        <v>96351.990915032235</v>
       </c>
       <c r="D506" s="2">
         <v>100</v>
@@ -15329,7 +15328,7 @@
       </c>
       <c r="C507" s="2">
         <f t="shared" si="40"/>
-        <v>96632.79385954715</v>
+        <v>96732.793859547164</v>
       </c>
       <c r="D507" s="2">
         <v>100</v>
@@ -15358,7 +15357,7 @@
       </c>
       <c r="C508" s="2">
         <f t="shared" si="40"/>
-        <v>97014.349379051244</v>
+        <v>97114.349379051258</v>
       </c>
       <c r="D508" s="2">
         <v>100</v>
@@ -15387,7 +15386,7 @@
       </c>
       <c r="C509" s="2">
         <f t="shared" si="40"/>
-        <v>97396.657473544503</v>
+        <v>97496.657473544517</v>
       </c>
       <c r="D509" s="2">
         <v>100</v>
@@ -15416,7 +15415,7 @@
       </c>
       <c r="C510" s="2">
         <f t="shared" si="40"/>
-        <v>97779.718143026912</v>
+        <v>97879.718143026927</v>
       </c>
       <c r="D510" s="2">
         <v>100</v>
@@ -15445,7 +15444,7 @@
       </c>
       <c r="C511" s="2">
         <f t="shared" si="40"/>
-        <v>98163.531387498486</v>
+        <v>98263.5313874985</v>
       </c>
       <c r="D511" s="2">
         <v>100</v>
@@ -15474,7 +15473,7 @@
       </c>
       <c r="C512" s="2">
         <f t="shared" si="40"/>
-        <v>98548.097206959224</v>
+        <v>98648.097206959239</v>
       </c>
       <c r="D512" s="2">
         <v>100</v>
@@ -15503,7 +15502,7 @@
       </c>
       <c r="C513" s="2">
         <f t="shared" si="40"/>
-        <v>98933.415601409113</v>
+        <v>99033.415601409128</v>
       </c>
       <c r="D513" s="2">
         <v>100</v>
@@ -15532,7 +15531,7 @@
       </c>
       <c r="C514" s="2">
         <f t="shared" si="40"/>
-        <v>99319.486570848167</v>
+        <v>99419.486570848181</v>
       </c>
       <c r="D514" s="2">
         <v>100</v>
@@ -15561,7 +15560,7 @@
       </c>
       <c r="C515" s="2">
         <f t="shared" si="40"/>
-        <v>99706.310115276385</v>
+        <v>99806.310115276399</v>
       </c>
       <c r="D515" s="2">
         <v>100</v>
@@ -15590,7 +15589,7 @@
       </c>
       <c r="C516" s="2">
         <f t="shared" ref="C516:C579" si="45">LOG(2)*A516*2.5+C515</f>
-        <v>100093.88623469377</v>
+        <v>100193.88623469378</v>
       </c>
       <c r="D516" s="2">
         <v>100</v>
@@ -15619,7 +15618,7 @@
       </c>
       <c r="C517" s="2">
         <f t="shared" si="45"/>
-        <v>100482.2149291003</v>
+        <v>100582.21492910032</v>
       </c>
       <c r="D517" s="2">
         <v>100</v>
@@ -15648,7 +15647,7 @@
       </c>
       <c r="C518" s="2">
         <f t="shared" si="45"/>
-        <v>100871.296198496</v>
+        <v>100971.29619849601</v>
       </c>
       <c r="D518" s="2">
         <v>100</v>
@@ -15677,7 +15676,7 @@
       </c>
       <c r="C519" s="2">
         <f t="shared" si="45"/>
-        <v>101261.13004288086</v>
+        <v>101361.13004288088</v>
       </c>
       <c r="D519" s="2">
         <v>100</v>
@@ -15706,7 +15705,7 @@
       </c>
       <c r="C520" s="2">
         <f t="shared" si="45"/>
-        <v>101651.71646225487</v>
+        <v>101751.71646225489</v>
       </c>
       <c r="D520" s="2">
         <v>100</v>
@@ -15735,7 +15734,7 @@
       </c>
       <c r="C521" s="2">
         <f t="shared" si="45"/>
-        <v>102043.05545661805</v>
+        <v>102143.05545661807</v>
       </c>
       <c r="D521" s="2">
         <v>100</v>
@@ -15764,7 +15763,7 @@
       </c>
       <c r="C522" s="2">
         <f t="shared" si="45"/>
-        <v>102435.14702597039</v>
+        <v>102535.14702597041</v>
       </c>
       <c r="D522" s="2">
         <v>100</v>
@@ -15793,7 +15792,7 @@
       </c>
       <c r="C523" s="2">
         <f t="shared" si="45"/>
-        <v>102827.99117031189</v>
+        <v>102927.9911703119</v>
       </c>
       <c r="D523" s="2">
         <v>100</v>
@@ -15822,7 +15821,7 @@
       </c>
       <c r="C524" s="2">
         <f t="shared" si="45"/>
-        <v>103221.58788964254</v>
+        <v>103321.58788964256</v>
       </c>
       <c r="D524" s="2">
         <v>100</v>
@@ -15851,7 +15850,7 @@
       </c>
       <c r="C525" s="2">
         <f t="shared" si="45"/>
-        <v>103615.93718396236</v>
+        <v>103715.93718396238</v>
       </c>
       <c r="D525" s="2">
         <v>100</v>
@@ -15880,7 +15879,7 @@
       </c>
       <c r="C526" s="2">
         <f t="shared" si="45"/>
-        <v>104011.03905327134</v>
+        <v>104111.03905327135</v>
       </c>
       <c r="D526" s="2">
         <v>100</v>
@@ -15909,7 +15908,7 @@
       </c>
       <c r="C527" s="2">
         <f t="shared" si="45"/>
-        <v>104406.89349756947</v>
+        <v>104506.89349756949</v>
       </c>
       <c r="D527" s="2">
         <v>100</v>
@@ -15938,7 +15937,7 @@
       </c>
       <c r="C528" s="2">
         <f t="shared" si="45"/>
-        <v>104803.50051685677</v>
+        <v>104903.50051685679</v>
       </c>
       <c r="D528" s="2">
         <v>100</v>
@@ -15967,7 +15966,7 @@
       </c>
       <c r="C529" s="2">
         <f t="shared" si="45"/>
-        <v>105200.86011113322</v>
+        <v>105300.86011113324</v>
       </c>
       <c r="D529" s="2">
         <v>100</v>
@@ -15996,7 +15995,7 @@
       </c>
       <c r="C530" s="2">
         <f t="shared" si="45"/>
-        <v>105598.97228039884</v>
+        <v>105698.97228039886</v>
       </c>
       <c r="D530" s="2">
         <v>100</v>
@@ -16025,7 +16024,7 @@
       </c>
       <c r="C531" s="2">
         <f t="shared" si="45"/>
-        <v>105997.83702465362</v>
+        <v>106097.83702465364</v>
       </c>
       <c r="D531" s="2">
         <v>100</v>
@@ -16054,7 +16053,7 @@
       </c>
       <c r="C532" s="2">
         <f t="shared" si="45"/>
-        <v>106397.45434389755</v>
+        <v>106497.45434389757</v>
       </c>
       <c r="D532" s="2">
         <v>100</v>
@@ -16083,7 +16082,7 @@
       </c>
       <c r="C533" s="2">
         <f t="shared" si="45"/>
-        <v>106797.82423813065</v>
+        <v>106897.82423813066</v>
       </c>
       <c r="D533" s="2">
         <v>100</v>
@@ -16112,7 +16111,7 @@
       </c>
       <c r="C534" s="2">
         <f t="shared" si="45"/>
-        <v>107198.94670735291</v>
+        <v>107298.94670735292</v>
       </c>
       <c r="D534" s="2">
         <v>100</v>
@@ -16141,7 +16140,7 @@
       </c>
       <c r="C535" s="2">
         <f t="shared" si="45"/>
-        <v>107600.82175156432</v>
+        <v>107700.82175156433</v>
       </c>
       <c r="D535" s="2">
         <v>100</v>
@@ -16170,7 +16169,7 @@
       </c>
       <c r="C536" s="2">
         <f t="shared" si="45"/>
-        <v>108003.44937076489</v>
+        <v>108103.44937076491</v>
       </c>
       <c r="D536" s="2">
         <v>100</v>
@@ -16199,7 +16198,7 @@
       </c>
       <c r="C537" s="2">
         <f t="shared" si="45"/>
-        <v>108406.82956495463</v>
+        <v>108506.82956495465</v>
       </c>
       <c r="D537" s="2">
         <v>100</v>
@@ -16228,7 +16227,7 @@
       </c>
       <c r="C538" s="2">
         <f t="shared" si="45"/>
-        <v>108810.96233413352</v>
+        <v>108910.96233413354</v>
       </c>
       <c r="D538" s="2">
         <v>100</v>
@@ -16257,7 +16256,7 @@
       </c>
       <c r="C539" s="2">
         <f t="shared" si="45"/>
-        <v>109215.84767830158</v>
+        <v>109315.84767830159</v>
       </c>
       <c r="D539" s="2">
         <v>100</v>
@@ -16286,7 +16285,7 @@
       </c>
       <c r="C540" s="2">
         <f t="shared" si="45"/>
-        <v>109621.4855974588</v>
+        <v>109721.48559745881</v>
       </c>
       <c r="D540" s="2">
         <v>100</v>
@@ -16315,7 +16314,7 @@
       </c>
       <c r="C541" s="2">
         <f t="shared" si="45"/>
-        <v>110027.87609160517</v>
+        <v>110127.87609160518</v>
       </c>
       <c r="D541" s="2">
         <v>100</v>
@@ -16344,7 +16343,7 @@
       </c>
       <c r="C542" s="2">
         <f t="shared" si="45"/>
-        <v>110435.0191607407</v>
+        <v>110535.01916074072</v>
       </c>
       <c r="D542" s="2">
         <v>100</v>
@@ -16373,7 +16372,7 @@
       </c>
       <c r="C543" s="2">
         <f t="shared" si="45"/>
-        <v>110842.9148048654</v>
+        <v>110942.91480486542</v>
       </c>
       <c r="D543" s="2">
         <v>100</v>
@@ -16402,7 +16401,7 @@
       </c>
       <c r="C544" s="2">
         <f t="shared" si="45"/>
-        <v>111251.56302397925</v>
+        <v>111351.56302397927</v>
       </c>
       <c r="D544" s="2">
         <v>100</v>
@@ -16431,7 +16430,7 @@
       </c>
       <c r="C545" s="2">
         <f t="shared" si="45"/>
-        <v>111660.96381808227</v>
+        <v>111760.96381808228</v>
       </c>
       <c r="D545" s="2">
         <v>100</v>
@@ -16460,7 +16459,7 @@
       </c>
       <c r="C546" s="2">
         <f t="shared" si="45"/>
-        <v>112071.11718717444</v>
+        <v>112171.11718717446</v>
       </c>
       <c r="D546" s="2">
         <v>100</v>
@@ -16489,7 +16488,7 @@
       </c>
       <c r="C547" s="2">
         <f t="shared" si="45"/>
-        <v>112482.02313125577</v>
+        <v>112582.02313125579</v>
       </c>
       <c r="D547" s="2">
         <v>100</v>
@@ -16518,7 +16517,7 @@
       </c>
       <c r="C548" s="2">
         <f t="shared" si="45"/>
-        <v>112893.68165032627</v>
+        <v>112993.68165032628</v>
       </c>
       <c r="D548" s="2">
         <v>100</v>
@@ -16547,7 +16546,7 @@
       </c>
       <c r="C549" s="2">
         <f t="shared" si="45"/>
-        <v>113306.09274438593</v>
+        <v>113406.09274438594</v>
       </c>
       <c r="D549" s="2">
         <v>100</v>
@@ -16576,7 +16575,7 @@
       </c>
       <c r="C550" s="2">
         <f t="shared" si="45"/>
-        <v>113719.25641343473</v>
+        <v>113819.25641343475</v>
       </c>
       <c r="D550" s="2">
         <v>100</v>
@@ -16605,7 +16604,7 @@
       </c>
       <c r="C551" s="2">
         <f t="shared" si="45"/>
-        <v>114133.17265747271</v>
+        <v>114233.17265747272</v>
       </c>
       <c r="D551" s="2">
         <v>100</v>
@@ -16634,7 +16633,7 @@
       </c>
       <c r="C552" s="2">
         <f t="shared" si="45"/>
-        <v>114547.84147649985</v>
+        <v>114647.84147649986</v>
       </c>
       <c r="D552" s="2">
         <v>100</v>
@@ -16663,7 +16662,7 @@
       </c>
       <c r="C553" s="2">
         <f t="shared" si="45"/>
-        <v>114963.26287051613</v>
+        <v>115063.26287051615</v>
       </c>
       <c r="D553" s="2">
         <v>100</v>
@@ -16692,7 +16691,7 @@
       </c>
       <c r="C554" s="2">
         <f t="shared" si="45"/>
-        <v>115379.43683952159</v>
+        <v>115479.4368395216</v>
       </c>
       <c r="D554" s="2">
         <v>100</v>
@@ -16721,7 +16720,7 @@
       </c>
       <c r="C555" s="2">
         <f t="shared" si="45"/>
-        <v>115796.3633835162</v>
+        <v>115896.36338351622</v>
       </c>
       <c r="D555" s="2">
         <v>100</v>
@@ -16750,7 +16749,7 @@
       </c>
       <c r="C556" s="2">
         <f t="shared" si="45"/>
-        <v>116214.04250249997</v>
+        <v>116314.04250249999</v>
       </c>
       <c r="D556" s="2">
         <v>100</v>
@@ -16779,7 +16778,7 @@
       </c>
       <c r="C557" s="2">
         <f t="shared" si="45"/>
-        <v>116632.4741964729</v>
+        <v>116732.47419647292</v>
       </c>
       <c r="D557" s="2">
         <v>100</v>
@@ -16808,7 +16807,7 @@
       </c>
       <c r="C558" s="2">
         <f t="shared" si="45"/>
-        <v>117051.658465435</v>
+        <v>117151.65846543502</v>
       </c>
       <c r="D558" s="2">
         <v>100</v>
@@ -16837,7 +16836,7 @@
       </c>
       <c r="C559" s="2">
         <f t="shared" si="45"/>
-        <v>117471.59530938625</v>
+        <v>117571.59530938626</v>
       </c>
       <c r="D559" s="2">
         <v>100</v>
@@ -16866,7 +16865,7 @@
       </c>
       <c r="C560" s="2">
         <f t="shared" si="45"/>
-        <v>117892.28472832666</v>
+        <v>117992.28472832667</v>
       </c>
       <c r="D560" s="2">
         <v>100</v>
@@ -16895,7 +16894,7 @@
       </c>
       <c r="C561" s="2">
         <f t="shared" si="45"/>
-        <v>118313.72672225624</v>
+        <v>118413.72672225625</v>
       </c>
       <c r="D561" s="2">
         <v>100</v>
@@ -16924,7 +16923,7 @@
       </c>
       <c r="C562" s="2">
         <f t="shared" si="45"/>
-        <v>118735.92129117496</v>
+        <v>118835.92129117498</v>
       </c>
       <c r="D562" s="2">
         <v>100</v>
@@ -16953,7 +16952,7 @@
       </c>
       <c r="C563" s="2">
         <f t="shared" si="45"/>
-        <v>119158.86843508286</v>
+        <v>119258.86843508287</v>
       </c>
       <c r="D563" s="2">
         <v>100</v>
@@ -16982,7 +16981,7 @@
       </c>
       <c r="C564" s="2">
         <f t="shared" si="45"/>
-        <v>119582.56815397991</v>
+        <v>119682.56815397993</v>
       </c>
       <c r="D564" s="2">
         <v>100</v>
@@ -17011,7 +17010,7 @@
       </c>
       <c r="C565" s="2">
         <f t="shared" si="45"/>
-        <v>120007.02044786612</v>
+        <v>120107.02044786613</v>
       </c>
       <c r="D565" s="2">
         <v>100</v>
@@ -17040,7 +17039,7 @@
       </c>
       <c r="C566" s="2">
         <f t="shared" si="45"/>
-        <v>120432.22531674149</v>
+        <v>120532.2253167415</v>
       </c>
       <c r="D566" s="2">
         <v>100</v>
@@ -17069,7 +17068,7 @@
       </c>
       <c r="C567" s="2">
         <f t="shared" si="45"/>
-        <v>120858.18276060603</v>
+        <v>120958.18276060604</v>
       </c>
       <c r="D567" s="2">
         <v>100</v>
@@ -17098,7 +17097,7 @@
       </c>
       <c r="C568" s="2">
         <f t="shared" si="45"/>
-        <v>121284.89277945971</v>
+        <v>121384.89277945974</v>
       </c>
       <c r="D568" s="2">
         <v>100</v>
@@ -17127,7 +17126,7 @@
       </c>
       <c r="C569" s="2">
         <f t="shared" si="45"/>
-        <v>121712.35537330256</v>
+        <v>121812.35537330259</v>
       </c>
       <c r="D569" s="2">
         <v>100</v>
@@ -17156,7 +17155,7 @@
       </c>
       <c r="C570" s="2">
         <f t="shared" si="45"/>
-        <v>122140.57054213458</v>
+        <v>122240.57054213461</v>
       </c>
       <c r="D570" s="2">
         <v>100</v>
@@ -17185,7 +17184,7 @@
       </c>
       <c r="C571" s="2">
         <f t="shared" si="45"/>
-        <v>122569.53828595576</v>
+        <v>122669.53828595579</v>
       </c>
       <c r="D571" s="2">
         <v>100</v>
@@ -17214,7 +17213,7 @@
       </c>
       <c r="C572" s="2">
         <f t="shared" si="45"/>
-        <v>122999.25860476609</v>
+        <v>123099.25860476612</v>
       </c>
       <c r="D572" s="2">
         <v>100</v>
@@ -17243,7 +17242,7 @@
       </c>
       <c r="C573" s="2">
         <f t="shared" si="45"/>
-        <v>123429.73149856558</v>
+        <v>123529.73149856561</v>
       </c>
       <c r="D573" s="2">
         <v>100</v>
@@ -17272,7 +17271,7 @@
       </c>
       <c r="C574" s="2">
         <f t="shared" si="45"/>
-        <v>123860.95696735424</v>
+        <v>123960.95696735427</v>
       </c>
       <c r="D574" s="2">
         <v>100</v>
@@ -17301,7 +17300,7 @@
       </c>
       <c r="C575" s="2">
         <f t="shared" si="45"/>
-        <v>124292.93501113205</v>
+        <v>124392.93501113208</v>
       </c>
       <c r="D575" s="2">
         <v>100</v>
@@ -17330,7 +17329,7 @@
       </c>
       <c r="C576" s="2">
         <f t="shared" si="45"/>
-        <v>124725.66562989903</v>
+        <v>124825.66562989906</v>
       </c>
       <c r="D576" s="2">
         <v>100</v>
@@ -17359,7 +17358,7 @@
       </c>
       <c r="C577" s="2">
         <f t="shared" si="45"/>
-        <v>125159.14882365517</v>
+        <v>125259.1488236552</v>
       </c>
       <c r="D577" s="2">
         <v>100</v>
@@ -17388,7 +17387,7 @@
       </c>
       <c r="C578" s="2">
         <f t="shared" si="45"/>
-        <v>125593.38459240046</v>
+        <v>125693.38459240049</v>
       </c>
       <c r="D578" s="2">
         <v>100</v>
@@ -17417,7 +17416,7 @@
       </c>
       <c r="C579" s="2">
         <f t="shared" si="45"/>
-        <v>126028.37293613491</v>
+        <v>126128.37293613494</v>
       </c>
       <c r="D579" s="2">
         <v>100</v>
@@ -17446,7 +17445,7 @@
       </c>
       <c r="C580" s="2">
         <f t="shared" ref="C580:C643" si="50">LOG(2)*A580*2.5+C579</f>
-        <v>126464.11385485853</v>
+        <v>126564.11385485856</v>
       </c>
       <c r="D580" s="2">
         <v>100</v>
@@ -17475,7 +17474,7 @@
       </c>
       <c r="C581" s="2">
         <f t="shared" si="50"/>
-        <v>126900.6073485713</v>
+        <v>127000.60734857133</v>
       </c>
       <c r="D581" s="2">
         <v>100</v>
@@ -17504,7 +17503,7 @@
       </c>
       <c r="C582" s="2">
         <f t="shared" si="50"/>
-        <v>127337.85341727323</v>
+        <v>127437.85341727326</v>
       </c>
       <c r="D582" s="2">
         <v>100</v>
@@ -17533,7 +17532,7 @@
       </c>
       <c r="C583" s="2">
         <f t="shared" si="50"/>
-        <v>127775.85206096433</v>
+        <v>127875.85206096436</v>
       </c>
       <c r="D583" s="2">
         <v>100</v>
@@ -17562,7 +17561,7 @@
       </c>
       <c r="C584" s="2">
         <f t="shared" si="50"/>
-        <v>128214.60327964458</v>
+        <v>128314.60327964461</v>
       </c>
       <c r="D584" s="2">
         <v>100</v>
@@ -17591,7 +17590,7 @@
       </c>
       <c r="C585" s="2">
         <f t="shared" si="50"/>
-        <v>128654.10707331399</v>
+        <v>128754.10707331402</v>
       </c>
       <c r="D585" s="2">
         <v>100</v>
@@ -17620,7 +17619,7 @@
       </c>
       <c r="C586" s="2">
         <f t="shared" si="50"/>
-        <v>129094.36344197257</v>
+        <v>129194.3634419726</v>
       </c>
       <c r="D586" s="2">
         <v>100</v>
@@ -17649,7 +17648,7 @@
       </c>
       <c r="C587" s="2">
         <f t="shared" si="50"/>
-        <v>129535.3723856203</v>
+        <v>129635.37238562033</v>
       </c>
       <c r="D587" s="2">
         <v>100</v>
@@ -17678,7 +17677,7 @@
       </c>
       <c r="C588" s="2">
         <f t="shared" si="50"/>
-        <v>129977.13390425719</v>
+        <v>130077.13390425722</v>
       </c>
       <c r="D588" s="2">
         <v>100</v>
@@ -17707,7 +17706,7 @@
       </c>
       <c r="C589" s="2">
         <f t="shared" si="50"/>
-        <v>130419.64799788325</v>
+        <v>130519.64799788328</v>
       </c>
       <c r="D589" s="2">
         <v>100</v>
@@ -17736,7 +17735,7 @@
       </c>
       <c r="C590" s="2">
         <f t="shared" si="50"/>
-        <v>130862.91466649846</v>
+        <v>130962.91466649849</v>
       </c>
       <c r="D590" s="2">
         <v>100</v>
@@ -17765,7 +17764,7 @@
       </c>
       <c r="C591" s="2">
         <f t="shared" si="50"/>
-        <v>131306.93391010282</v>
+        <v>131406.93391010285</v>
       </c>
       <c r="D591" s="2">
         <v>100</v>
@@ -17794,7 +17793,7 @@
       </c>
       <c r="C592" s="2">
         <f t="shared" si="50"/>
-        <v>131751.70572869634</v>
+        <v>131851.70572869637</v>
       </c>
       <c r="D592" s="2">
         <v>100</v>
@@ -17823,7 +17822,7 @@
       </c>
       <c r="C593" s="2">
         <f t="shared" si="50"/>
-        <v>132197.23012227903</v>
+        <v>132297.23012227906</v>
       </c>
       <c r="D593" s="2">
         <v>100</v>
@@ -17852,7 +17851,7 @@
       </c>
       <c r="C594" s="2">
         <f t="shared" si="50"/>
-        <v>132643.50709085088</v>
+        <v>132743.50709085091</v>
       </c>
       <c r="D594" s="2">
         <v>100</v>
@@ -17881,7 +17880,7 @@
       </c>
       <c r="C595" s="2">
         <f t="shared" si="50"/>
-        <v>133090.5366344119</v>
+        <v>133190.53663441192</v>
       </c>
       <c r="D595" s="2">
         <v>100</v>
@@ -17910,7 +17909,7 @@
       </c>
       <c r="C596" s="2">
         <f t="shared" si="50"/>
-        <v>133538.31875296208</v>
+        <v>133638.31875296211</v>
       </c>
       <c r="D596" s="2">
         <v>100</v>
@@ -17939,7 +17938,7 @@
       </c>
       <c r="C597" s="2">
         <f t="shared" si="50"/>
-        <v>133986.85344650142</v>
+        <v>134086.85344650145</v>
       </c>
       <c r="D597" s="2">
         <v>100</v>
@@ -17968,7 +17967,7 @@
       </c>
       <c r="C598" s="2">
         <f t="shared" si="50"/>
-        <v>134436.14071502991</v>
+        <v>134536.14071502993</v>
       </c>
       <c r="D598" s="2">
         <v>100</v>
@@ -17997,7 +17996,7 @@
       </c>
       <c r="C599" s="2">
         <f t="shared" si="50"/>
-        <v>134886.18055854755</v>
+        <v>134986.18055854758</v>
       </c>
       <c r="D599" s="2">
         <v>100</v>
@@ -18026,7 +18025,7 @@
       </c>
       <c r="C600" s="2">
         <f t="shared" si="50"/>
-        <v>135336.97297705436</v>
+        <v>135436.97297705439</v>
       </c>
       <c r="D600" s="2">
         <v>100</v>
@@ -18055,7 +18054,7 @@
       </c>
       <c r="C601" s="2">
         <f t="shared" si="50"/>
-        <v>135788.51797055034</v>
+        <v>135888.51797055037</v>
       </c>
       <c r="D601" s="2">
         <v>100</v>
@@ -18084,7 +18083,7 @@
       </c>
       <c r="C602" s="2">
         <f t="shared" si="50"/>
-        <v>136240.81553903548</v>
+        <v>136340.81553903551</v>
       </c>
       <c r="D602" s="2">
         <v>100</v>
@@ -18113,7 +18112,7 @@
       </c>
       <c r="C603" s="2">
         <f t="shared" si="50"/>
-        <v>136693.86568250979</v>
+        <v>136793.86568250982</v>
       </c>
       <c r="D603" s="2">
         <v>100</v>
@@ -18142,7 +18141,7 @@
       </c>
       <c r="C604" s="2">
         <f t="shared" si="50"/>
-        <v>137147.66840097323</v>
+        <v>137247.66840097326</v>
       </c>
       <c r="D604" s="2">
         <v>100</v>
@@ -18171,7 +18170,7 @@
       </c>
       <c r="C605" s="2">
         <f t="shared" si="50"/>
-        <v>137602.22369442583</v>
+        <v>137702.22369442586</v>
       </c>
       <c r="D605" s="2">
         <v>100</v>
@@ -18200,7 +18199,7 @@
       </c>
       <c r="C606" s="2">
         <f t="shared" si="50"/>
-        <v>138057.5315628676</v>
+        <v>138157.53156286763</v>
       </c>
       <c r="D606" s="2">
         <v>100</v>
@@ -18229,7 +18228,7 @@
       </c>
       <c r="C607" s="2">
         <f t="shared" si="50"/>
-        <v>138513.59200629854</v>
+        <v>138613.59200629857</v>
       </c>
       <c r="D607" s="2">
         <v>100</v>
@@ -18258,7 +18257,7 @@
       </c>
       <c r="C608" s="2">
         <f t="shared" si="50"/>
-        <v>138970.40502471864</v>
+        <v>139070.40502471867</v>
       </c>
       <c r="D608" s="2">
         <v>100</v>
@@ -18287,7 +18286,7 @@
       </c>
       <c r="C609" s="2">
         <f t="shared" si="50"/>
-        <v>139427.9706181279</v>
+        <v>139527.97061812793</v>
       </c>
       <c r="D609" s="2">
         <v>100</v>
@@ -18316,7 +18315,7 @@
       </c>
       <c r="C610" s="2">
         <f t="shared" si="50"/>
-        <v>139886.2887865263</v>
+        <v>139986.28878652633</v>
       </c>
       <c r="D610" s="2">
         <v>100</v>
@@ -18345,7 +18344,7 @@
       </c>
       <c r="C611" s="2">
         <f t="shared" si="50"/>
-        <v>140345.35952991387</v>
+        <v>140445.3595299139</v>
       </c>
       <c r="D611" s="2">
         <v>100</v>
@@ -18374,7 +18373,7 @@
       </c>
       <c r="C612" s="2">
         <f t="shared" si="50"/>
-        <v>140805.1828482906</v>
+        <v>140905.18284829063</v>
       </c>
       <c r="D612" s="2">
         <v>100</v>
@@ -18403,7 +18402,7 @@
       </c>
       <c r="C613" s="2">
         <f t="shared" si="50"/>
-        <v>141265.75874165649</v>
+        <v>141365.75874165652</v>
       </c>
       <c r="D613" s="2">
         <v>100</v>
@@ -18432,7 +18431,7 @@
       </c>
       <c r="C614" s="2">
         <f t="shared" si="50"/>
-        <v>141727.08721001155</v>
+        <v>141827.08721001158</v>
       </c>
       <c r="D614" s="2">
         <v>100</v>
@@ -18461,7 +18460,7 @@
       </c>
       <c r="C615" s="2">
         <f t="shared" si="50"/>
-        <v>142189.16825335578</v>
+        <v>142289.16825335581</v>
       </c>
       <c r="D615" s="2">
         <v>100</v>
@@ -18490,7 +18489,7 @@
       </c>
       <c r="C616" s="2">
         <f t="shared" si="50"/>
-        <v>142652.00187168914</v>
+        <v>142752.00187168916</v>
       </c>
       <c r="D616" s="2">
         <v>100</v>
@@ -18519,7 +18518,7 @@
       </c>
       <c r="C617" s="2">
         <f t="shared" si="50"/>
-        <v>143115.58806501166</v>
+        <v>143215.58806501169</v>
       </c>
       <c r="D617" s="2">
         <v>100</v>
@@ -18548,7 +18547,7 @@
       </c>
       <c r="C618" s="2">
         <f t="shared" si="50"/>
-        <v>143579.92683332335</v>
+        <v>143679.92683332338</v>
       </c>
       <c r="D618" s="2">
         <v>100</v>
@@ -18577,7 +18576,7 @@
       </c>
       <c r="C619" s="2">
         <f t="shared" si="50"/>
-        <v>144045.0181766242</v>
+        <v>144145.01817662423</v>
       </c>
       <c r="D619" s="2">
         <v>100</v>
@@ -18606,7 +18605,7 @@
       </c>
       <c r="C620" s="2">
         <f t="shared" si="50"/>
-        <v>144510.86209491422</v>
+        <v>144610.86209491425</v>
       </c>
       <c r="D620" s="2">
         <v>100</v>
@@ -18635,7 +18634,7 @@
       </c>
       <c r="C621" s="2">
         <f t="shared" si="50"/>
-        <v>144977.4585881934</v>
+        <v>145077.45858819343</v>
       </c>
       <c r="D621" s="2">
         <v>100</v>
@@ -18664,7 +18663,7 @@
       </c>
       <c r="C622" s="2">
         <f t="shared" si="50"/>
-        <v>145444.80765646172</v>
+        <v>145544.80765646175</v>
       </c>
       <c r="D622" s="2">
         <v>100</v>
@@ -18693,7 +18692,7 @@
       </c>
       <c r="C623" s="2">
         <f t="shared" si="50"/>
-        <v>145912.90929971921</v>
+        <v>146012.90929971923</v>
       </c>
       <c r="D623" s="2">
         <v>100</v>
@@ -18722,7 +18721,7 @@
       </c>
       <c r="C624" s="2">
         <f t="shared" si="50"/>
-        <v>146381.76351796585</v>
+        <v>146481.76351796588</v>
       </c>
       <c r="D624" s="2">
         <v>100</v>
@@ -18751,7 +18750,7 @@
       </c>
       <c r="C625" s="2">
         <f t="shared" si="50"/>
-        <v>146851.37031120167</v>
+        <v>146951.3703112017</v>
       </c>
       <c r="D625" s="2">
         <v>100</v>
@@ -18780,7 +18779,7 @@
       </c>
       <c r="C626" s="2">
         <f t="shared" si="50"/>
-        <v>147321.72967942664</v>
+        <v>147421.72967942667</v>
       </c>
       <c r="D626" s="2">
         <v>100</v>
@@ -18809,7 +18808,7 @@
       </c>
       <c r="C627" s="2">
         <f t="shared" si="50"/>
-        <v>147792.84162264079</v>
+        <v>147892.84162264082</v>
       </c>
       <c r="D627" s="2">
         <v>100</v>
@@ -18838,7 +18837,7 @@
       </c>
       <c r="C628" s="2">
         <f t="shared" si="50"/>
-        <v>148264.70614084406</v>
+        <v>148364.70614084409</v>
       </c>
       <c r="D628" s="2">
         <v>100</v>
@@ -18867,7 +18866,7 @@
       </c>
       <c r="C629" s="2">
         <f t="shared" si="50"/>
-        <v>148737.32323403651</v>
+        <v>148837.32323403654</v>
       </c>
       <c r="D629" s="2">
         <v>100</v>
@@ -18896,7 +18895,7 @@
       </c>
       <c r="C630" s="2">
         <f t="shared" si="50"/>
-        <v>149210.69290221811</v>
+        <v>149310.69290221814</v>
       </c>
       <c r="D630" s="2">
         <v>100</v>
@@ -18925,7 +18924,7 @@
       </c>
       <c r="C631" s="2">
         <f t="shared" si="50"/>
-        <v>149684.81514538889</v>
+        <v>149784.81514538891</v>
       </c>
       <c r="D631" s="2">
         <v>100</v>
@@ -18954,7 +18953,7 @@
       </c>
       <c r="C632" s="2">
         <f t="shared" si="50"/>
-        <v>150159.68996354882</v>
+        <v>150259.68996354885</v>
       </c>
       <c r="D632" s="2">
         <v>100</v>
@@ -18983,7 +18982,7 @@
       </c>
       <c r="C633" s="2">
         <f t="shared" si="50"/>
-        <v>150635.31735669792</v>
+        <v>150735.31735669795</v>
       </c>
       <c r="D633" s="2">
         <v>100</v>
@@ -19012,7 +19011,7 @@
       </c>
       <c r="C634" s="2">
         <f t="shared" si="50"/>
-        <v>151111.69732483616</v>
+        <v>151211.69732483619</v>
       </c>
       <c r="D634" s="2">
         <v>100</v>
@@ -19041,7 +19040,7 @@
       </c>
       <c r="C635" s="2">
         <f t="shared" si="50"/>
-        <v>151588.82986796356</v>
+        <v>151688.82986796359</v>
       </c>
       <c r="D635" s="2">
         <v>100</v>
@@ -19070,7 +19069,7 @@
       </c>
       <c r="C636" s="2">
         <f t="shared" si="50"/>
-        <v>152066.71498608013</v>
+        <v>152166.71498608016</v>
       </c>
       <c r="D636" s="2">
         <v>100</v>
@@ -19099,7 +19098,7 @@
       </c>
       <c r="C637" s="2">
         <f t="shared" si="50"/>
-        <v>152545.35267918586</v>
+        <v>152645.35267918589</v>
       </c>
       <c r="D637" s="2">
         <v>100</v>
@@ -19128,7 +19127,7 @@
       </c>
       <c r="C638" s="2">
         <f t="shared" si="50"/>
-        <v>153024.74294728076</v>
+        <v>153124.74294728079</v>
       </c>
       <c r="D638" s="2">
         <v>100</v>
@@ -19157,7 +19156,7 @@
       </c>
       <c r="C639" s="2">
         <f t="shared" si="50"/>
-        <v>153504.88579036482</v>
+        <v>153604.88579036485</v>
       </c>
       <c r="D639" s="2">
         <v>100</v>
@@ -19186,7 +19185,7 @@
       </c>
       <c r="C640" s="2">
         <f t="shared" si="50"/>
-        <v>153985.78120843801</v>
+        <v>154085.78120843804</v>
       </c>
       <c r="D640" s="2">
         <v>100</v>
@@ -19215,7 +19214,7 @@
       </c>
       <c r="C641" s="2">
         <f t="shared" si="50"/>
-        <v>154467.42920150037</v>
+        <v>154567.4292015004</v>
       </c>
       <c r="D641" s="2">
         <v>100</v>
@@ -19244,7 +19243,7 @@
       </c>
       <c r="C642" s="2">
         <f t="shared" si="50"/>
-        <v>154949.8297695519</v>
+        <v>155049.82976955193</v>
       </c>
       <c r="D642" s="2">
         <v>100</v>
@@ -19273,7 +19272,7 @@
       </c>
       <c r="C643" s="2">
         <f t="shared" si="50"/>
-        <v>155432.98291259259</v>
+        <v>155532.98291259262</v>
       </c>
       <c r="D643" s="2">
         <v>100</v>
@@ -19302,7 +19301,7 @@
       </c>
       <c r="C644" s="2">
         <f t="shared" ref="C644:C707" si="55">LOG(2)*A644*2.5+C643</f>
-        <v>155916.88863062244</v>
+        <v>156016.88863062247</v>
       </c>
       <c r="D644" s="2">
         <v>100</v>
@@ -19331,7 +19330,7 @@
       </c>
       <c r="C645" s="2">
         <f t="shared" si="55"/>
-        <v>156401.54692364146</v>
+        <v>156501.54692364149</v>
       </c>
       <c r="D645" s="2">
         <v>100</v>
@@ -19360,7 +19359,7 @@
       </c>
       <c r="C646" s="2">
         <f t="shared" si="55"/>
-        <v>156886.95779164962</v>
+        <v>156986.95779164965</v>
       </c>
       <c r="D646" s="2">
         <v>100</v>
@@ -19389,7 +19388,7 @@
       </c>
       <c r="C647" s="2">
         <f t="shared" si="55"/>
-        <v>157373.12123464694</v>
+        <v>157473.12123464697</v>
       </c>
       <c r="D647" s="2">
         <v>100</v>
@@ -19418,7 +19417,7 @@
       </c>
       <c r="C648" s="2">
         <f t="shared" si="55"/>
-        <v>157860.03725263342</v>
+        <v>157960.03725263345</v>
       </c>
       <c r="D648" s="2">
         <v>100</v>
@@ -19447,7 +19446,7 @@
       </c>
       <c r="C649" s="2">
         <f t="shared" si="55"/>
-        <v>158347.70584560907</v>
+        <v>158447.7058456091</v>
       </c>
       <c r="D649" s="2">
         <v>100</v>
@@ -19476,7 +19475,7 @@
       </c>
       <c r="C650" s="2">
         <f t="shared" si="55"/>
-        <v>158836.12701357389</v>
+        <v>158936.12701357392</v>
       </c>
       <c r="D650" s="2">
         <v>100</v>
@@ -19505,7 +19504,7 @@
       </c>
       <c r="C651" s="2">
         <f t="shared" si="55"/>
-        <v>159325.30075652787</v>
+        <v>159425.3007565279</v>
       </c>
       <c r="D651" s="2">
         <v>100</v>
@@ -19534,7 +19533,7 @@
       </c>
       <c r="C652" s="2">
         <f t="shared" si="55"/>
-        <v>159815.22707447101</v>
+        <v>159915.22707447104</v>
       </c>
       <c r="D652" s="2">
         <v>100</v>
@@ -19563,7 +19562,7 @@
       </c>
       <c r="C653" s="2">
         <f t="shared" si="55"/>
-        <v>160305.90596740329</v>
+        <v>160405.90596740332</v>
       </c>
       <c r="D653" s="2">
         <v>100</v>
@@ -19592,7 +19591,7 @@
       </c>
       <c r="C654" s="2">
         <f t="shared" si="55"/>
-        <v>160797.33743532473</v>
+        <v>160897.33743532476</v>
       </c>
       <c r="D654" s="2">
         <v>100</v>
@@ -19621,7 +19620,7 @@
       </c>
       <c r="C655" s="2">
         <f t="shared" si="55"/>
-        <v>161289.52147823534</v>
+        <v>161389.52147823537</v>
       </c>
       <c r="D655" s="2">
         <v>100</v>
@@ -19650,7 +19649,7 @@
       </c>
       <c r="C656" s="2">
         <f t="shared" si="55"/>
-        <v>161782.45809613512</v>
+        <v>161882.45809613515</v>
       </c>
       <c r="D656" s="2">
         <v>100</v>
@@ -19679,7 +19678,7 @@
       </c>
       <c r="C657" s="2">
         <f t="shared" si="55"/>
-        <v>162276.14728902405</v>
+        <v>162376.14728902408</v>
       </c>
       <c r="D657" s="2">
         <v>100</v>
@@ -19708,7 +19707,7 @@
       </c>
       <c r="C658" s="2">
         <f t="shared" si="55"/>
-        <v>162770.58905690216</v>
+        <v>162870.58905690219</v>
       </c>
       <c r="D658" s="2">
         <v>100</v>
@@ -19737,7 +19736,7 @@
       </c>
       <c r="C659" s="2">
         <f t="shared" si="55"/>
-        <v>163265.7833997694</v>
+        <v>163365.78339976943</v>
       </c>
       <c r="D659" s="2">
         <v>100</v>
@@ -19766,7 +19765,7 @@
       </c>
       <c r="C660" s="2">
         <f t="shared" si="55"/>
-        <v>163761.7303176258</v>
+        <v>163861.73031762583</v>
       </c>
       <c r="D660" s="2">
         <v>100</v>
@@ -19795,7 +19794,7 @@
       </c>
       <c r="C661" s="2">
         <f t="shared" si="55"/>
-        <v>164258.42981047137</v>
+        <v>164358.4298104714</v>
       </c>
       <c r="D661" s="2">
         <v>100</v>
@@ -19824,7 +19823,7 @@
       </c>
       <c r="C662" s="2">
         <f t="shared" si="55"/>
-        <v>164755.8818783061</v>
+        <v>164855.88187830613</v>
       </c>
       <c r="D662" s="2">
         <v>100</v>
@@ -19853,7 +19852,7 @@
       </c>
       <c r="C663" s="2">
         <f t="shared" si="55"/>
-        <v>165254.08652113</v>
+        <v>165354.08652113003</v>
       </c>
       <c r="D663" s="2">
         <v>100</v>
@@ -19882,7 +19881,7 @@
       </c>
       <c r="C664" s="2">
         <f t="shared" si="55"/>
-        <v>165753.04373894306</v>
+        <v>165853.04373894309</v>
       </c>
       <c r="D664" s="2">
         <v>100</v>
@@ -19911,7 +19910,7 @@
       </c>
       <c r="C665" s="2">
         <f t="shared" si="55"/>
-        <v>166252.75353174526</v>
+        <v>166352.75353174529</v>
       </c>
       <c r="D665" s="2">
         <v>100</v>
@@ -19940,7 +19939,7 @@
       </c>
       <c r="C666" s="2">
         <f t="shared" si="55"/>
-        <v>166753.21589953662</v>
+        <v>166853.21589953665</v>
       </c>
       <c r="D666" s="2">
         <v>100</v>
@@ -19969,7 +19968,7 @@
       </c>
       <c r="C667" s="2">
         <f t="shared" si="55"/>
-        <v>167254.43084231715</v>
+        <v>167354.43084231718</v>
       </c>
       <c r="D667" s="2">
         <v>100</v>
@@ -19998,7 +19997,7 @@
       </c>
       <c r="C668" s="2">
         <f t="shared" si="55"/>
-        <v>167756.39836008684</v>
+        <v>167856.39836008687</v>
       </c>
       <c r="D668" s="2">
         <v>100</v>
@@ -20027,7 +20026,7 @@
       </c>
       <c r="C669" s="2">
         <f t="shared" si="55"/>
-        <v>168259.11845284569</v>
+        <v>168359.11845284572</v>
       </c>
       <c r="D669" s="2">
         <v>100</v>
@@ -20056,7 +20055,7 @@
       </c>
       <c r="C670" s="2">
         <f t="shared" si="55"/>
-        <v>168762.59112059372</v>
+        <v>168862.59112059374</v>
       </c>
       <c r="D670" s="2">
         <v>100</v>
@@ -20085,7 +20084,7 @@
       </c>
       <c r="C671" s="2">
         <f t="shared" si="55"/>
-        <v>169266.81636333087</v>
+        <v>169366.8163633309</v>
       </c>
       <c r="D671" s="2">
         <v>100</v>
@@ -20114,7 +20113,7 @@
       </c>
       <c r="C672" s="2">
         <f t="shared" si="55"/>
-        <v>169771.79418105719</v>
+        <v>169871.79418105722</v>
       </c>
       <c r="D672" s="2">
         <v>100</v>
@@ -20143,7 +20142,7 @@
       </c>
       <c r="C673" s="2">
         <f t="shared" si="55"/>
-        <v>170277.52457377268</v>
+        <v>170377.52457377271</v>
       </c>
       <c r="D673" s="2">
         <v>100</v>
@@ -20172,7 +20171,7 @@
       </c>
       <c r="C674" s="2">
         <f t="shared" si="55"/>
-        <v>170784.00754147733</v>
+        <v>170884.00754147736</v>
       </c>
       <c r="D674" s="2">
         <v>100</v>
@@ -20201,7 +20200,7 @@
       </c>
       <c r="C675" s="2">
         <f t="shared" si="55"/>
-        <v>171291.24308417115</v>
+        <v>171391.24308417118</v>
       </c>
       <c r="D675" s="2">
         <v>100</v>
@@ -20230,7 +20229,7 @@
       </c>
       <c r="C676" s="2">
         <f t="shared" si="55"/>
-        <v>171799.23120185413</v>
+        <v>171899.23120185416</v>
       </c>
       <c r="D676" s="2">
         <v>100</v>
@@ -20259,7 +20258,7 @@
       </c>
       <c r="C677" s="2">
         <f t="shared" si="55"/>
-        <v>172307.97189452624</v>
+        <v>172407.97189452627</v>
       </c>
       <c r="D677" s="2">
         <v>100</v>
@@ -20288,7 +20287,7 @@
       </c>
       <c r="C678" s="2">
         <f t="shared" si="55"/>
-        <v>172817.46516218752</v>
+        <v>172917.46516218755</v>
       </c>
       <c r="D678" s="2">
         <v>100</v>
@@ -20317,7 +20316,7 @@
       </c>
       <c r="C679" s="2">
         <f t="shared" si="55"/>
-        <v>173327.71100483797</v>
+        <v>173427.711004838</v>
       </c>
       <c r="D679" s="2">
         <v>100</v>
@@ -20346,7 +20345,7 @@
       </c>
       <c r="C680" s="2">
         <f t="shared" si="55"/>
-        <v>173838.70942247758</v>
+        <v>173938.70942247761</v>
       </c>
       <c r="D680" s="2">
         <v>100</v>
@@ -20375,7 +20374,7 @@
       </c>
       <c r="C681" s="2">
         <f t="shared" si="55"/>
-        <v>174350.46041510635</v>
+        <v>174450.46041510638</v>
       </c>
       <c r="D681" s="2">
         <v>100</v>
@@ -20404,7 +20403,7 @@
       </c>
       <c r="C682" s="2">
         <f t="shared" si="55"/>
-        <v>174862.96398272429</v>
+        <v>174962.96398272432</v>
       </c>
       <c r="D682" s="2">
         <v>100</v>
@@ -20433,7 +20432,7 @@
       </c>
       <c r="C683" s="2">
         <f t="shared" si="55"/>
-        <v>175376.22012533137</v>
+        <v>175476.2201253314</v>
       </c>
       <c r="D683" s="2">
         <v>100</v>
@@ -20462,7 +20461,7 @@
       </c>
       <c r="C684" s="2">
         <f t="shared" si="55"/>
-        <v>175890.22884292761</v>
+        <v>175990.22884292764</v>
       </c>
       <c r="D684" s="2">
         <v>100</v>
@@ -20491,7 +20490,7 @@
       </c>
       <c r="C685" s="2">
         <f t="shared" si="55"/>
-        <v>176404.99013551301</v>
+        <v>176504.99013551304</v>
       </c>
       <c r="D685" s="2">
         <v>100</v>
@@ -20520,7 +20519,7 @@
       </c>
       <c r="C686" s="2">
         <f t="shared" si="55"/>
-        <v>176920.50400308758</v>
+        <v>177020.50400308761</v>
       </c>
       <c r="D686" s="2">
         <v>100</v>
@@ -20549,7 +20548,7 @@
       </c>
       <c r="C687" s="2">
         <f t="shared" si="55"/>
-        <v>177436.77044565132</v>
+        <v>177536.77044565135</v>
       </c>
       <c r="D687" s="2">
         <v>100</v>
@@ -20578,7 +20577,7 @@
       </c>
       <c r="C688" s="2">
         <f t="shared" si="55"/>
-        <v>177953.78946320422</v>
+        <v>178053.78946320424</v>
       </c>
       <c r="D688" s="2">
         <v>100</v>
@@ -20607,7 +20606,7 @@
       </c>
       <c r="C689" s="2">
         <f t="shared" si="55"/>
-        <v>178471.56105574625</v>
+        <v>178571.56105574628</v>
       </c>
       <c r="D689" s="2">
         <v>100</v>
@@ -20636,7 +20635,7 @@
       </c>
       <c r="C690" s="2">
         <f t="shared" si="55"/>
-        <v>178990.08522327745</v>
+        <v>179090.08522327748</v>
       </c>
       <c r="D690" s="2">
         <v>100</v>
@@ -20665,7 +20664,7 @@
       </c>
       <c r="C691" s="2">
         <f t="shared" si="55"/>
-        <v>179509.36196579781</v>
+        <v>179609.36196579784</v>
       </c>
       <c r="D691" s="2">
         <v>100</v>
@@ -20694,7 +20693,7 @@
       </c>
       <c r="C692" s="2">
         <f t="shared" si="55"/>
-        <v>180029.39128330734</v>
+        <v>180129.39128330737</v>
       </c>
       <c r="D692" s="2">
         <v>100</v>
@@ -20723,7 +20722,7 @@
       </c>
       <c r="C693" s="2">
         <f t="shared" si="55"/>
-        <v>180550.17317580603</v>
+        <v>180650.17317580606</v>
       </c>
       <c r="D693" s="2">
         <v>100</v>
@@ -20752,7 +20751,7 @@
       </c>
       <c r="C694" s="2">
         <f t="shared" si="55"/>
-        <v>181071.70764329389</v>
+        <v>181171.70764329392</v>
       </c>
       <c r="D694" s="2">
         <v>100</v>
@@ -20781,7 +20780,7 @@
       </c>
       <c r="C695" s="2">
         <f t="shared" si="55"/>
-        <v>181593.99468577089</v>
+        <v>181693.99468577091</v>
       </c>
       <c r="D695" s="2">
         <v>100</v>
@@ -20810,7 +20809,7 @@
       </c>
       <c r="C696" s="2">
         <f t="shared" si="55"/>
-        <v>182117.03430323704</v>
+        <v>182217.03430323707</v>
       </c>
       <c r="D696" s="2">
         <v>100</v>
@@ -20839,7 +20838,7 @@
       </c>
       <c r="C697" s="2">
         <f t="shared" si="55"/>
-        <v>182640.82649569237</v>
+        <v>182740.8264956924</v>
       </c>
       <c r="D697" s="2">
         <v>100</v>
@@ -20868,7 +20867,7 @@
       </c>
       <c r="C698" s="2">
         <f t="shared" si="55"/>
-        <v>183165.37126313685</v>
+        <v>183265.37126313688</v>
       </c>
       <c r="D698" s="2">
         <v>100</v>
@@ -20897,7 +20896,7 @@
       </c>
       <c r="C699" s="2">
         <f t="shared" si="55"/>
-        <v>183690.66860557051</v>
+        <v>183790.66860557054</v>
       </c>
       <c r="D699" s="2">
         <v>100</v>
@@ -20926,7 +20925,7 @@
       </c>
       <c r="C700" s="2">
         <f t="shared" si="55"/>
-        <v>184216.71852299332</v>
+        <v>184316.71852299335</v>
       </c>
       <c r="D700" s="2">
         <v>100</v>
@@ -20955,7 +20954,7 @@
       </c>
       <c r="C701" s="2">
         <f t="shared" si="55"/>
-        <v>184743.52101540528</v>
+        <v>184843.52101540531</v>
       </c>
       <c r="D701" s="2">
         <v>100</v>
@@ -20984,7 +20983,7 @@
       </c>
       <c r="C702" s="2">
         <f t="shared" si="55"/>
-        <v>185271.07608280639</v>
+        <v>185371.07608280642</v>
       </c>
       <c r="D702" s="2">
         <v>100</v>
@@ -21013,7 +21012,7 @@
       </c>
       <c r="C703" s="2">
         <f t="shared" si="55"/>
-        <v>185799.38372519668</v>
+        <v>185899.38372519671</v>
       </c>
       <c r="D703" s="2">
         <v>100</v>
@@ -21042,7 +21041,7 @@
       </c>
       <c r="C704" s="2">
         <f t="shared" si="55"/>
-        <v>186328.44394257612</v>
+        <v>186428.44394257615</v>
       </c>
       <c r="D704" s="2">
         <v>100</v>
@@ -21071,7 +21070,7 @@
       </c>
       <c r="C705" s="2">
         <f t="shared" si="55"/>
-        <v>186858.25673494473</v>
+        <v>186958.25673494476</v>
       </c>
       <c r="D705" s="2">
         <v>100</v>
@@ -21100,7 +21099,7 @@
       </c>
       <c r="C706" s="2">
         <f t="shared" si="55"/>
-        <v>187388.82210230251</v>
+        <v>187488.82210230254</v>
       </c>
       <c r="D706" s="2">
         <v>100</v>
@@ -21129,7 +21128,7 @@
       </c>
       <c r="C707" s="2">
         <f t="shared" si="55"/>
-        <v>187920.14004464945</v>
+        <v>188020.14004464948</v>
       </c>
       <c r="D707" s="2">
         <v>100</v>
@@ -21158,7 +21157,7 @@
       </c>
       <c r="C708" s="2">
         <f t="shared" ref="C708:C771" si="60">LOG(2)*A708*2.5+C707</f>
-        <v>188452.21056198553</v>
+        <v>188552.21056198556</v>
       </c>
       <c r="D708" s="2">
         <v>100</v>
@@ -21187,7 +21186,7 @@
       </c>
       <c r="C709" s="2">
         <f t="shared" si="60"/>
-        <v>188985.03365431077</v>
+        <v>189085.0336543108</v>
       </c>
       <c r="D709" s="2">
         <v>100</v>
@@ -21216,7 +21215,7 @@
       </c>
       <c r="C710" s="2">
         <f t="shared" si="60"/>
-        <v>189518.60932162518</v>
+        <v>189618.6093216252</v>
       </c>
       <c r="D710" s="2">
         <v>100</v>
@@ -21245,7 +21244,7 @@
       </c>
       <c r="C711" s="2">
         <f t="shared" si="60"/>
-        <v>190052.93756392875</v>
+        <v>190152.93756392878</v>
       </c>
       <c r="D711" s="2">
         <v>100</v>
@@ -21274,7 +21273,7 @@
       </c>
       <c r="C712" s="2">
         <f t="shared" si="60"/>
-        <v>190588.01838122148</v>
+        <v>190688.01838122151</v>
       </c>
       <c r="D712" s="2">
         <v>100</v>
@@ -21303,7 +21302,7 @@
       </c>
       <c r="C713" s="2">
         <f t="shared" si="60"/>
-        <v>191123.85177350338</v>
+        <v>191223.85177350341</v>
       </c>
       <c r="D713" s="2">
         <v>100</v>
@@ -21332,7 +21331,7 @@
       </c>
       <c r="C714" s="2">
         <f t="shared" si="60"/>
-        <v>191660.43774077442</v>
+        <v>191760.43774077445</v>
       </c>
       <c r="D714" s="2">
         <v>100</v>
@@ -21361,7 +21360,7 @@
       </c>
       <c r="C715" s="2">
         <f t="shared" si="60"/>
-        <v>192197.77628303462</v>
+        <v>192297.77628303465</v>
       </c>
       <c r="D715" s="2">
         <v>100</v>
@@ -21390,7 +21389,7 @@
       </c>
       <c r="C716" s="2">
         <f t="shared" si="60"/>
-        <v>192735.86740028398</v>
+        <v>192835.86740028401</v>
       </c>
       <c r="D716" s="2">
         <v>100</v>
@@ -21419,7 +21418,7 @@
       </c>
       <c r="C717" s="2">
         <f t="shared" si="60"/>
-        <v>193274.71109252251</v>
+        <v>193374.71109252254</v>
       </c>
       <c r="D717" s="2">
         <v>100</v>
@@ -21448,7 +21447,7 @@
       </c>
       <c r="C718" s="2">
         <f t="shared" si="60"/>
-        <v>193814.30735975021</v>
+        <v>193914.30735975024</v>
       </c>
       <c r="D718" s="2">
         <v>100</v>
@@ -21477,7 +21476,7 @@
       </c>
       <c r="C719" s="2">
         <f t="shared" si="60"/>
-        <v>194354.65620196707</v>
+        <v>194454.6562019671</v>
       </c>
       <c r="D719" s="2">
         <v>100</v>
@@ -21506,7 +21505,7 @@
       </c>
       <c r="C720" s="2">
         <f t="shared" si="60"/>
-        <v>194895.75761917306</v>
+        <v>194995.75761917309</v>
       </c>
       <c r="D720" s="2">
         <v>100</v>
@@ -21535,7 +21534,7 @@
       </c>
       <c r="C721" s="2">
         <f t="shared" si="60"/>
-        <v>195437.61161136822</v>
+        <v>195537.61161136825</v>
       </c>
       <c r="D721" s="2">
         <v>100</v>
@@ -21564,7 +21563,7 @@
       </c>
       <c r="C722" s="2">
         <f t="shared" si="60"/>
-        <v>195980.21817855255</v>
+        <v>196080.21817855258</v>
       </c>
       <c r="D722" s="2">
         <v>100</v>
@@ -21593,7 +21592,7 @@
       </c>
       <c r="C723" s="2">
         <f t="shared" si="60"/>
-        <v>196523.57732072604</v>
+        <v>196623.57732072606</v>
       </c>
       <c r="D723" s="2">
         <v>100</v>
@@ -21622,7 +21621,7 @@
       </c>
       <c r="C724" s="2">
         <f t="shared" si="60"/>
-        <v>197067.68903788869</v>
+        <v>197167.68903788872</v>
       </c>
       <c r="D724" s="2">
         <v>100</v>
@@ -21651,7 +21650,7 @@
       </c>
       <c r="C725" s="2">
         <f t="shared" si="60"/>
-        <v>197612.55333004051</v>
+        <v>197712.55333004054</v>
       </c>
       <c r="D725" s="2">
         <v>100</v>
@@ -21680,7 +21679,7 @@
       </c>
       <c r="C726" s="2">
         <f t="shared" si="60"/>
-        <v>198158.17019718146</v>
+        <v>198258.17019718149</v>
       </c>
       <c r="D726" s="2">
         <v>100</v>
@@ -21709,7 +21708,7 @@
       </c>
       <c r="C727" s="2">
         <f t="shared" si="60"/>
-        <v>198704.53963931158</v>
+        <v>198804.53963931161</v>
       </c>
       <c r="D727" s="2">
         <v>100</v>
@@ -21738,7 +21737,7 @@
       </c>
       <c r="C728" s="2">
         <f t="shared" si="60"/>
-        <v>199251.66165643086</v>
+        <v>199351.66165643089</v>
       </c>
       <c r="D728" s="2">
         <v>100</v>
@@ -21767,7 +21766,7 @@
       </c>
       <c r="C729" s="2">
         <f t="shared" si="60"/>
-        <v>199799.53624853931</v>
+        <v>199899.53624853934</v>
       </c>
       <c r="D729" s="2">
         <v>100</v>
@@ -21796,7 +21795,7 @@
       </c>
       <c r="C730" s="2">
         <f t="shared" si="60"/>
-        <v>200348.16341563693</v>
+        <v>200448.16341563695</v>
       </c>
       <c r="D730" s="2">
         <v>100</v>
@@ -21825,7 +21824,7 @@
       </c>
       <c r="C731" s="2">
         <f t="shared" si="60"/>
-        <v>200897.5431577237</v>
+        <v>200997.54315772373</v>
       </c>
       <c r="D731" s="2">
         <v>100</v>
@@ -21854,7 +21853,7 @@
       </c>
       <c r="C732" s="2">
         <f t="shared" si="60"/>
-        <v>201447.67547479962</v>
+        <v>201547.67547479965</v>
       </c>
       <c r="D732" s="2">
         <v>100</v>
@@ -21883,7 +21882,7 @@
       </c>
       <c r="C733" s="2">
         <f t="shared" si="60"/>
-        <v>201998.56036686469</v>
+        <v>202098.56036686472</v>
       </c>
       <c r="D733" s="2">
         <v>100</v>
@@ -21912,7 +21911,7 @@
       </c>
       <c r="C734" s="2">
         <f t="shared" si="60"/>
-        <v>202550.19783391894</v>
+        <v>202650.19783391897</v>
       </c>
       <c r="D734" s="2">
         <v>100</v>
@@ -21941,7 +21940,7 @@
       </c>
       <c r="C735" s="2">
         <f t="shared" si="60"/>
-        <v>203102.58787596234</v>
+        <v>203202.58787596237</v>
       </c>
       <c r="D735" s="2">
         <v>100</v>
@@ -21970,7 +21969,7 @@
       </c>
       <c r="C736" s="2">
         <f t="shared" si="60"/>
-        <v>203655.73049299492</v>
+        <v>203755.73049299495</v>
       </c>
       <c r="D736" s="2">
         <v>100</v>
@@ -21999,7 +21998,7 @@
       </c>
       <c r="C737" s="2">
         <f t="shared" si="60"/>
-        <v>204209.62568501665</v>
+        <v>204309.62568501668</v>
       </c>
       <c r="D737" s="2">
         <v>100</v>
@@ -22028,7 +22027,7 @@
       </c>
       <c r="C738" s="2">
         <f t="shared" si="60"/>
-        <v>204764.27345202753</v>
+        <v>204864.27345202756</v>
       </c>
       <c r="D738" s="2">
         <v>100</v>
@@ -22057,7 +22056,7 @@
       </c>
       <c r="C739" s="2">
         <f t="shared" si="60"/>
-        <v>205319.67379402756</v>
+        <v>205419.67379402759</v>
       </c>
       <c r="D739" s="2">
         <v>100</v>
@@ -22086,7 +22085,7 @@
       </c>
       <c r="C740" s="2">
         <f t="shared" si="60"/>
-        <v>205875.82671101677</v>
+        <v>205975.82671101679</v>
       </c>
       <c r="D740" s="2">
         <v>100</v>
@@ -22115,7 +22114,7 @@
       </c>
       <c r="C741" s="2">
         <f t="shared" si="60"/>
-        <v>206432.73220299513</v>
+        <v>206532.73220299516</v>
       </c>
       <c r="D741" s="2">
         <v>100</v>
@@ -22144,7 +22143,7 @@
       </c>
       <c r="C742" s="2">
         <f t="shared" si="60"/>
-        <v>206990.39026996266</v>
+        <v>207090.39026996269</v>
       </c>
       <c r="D742" s="2">
         <v>100</v>
@@ -22173,7 +22172,7 @@
       </c>
       <c r="C743" s="2">
         <f t="shared" si="60"/>
-        <v>207548.80091191936</v>
+        <v>207648.80091191939</v>
       </c>
       <c r="D743" s="2">
         <v>100</v>
@@ -22202,7 +22201,7 @@
       </c>
       <c r="C744" s="2">
         <f t="shared" si="60"/>
-        <v>208107.96412886519</v>
+        <v>208207.96412886522</v>
       </c>
       <c r="D744" s="2">
         <v>100</v>
@@ -22231,7 +22230,7 @@
       </c>
       <c r="C745" s="2">
         <f t="shared" si="60"/>
-        <v>208667.87992080019</v>
+        <v>208767.87992080022</v>
       </c>
       <c r="D745" s="2">
         <v>100</v>
@@ -22260,7 +22259,7 @@
       </c>
       <c r="C746" s="2">
         <f t="shared" si="60"/>
-        <v>209228.54828772435</v>
+        <v>209328.54828772438</v>
       </c>
       <c r="D746" s="2">
         <v>100</v>
@@ -22289,7 +22288,7 @@
       </c>
       <c r="C747" s="2">
         <f t="shared" si="60"/>
-        <v>209789.96922963767</v>
+        <v>209889.9692296377</v>
       </c>
       <c r="D747" s="2">
         <v>100</v>
@@ -22318,7 +22317,7 @@
       </c>
       <c r="C748" s="2">
         <f t="shared" si="60"/>
-        <v>210352.14274654016</v>
+        <v>210452.14274654019</v>
       </c>
       <c r="D748" s="2">
         <v>100</v>
@@ -22347,7 +22346,7 @@
       </c>
       <c r="C749" s="2">
         <f t="shared" si="60"/>
-        <v>210915.06883843182</v>
+        <v>211015.06883843185</v>
       </c>
       <c r="D749" s="2">
         <v>100</v>
@@ -22376,7 +22375,7 @@
       </c>
       <c r="C750" s="2">
         <f t="shared" si="60"/>
-        <v>211478.74750531261</v>
+        <v>211578.74750531264</v>
       </c>
       <c r="D750" s="2">
         <v>100</v>
@@ -22405,7 +22404,7 @@
       </c>
       <c r="C751" s="2">
         <f t="shared" si="60"/>
-        <v>212043.17874718257</v>
+        <v>212143.1787471826</v>
       </c>
       <c r="D751" s="2">
         <v>100</v>
@@ -22434,7 +22433,7 @@
       </c>
       <c r="C752" s="2">
         <f t="shared" si="60"/>
-        <v>212608.36256404169</v>
+        <v>212708.36256404172</v>
       </c>
       <c r="D752" s="2">
         <v>100</v>
@@ -22463,7 +22462,7 @@
       </c>
       <c r="C753" s="2">
         <f t="shared" si="60"/>
-        <v>213174.29895588997</v>
+        <v>213274.29895589</v>
       </c>
       <c r="D753" s="2">
         <v>100</v>
@@ -22492,7 +22491,7 @@
       </c>
       <c r="C754" s="2">
         <f t="shared" si="60"/>
-        <v>213740.98792272742</v>
+        <v>213840.98792272745</v>
       </c>
       <c r="D754" s="2">
         <v>100</v>
@@ -22521,7 +22520,7 @@
       </c>
       <c r="C755" s="2">
         <f t="shared" si="60"/>
-        <v>214308.42946455404</v>
+        <v>214408.42946455406</v>
       </c>
       <c r="D755" s="2">
         <v>100</v>
@@ -22550,7 +22549,7 @@
       </c>
       <c r="C756" s="2">
         <f t="shared" si="60"/>
-        <v>214876.62358136981</v>
+        <v>214976.62358136981</v>
       </c>
       <c r="D756" s="2">
         <v>100</v>
@@ -22579,7 +22578,7 @@
       </c>
       <c r="C757" s="2">
         <f t="shared" si="60"/>
-        <v>215445.57027317473</v>
+        <v>215545.57027317473</v>
       </c>
       <c r="D757" s="2">
         <v>100</v>
@@ -22608,7 +22607,7 @@
       </c>
       <c r="C758" s="2">
         <f t="shared" si="60"/>
-        <v>216015.26953996881</v>
+        <v>216115.26953996881</v>
       </c>
       <c r="D758" s="2">
         <v>100</v>
@@ -22637,7 +22636,7 @@
       </c>
       <c r="C759" s="2">
         <f t="shared" si="60"/>
-        <v>216585.72138175205</v>
+        <v>216685.72138175205</v>
       </c>
       <c r="D759" s="2">
         <v>100</v>
@@ -22666,7 +22665,7 @@
       </c>
       <c r="C760" s="2">
         <f t="shared" si="60"/>
-        <v>217156.92579852446</v>
+        <v>217256.92579852446</v>
       </c>
       <c r="D760" s="2">
         <v>100</v>
@@ -22695,7 +22694,7 @@
       </c>
       <c r="C761" s="2">
         <f t="shared" si="60"/>
-        <v>217728.88279028604</v>
+        <v>217828.88279028604</v>
       </c>
       <c r="D761" s="2">
         <v>100</v>
@@ -22724,7 +22723,7 @@
       </c>
       <c r="C762" s="2">
         <f t="shared" si="60"/>
-        <v>218301.59235703677</v>
+        <v>218401.59235703677</v>
       </c>
       <c r="D762" s="2">
         <v>100</v>
@@ -22753,7 +22752,7 @@
       </c>
       <c r="C763" s="2">
         <f t="shared" si="60"/>
-        <v>218875.05449877665</v>
+        <v>218975.05449877665</v>
       </c>
       <c r="D763" s="2">
         <v>100</v>
@@ -22782,7 +22781,7 @@
       </c>
       <c r="C764" s="2">
         <f t="shared" si="60"/>
-        <v>219449.26921550569</v>
+        <v>219549.26921550569</v>
       </c>
       <c r="D764" s="2">
         <v>100</v>
@@ -22811,7 +22810,7 @@
       </c>
       <c r="C765" s="2">
         <f t="shared" si="60"/>
-        <v>220024.23650722389</v>
+        <v>220124.23650722389</v>
       </c>
       <c r="D765" s="2">
         <v>100</v>
@@ -22840,7 +22839,7 @@
       </c>
       <c r="C766" s="2">
         <f t="shared" si="60"/>
-        <v>220599.95637393126</v>
+        <v>220699.95637393126</v>
       </c>
       <c r="D766" s="2">
         <v>100</v>
@@ -22869,7 +22868,7 @@
       </c>
       <c r="C767" s="2">
         <f t="shared" si="60"/>
-        <v>221176.42881562779</v>
+        <v>221276.42881562779</v>
       </c>
       <c r="D767" s="2">
         <v>100</v>
@@ -22898,7 +22897,7 @@
       </c>
       <c r="C768" s="2">
         <f t="shared" si="60"/>
-        <v>221753.65383231349</v>
+        <v>221853.65383231349</v>
       </c>
       <c r="D768" s="2">
         <v>100</v>
@@ -22927,7 +22926,7 @@
       </c>
       <c r="C769" s="2">
         <f t="shared" si="60"/>
-        <v>222331.63142398832</v>
+        <v>222431.63142398832</v>
       </c>
       <c r="D769" s="2">
         <v>100</v>
@@ -22956,7 +22955,7 @@
       </c>
       <c r="C770" s="2">
         <f t="shared" si="60"/>
-        <v>222910.36159065232</v>
+        <v>223010.36159065232</v>
       </c>
       <c r="D770" s="2">
         <v>100</v>
@@ -22985,7 +22984,7 @@
       </c>
       <c r="C771" s="2">
         <f t="shared" si="60"/>
-        <v>223489.84433230548</v>
+        <v>223589.84433230548</v>
       </c>
       <c r="D771" s="2">
         <v>100</v>
@@ -23014,7 +23013,7 @@
       </c>
       <c r="C772" s="2">
         <f t="shared" ref="C772:C835" si="65">LOG(2)*A772*2.5+C771</f>
-        <v>224070.07964894781</v>
+        <v>224170.07964894781</v>
       </c>
       <c r="D772" s="2">
         <v>100</v>
@@ -23043,7 +23042,7 @@
       </c>
       <c r="C773" s="2">
         <f t="shared" si="65"/>
-        <v>224651.0675405793</v>
+        <v>224751.0675405793</v>
       </c>
       <c r="D773" s="2">
         <v>100</v>
@@ -23072,7 +23071,7 @@
       </c>
       <c r="C774" s="2">
         <f t="shared" si="65"/>
-        <v>225232.80800719996</v>
+        <v>225332.80800719996</v>
       </c>
       <c r="D774" s="2">
         <v>100</v>
@@ -23101,7 +23100,7 @@
       </c>
       <c r="C775" s="2">
         <f t="shared" si="65"/>
-        <v>225815.30104880975</v>
+        <v>225915.30104880975</v>
       </c>
       <c r="D775" s="2">
         <v>100</v>
@@ -23130,7 +23129,7 @@
       </c>
       <c r="C776" s="2">
         <f t="shared" si="65"/>
-        <v>226398.54666540871</v>
+        <v>226498.54666540871</v>
       </c>
       <c r="D776" s="2">
         <v>100</v>
@@ -23159,7 +23158,7 @@
       </c>
       <c r="C777" s="2">
         <f t="shared" si="65"/>
-        <v>226982.54485699683</v>
+        <v>227082.54485699683</v>
       </c>
       <c r="D777" s="2">
         <v>100</v>
@@ -23188,7 +23187,7 @@
       </c>
       <c r="C778" s="2">
         <f t="shared" si="65"/>
-        <v>227567.29562357411</v>
+        <v>227667.29562357411</v>
       </c>
       <c r="D778" s="2">
         <v>100</v>
@@ -23217,7 +23216,7 @@
       </c>
       <c r="C779" s="2">
         <f t="shared" si="65"/>
-        <v>228152.79896514057</v>
+        <v>228252.79896514057</v>
       </c>
       <c r="D779" s="2">
         <v>100</v>
@@ -23246,7 +23245,7 @@
       </c>
       <c r="C780" s="2">
         <f t="shared" si="65"/>
-        <v>228739.05488169618</v>
+        <v>228839.05488169618</v>
       </c>
       <c r="D780" s="2">
         <v>100</v>
@@ -23275,7 +23274,7 @@
       </c>
       <c r="C781" s="2">
         <f t="shared" si="65"/>
-        <v>229326.06337324093</v>
+        <v>229426.06337324093</v>
       </c>
       <c r="D781" s="2">
         <v>100</v>
@@ -23304,7 +23303,7 @@
       </c>
       <c r="C782" s="2">
         <f t="shared" si="65"/>
-        <v>229913.82443977485</v>
+        <v>230013.82443977485</v>
       </c>
       <c r="D782" s="2">
         <v>100</v>
@@ -23333,7 +23332,7 @@
       </c>
       <c r="C783" s="2">
         <f t="shared" si="65"/>
-        <v>230502.33808129793</v>
+        <v>230602.33808129793</v>
       </c>
       <c r="D783" s="2">
         <v>100</v>
@@ -23362,7 +23361,7 @@
       </c>
       <c r="C784" s="2">
         <f t="shared" si="65"/>
-        <v>231091.60429781018</v>
+        <v>231191.60429781018</v>
       </c>
       <c r="D784" s="2">
         <v>100</v>
@@ -23391,7 +23390,7 @@
       </c>
       <c r="C785" s="2">
         <f t="shared" si="65"/>
-        <v>231681.62308931159</v>
+        <v>231781.62308931159</v>
       </c>
       <c r="D785" s="2">
         <v>100</v>
@@ -23420,7 +23419,7 @@
       </c>
       <c r="C786" s="2">
         <f t="shared" si="65"/>
-        <v>232272.39445580216</v>
+        <v>232372.39445580216</v>
       </c>
       <c r="D786" s="2">
         <v>100</v>
@@ -23449,7 +23448,7 @@
       </c>
       <c r="C787" s="2">
         <f t="shared" si="65"/>
-        <v>232863.91839728187</v>
+        <v>232963.91839728187</v>
       </c>
       <c r="D787" s="2">
         <v>100</v>
@@ -23478,7 +23477,7 @@
       </c>
       <c r="C788" s="2">
         <f t="shared" si="65"/>
-        <v>233456.19491375075</v>
+        <v>233556.19491375075</v>
       </c>
       <c r="D788" s="2">
         <v>100</v>
@@ -23507,7 +23506,7 @@
       </c>
       <c r="C789" s="2">
         <f t="shared" si="65"/>
-        <v>234049.22400520879</v>
+        <v>234149.22400520879</v>
       </c>
       <c r="D789" s="2">
         <v>100</v>
@@ -23536,7 +23535,7 @@
       </c>
       <c r="C790" s="2">
         <f t="shared" si="65"/>
-        <v>234643.00567165599</v>
+        <v>234743.00567165599</v>
       </c>
       <c r="D790" s="2">
         <v>100</v>
@@ -23565,7 +23564,7 @@
       </c>
       <c r="C791" s="2">
         <f t="shared" si="65"/>
-        <v>235237.53991309236</v>
+        <v>235337.53991309236</v>
       </c>
       <c r="D791" s="2">
         <v>100</v>
@@ -23594,7 +23593,7 @@
       </c>
       <c r="C792" s="2">
         <f t="shared" si="65"/>
-        <v>235832.8267295179</v>
+        <v>235932.8267295179</v>
       </c>
       <c r="D792" s="2">
         <v>100</v>
@@ -23623,7 +23622,7 @@
       </c>
       <c r="C793" s="2">
         <f t="shared" si="65"/>
-        <v>236428.86612093257</v>
+        <v>236528.86612093257</v>
       </c>
       <c r="D793" s="2">
         <v>100</v>
@@ -23652,7 +23651,7 @@
       </c>
       <c r="C794" s="2">
         <f t="shared" si="65"/>
-        <v>237025.6580873364</v>
+        <v>237125.6580873364</v>
       </c>
       <c r="D794" s="2">
         <v>100</v>
@@ -23681,7 +23680,7 @@
       </c>
       <c r="C795" s="2">
         <f t="shared" si="65"/>
-        <v>237623.2026287294</v>
+        <v>237723.2026287294</v>
       </c>
       <c r="D795" s="2">
         <v>100</v>
@@ -23710,7 +23709,7 @@
       </c>
       <c r="C796" s="2">
         <f t="shared" si="65"/>
-        <v>238221.49974511156</v>
+        <v>238321.49974511156</v>
       </c>
       <c r="D796" s="2">
         <v>100</v>
@@ -23739,7 +23738,7 @@
       </c>
       <c r="C797" s="2">
         <f t="shared" si="65"/>
-        <v>238820.54943648289</v>
+        <v>238920.54943648289</v>
       </c>
       <c r="D797" s="2">
         <v>100</v>
@@ -23768,7 +23767,7 @@
       </c>
       <c r="C798" s="2">
         <f t="shared" si="65"/>
-        <v>239420.35170284339</v>
+        <v>239520.35170284339</v>
       </c>
       <c r="D798" s="2">
         <v>100</v>
@@ -23797,7 +23796,7 @@
       </c>
       <c r="C799" s="2">
         <f t="shared" si="65"/>
-        <v>240020.90654419301</v>
+        <v>240120.90654419301</v>
       </c>
       <c r="D799" s="2">
         <v>100</v>
@@ -23826,7 +23825,7 @@
       </c>
       <c r="C800" s="2">
         <f t="shared" si="65"/>
-        <v>240622.21396053181</v>
+        <v>240722.21396053181</v>
       </c>
       <c r="D800" s="2">
         <v>100</v>
@@ -23855,7 +23854,7 @@
       </c>
       <c r="C801" s="2">
         <f t="shared" si="65"/>
-        <v>241224.27395185977</v>
+        <v>241324.27395185977</v>
       </c>
       <c r="D801" s="2">
         <v>100</v>
@@ -23884,7 +23883,7 @@
       </c>
       <c r="C802" s="2">
         <f t="shared" si="65"/>
-        <v>241827.08651817689</v>
+        <v>241927.08651817689</v>
       </c>
       <c r="D802" s="2">
         <v>100</v>
@@ -23913,7 +23912,7 @@
       </c>
       <c r="C803" s="2">
         <f t="shared" si="65"/>
-        <v>242430.65165948318</v>
+        <v>242530.65165948318</v>
       </c>
       <c r="D803" s="2">
         <v>100</v>
@@ -23942,7 +23941,7 @@
       </c>
       <c r="C804" s="2">
         <f t="shared" si="65"/>
-        <v>243034.96937577863</v>
+        <v>243134.96937577863</v>
       </c>
       <c r="D804" s="2">
         <v>100</v>
@@ -23971,7 +23970,7 @@
       </c>
       <c r="C805" s="2">
         <f t="shared" si="65"/>
-        <v>243640.03966706322</v>
+        <v>243740.03966706322</v>
       </c>
       <c r="D805" s="2">
         <v>100</v>
@@ -24000,7 +23999,7 @@
       </c>
       <c r="C806" s="2">
         <f t="shared" si="65"/>
-        <v>244245.86253333697</v>
+        <v>244345.86253333697</v>
       </c>
       <c r="D806" s="2">
         <v>100</v>
@@ -24029,7 +24028,7 @@
       </c>
       <c r="C807" s="2">
         <f t="shared" si="65"/>
-        <v>244852.43797459989</v>
+        <v>244952.43797459989</v>
       </c>
       <c r="D807" s="2">
         <v>100</v>
@@ -24058,7 +24057,7 @@
       </c>
       <c r="C808" s="2">
         <f t="shared" si="65"/>
-        <v>245459.76599085197</v>
+        <v>245559.76599085197</v>
       </c>
       <c r="D808" s="2">
         <v>100</v>
@@ -24087,7 +24086,7 @@
       </c>
       <c r="C809" s="2">
         <f t="shared" si="65"/>
-        <v>246067.84658209322</v>
+        <v>246167.84658209322</v>
       </c>
       <c r="D809" s="2">
         <v>100</v>
@@ -24116,7 +24115,7 @@
       </c>
       <c r="C810" s="2">
         <f t="shared" si="65"/>
-        <v>246676.67974832363</v>
+        <v>246776.67974832363</v>
       </c>
       <c r="D810" s="2">
         <v>100</v>
@@ -24145,7 +24144,7 @@
       </c>
       <c r="C811" s="2">
         <f t="shared" si="65"/>
-        <v>247286.26548954321</v>
+        <v>247386.26548954321</v>
       </c>
       <c r="D811" s="2">
         <v>100</v>
@@ -24174,7 +24173,7 @@
       </c>
       <c r="C812" s="2">
         <f t="shared" si="65"/>
-        <v>247896.60380575192</v>
+        <v>247996.60380575192</v>
       </c>
       <c r="D812" s="2">
         <v>100</v>
@@ -24203,7 +24202,7 @@
       </c>
       <c r="C813" s="2">
         <f t="shared" si="65"/>
-        <v>248507.69469694979</v>
+        <v>248607.69469694979</v>
       </c>
       <c r="D813" s="2">
         <v>100</v>
@@ -24232,7 +24231,7 @@
       </c>
       <c r="C814" s="2">
         <f t="shared" si="65"/>
-        <v>249119.53816313684</v>
+        <v>249219.53816313684</v>
       </c>
       <c r="D814" s="2">
         <v>100</v>
@@ -24261,7 +24260,7 @@
       </c>
       <c r="C815" s="2">
         <f t="shared" si="65"/>
-        <v>249732.13420431304</v>
+        <v>249832.13420431304</v>
       </c>
       <c r="D815" s="2">
         <v>100</v>
@@ -24290,7 +24289,7 @@
       </c>
       <c r="C816" s="2">
         <f t="shared" si="65"/>
-        <v>250345.48282047841</v>
+        <v>250445.48282047841</v>
       </c>
       <c r="D816" s="2">
         <v>100</v>
@@ -24319,7 +24318,7 @@
       </c>
       <c r="C817" s="2">
         <f t="shared" si="65"/>
-        <v>250959.58401163295</v>
+        <v>251059.58401163295</v>
       </c>
       <c r="D817" s="2">
         <v>100</v>
@@ -24348,7 +24347,7 @@
       </c>
       <c r="C818" s="2">
         <f t="shared" si="65"/>
-        <v>251574.43777777662</v>
+        <v>251674.43777777662</v>
       </c>
       <c r="D818" s="2">
         <v>100</v>
@@ -24377,7 +24376,7 @@
       </c>
       <c r="C819" s="2">
         <f t="shared" si="65"/>
-        <v>252190.04411890946</v>
+        <v>252290.04411890946</v>
       </c>
       <c r="D819" s="2">
         <v>100</v>
@@ -24406,7 +24405,7 @@
       </c>
       <c r="C820" s="2">
         <f t="shared" si="65"/>
-        <v>252806.40303503146</v>
+        <v>252906.40303503146</v>
       </c>
       <c r="D820" s="2">
         <v>100</v>
@@ -24435,7 +24434,7 @@
       </c>
       <c r="C821" s="2">
         <f t="shared" si="65"/>
-        <v>253423.51452614262</v>
+        <v>253523.51452614262</v>
       </c>
       <c r="D821" s="2">
         <v>100</v>
@@ -24464,7 +24463,7 @@
       </c>
       <c r="C822" s="2">
         <f t="shared" si="65"/>
-        <v>254041.37859224295</v>
+        <v>254141.37859224295</v>
       </c>
       <c r="D822" s="2">
         <v>100</v>
@@ -24493,7 +24492,7 @@
       </c>
       <c r="C823" s="2">
         <f t="shared" si="65"/>
-        <v>254659.99523333245</v>
+        <v>254759.99523333245</v>
       </c>
       <c r="D823" s="2">
         <v>100</v>
@@ -24522,7 +24521,7 @@
       </c>
       <c r="C824" s="2">
         <f t="shared" si="65"/>
-        <v>255279.36444941108</v>
+        <v>255379.36444941108</v>
       </c>
       <c r="D824" s="2">
         <v>100</v>
@@ -24551,7 +24550,7 @@
       </c>
       <c r="C825" s="2">
         <f t="shared" si="65"/>
-        <v>255899.48624047887</v>
+        <v>255999.48624047887</v>
       </c>
       <c r="D825" s="2">
         <v>100</v>
@@ -24580,7 +24579,7 @@
       </c>
       <c r="C826" s="2">
         <f t="shared" si="65"/>
-        <v>256520.36060653583</v>
+        <v>256620.36060653583</v>
       </c>
       <c r="D826" s="2">
         <v>100</v>
@@ -24609,7 +24608,7 @@
       </c>
       <c r="C827" s="2">
         <f t="shared" si="65"/>
-        <v>257141.98754758196</v>
+        <v>257241.98754758196</v>
       </c>
       <c r="D827" s="2">
         <v>100</v>
@@ -24638,7 +24637,7 @@
       </c>
       <c r="C828" s="2">
         <f t="shared" si="65"/>
-        <v>257764.36706361725</v>
+        <v>257864.36706361725</v>
       </c>
       <c r="D828" s="2">
         <v>100</v>
@@ -24667,7 +24666,7 @@
       </c>
       <c r="C829" s="2">
         <f t="shared" si="65"/>
-        <v>258387.4991546417</v>
+        <v>258487.4991546417</v>
       </c>
       <c r="D829" s="2">
         <v>100</v>
@@ -24696,7 +24695,7 @@
       </c>
       <c r="C830" s="2">
         <f t="shared" si="65"/>
-        <v>259011.38382065529</v>
+        <v>259111.38382065529</v>
       </c>
       <c r="D830" s="2">
         <v>100</v>
@@ -24725,7 +24724,7 @@
       </c>
       <c r="C831" s="2">
         <f t="shared" si="65"/>
-        <v>259636.02106165804</v>
+        <v>259736.02106165804</v>
       </c>
       <c r="D831" s="2">
         <v>100</v>
@@ -24754,7 +24753,7 @@
       </c>
       <c r="C832" s="2">
         <f t="shared" si="65"/>
-        <v>260261.41087764996</v>
+        <v>260361.41087764996</v>
       </c>
       <c r="D832" s="2">
         <v>100</v>
@@ -24783,7 +24782,7 @@
       </c>
       <c r="C833" s="2">
         <f t="shared" si="65"/>
-        <v>260887.55326863105</v>
+        <v>260987.55326863105</v>
       </c>
       <c r="D833" s="2">
         <v>100</v>
@@ -24812,7 +24811,7 @@
       </c>
       <c r="C834" s="2">
         <f t="shared" si="65"/>
-        <v>261514.4482346013</v>
+        <v>261614.4482346013</v>
       </c>
       <c r="D834" s="2">
         <v>100</v>
@@ -24841,7 +24840,7 @@
       </c>
       <c r="C835" s="2">
         <f t="shared" si="65"/>
-        <v>262142.09577556071</v>
+        <v>262242.09577556071</v>
       </c>
       <c r="D835" s="2">
         <v>100</v>
@@ -24870,7 +24869,7 @@
       </c>
       <c r="C836" s="2">
         <f t="shared" ref="C836:C899" si="70">LOG(2)*A836*2.5+C835</f>
-        <v>262770.49589150929</v>
+        <v>262870.49589150929</v>
       </c>
       <c r="D836" s="2">
         <v>100</v>
@@ -24899,7 +24898,7 @@
       </c>
       <c r="C837" s="2">
         <f t="shared" si="70"/>
-        <v>263399.64858244703</v>
+        <v>263499.64858244703</v>
       </c>
       <c r="D837" s="2">
         <v>100</v>
@@ -24928,7 +24927,7 @@
       </c>
       <c r="C838" s="2">
         <f t="shared" si="70"/>
-        <v>264029.55384837394</v>
+        <v>264129.55384837394</v>
       </c>
       <c r="D838" s="2">
         <v>100</v>
@@ -24957,7 +24956,7 @@
       </c>
       <c r="C839" s="2">
         <f t="shared" si="70"/>
-        <v>264660.21168928995</v>
+        <v>264760.21168928995</v>
       </c>
       <c r="D839" s="2">
         <v>100</v>
@@ -24986,7 +24985,7 @@
       </c>
       <c r="C840" s="2">
         <f t="shared" si="70"/>
-        <v>265291.62210519513</v>
+        <v>265391.62210519513</v>
       </c>
       <c r="D840" s="2">
         <v>100</v>
@@ -25015,7 +25014,7 @@
       </c>
       <c r="C841" s="2">
         <f t="shared" si="70"/>
-        <v>265923.78509608947</v>
+        <v>266023.78509608947</v>
       </c>
       <c r="D841" s="2">
         <v>100</v>
@@ -25044,7 +25043,7 @@
       </c>
       <c r="C842" s="2">
         <f t="shared" si="70"/>
-        <v>266556.70066197298</v>
+        <v>266656.70066197298</v>
       </c>
       <c r="D842" s="2">
         <v>100</v>
@@ -25073,7 +25072,7 @@
       </c>
       <c r="C843" s="2">
         <f t="shared" si="70"/>
-        <v>267190.36880284565</v>
+        <v>267290.36880284565</v>
       </c>
       <c r="D843" s="2">
         <v>100</v>
@@ -25102,7 +25101,7 @@
       </c>
       <c r="C844" s="2">
         <f t="shared" si="70"/>
-        <v>267824.78951870749</v>
+        <v>267924.78951870749</v>
       </c>
       <c r="D844" s="2">
         <v>100</v>
@@ -25131,7 +25130,7 @@
       </c>
       <c r="C845" s="2">
         <f t="shared" si="70"/>
-        <v>268459.96280955849</v>
+        <v>268559.96280955849</v>
       </c>
       <c r="D845" s="2">
         <v>100</v>
@@ -25160,7 +25159,7 @@
       </c>
       <c r="C846" s="2">
         <f t="shared" si="70"/>
-        <v>269095.88867539866</v>
+        <v>269195.88867539866</v>
       </c>
       <c r="D846" s="2">
         <v>100</v>
@@ -25189,7 +25188,7 @@
       </c>
       <c r="C847" s="2">
         <f t="shared" si="70"/>
-        <v>269732.56711622799</v>
+        <v>269832.56711622799</v>
       </c>
       <c r="D847" s="2">
         <v>100</v>
@@ -25218,7 +25217,7 @@
       </c>
       <c r="C848" s="2">
         <f t="shared" si="70"/>
-        <v>270369.99813204649</v>
+        <v>270469.99813204649</v>
       </c>
       <c r="D848" s="2">
         <v>100</v>
@@ -25247,7 +25246,7 @@
       </c>
       <c r="C849" s="2">
         <f t="shared" si="70"/>
-        <v>271008.18172285415</v>
+        <v>271108.18172285415</v>
       </c>
       <c r="D849" s="2">
         <v>100</v>
@@ -25276,7 +25275,7 @@
       </c>
       <c r="C850" s="2">
         <f t="shared" si="70"/>
-        <v>271647.11788865097</v>
+        <v>271747.11788865097</v>
       </c>
       <c r="D850" s="2">
         <v>100</v>
@@ -25305,7 +25304,7 @@
       </c>
       <c r="C851" s="2">
         <f t="shared" si="70"/>
-        <v>272286.80662943691</v>
+        <v>272386.80662943691</v>
       </c>
       <c r="D851" s="2">
         <v>100</v>
@@ -25334,7 +25333,7 @@
       </c>
       <c r="C852" s="2">
         <f t="shared" si="70"/>
-        <v>272927.247945212</v>
+        <v>273027.247945212</v>
       </c>
       <c r="D852" s="2">
         <v>100</v>
@@ -25363,7 +25362,7 @@
       </c>
       <c r="C853" s="2">
         <f t="shared" si="70"/>
-        <v>273568.44183597626</v>
+        <v>273668.44183597626</v>
       </c>
       <c r="D853" s="2">
         <v>100</v>
@@ -25392,7 +25391,7 @@
       </c>
       <c r="C854" s="2">
         <f t="shared" si="70"/>
-        <v>274210.38830172969</v>
+        <v>274310.38830172969</v>
       </c>
       <c r="D854" s="2">
         <v>100</v>
@@ -25421,7 +25420,7 @@
       </c>
       <c r="C855" s="2">
         <f t="shared" si="70"/>
-        <v>274853.08734247228</v>
+        <v>274953.08734247228</v>
       </c>
       <c r="D855" s="2">
         <v>100</v>
@@ -25450,7 +25449,7 @@
       </c>
       <c r="C856" s="2">
         <f t="shared" si="70"/>
-        <v>275496.53895820404</v>
+        <v>275596.53895820404</v>
       </c>
       <c r="D856" s="2">
         <v>100</v>
@@ -25479,7 +25478,7 @@
       </c>
       <c r="C857" s="2">
         <f t="shared" si="70"/>
-        <v>276140.74314892496</v>
+        <v>276240.74314892496</v>
       </c>
       <c r="D857" s="2">
         <v>100</v>
@@ -25508,7 +25507,7 @@
       </c>
       <c r="C858" s="2">
         <f t="shared" si="70"/>
-        <v>276785.69991463504</v>
+        <v>276885.69991463504</v>
       </c>
       <c r="D858" s="2">
         <v>100</v>
@@ -25537,7 +25536,7 @@
       </c>
       <c r="C859" s="2">
         <f t="shared" si="70"/>
-        <v>277431.40925533429</v>
+        <v>277531.40925533429</v>
       </c>
       <c r="D859" s="2">
         <v>100</v>
@@ -25566,7 +25565,7 @@
       </c>
       <c r="C860" s="2">
         <f t="shared" si="70"/>
-        <v>278077.87117102271</v>
+        <v>278177.87117102271</v>
       </c>
       <c r="D860" s="2">
         <v>100</v>
@@ -25595,7 +25594,7 @@
       </c>
       <c r="C861" s="2">
         <f t="shared" si="70"/>
-        <v>278725.08566170029</v>
+        <v>278825.08566170029</v>
       </c>
       <c r="D861" s="2">
         <v>100</v>
@@ -25624,7 +25623,7 @@
       </c>
       <c r="C862" s="2">
         <f t="shared" si="70"/>
-        <v>279373.05272736703</v>
+        <v>279473.05272736703</v>
       </c>
       <c r="D862" s="2">
         <v>100</v>
@@ -25653,7 +25652,7 @@
       </c>
       <c r="C863" s="2">
         <f t="shared" si="70"/>
-        <v>280021.77236802288</v>
+        <v>280121.77236802288</v>
       </c>
       <c r="D863" s="2">
         <v>100</v>
@@ -25682,7 +25681,7 @@
       </c>
       <c r="C864" s="2">
         <f t="shared" si="70"/>
-        <v>280671.2445836679</v>
+        <v>280771.2445836679</v>
       </c>
       <c r="D864" s="2">
         <v>100</v>
@@ -25711,7 +25710,7 @@
       </c>
       <c r="C865" s="2">
         <f t="shared" si="70"/>
-        <v>281321.46937430208</v>
+        <v>281421.46937430208</v>
       </c>
       <c r="D865" s="2">
         <v>100</v>
@@ -25740,7 +25739,7 @@
       </c>
       <c r="C866" s="2">
         <f t="shared" si="70"/>
-        <v>281972.44673992542</v>
+        <v>282072.44673992542</v>
       </c>
       <c r="D866" s="2">
         <v>100</v>
@@ -25769,7 +25768,7 @@
       </c>
       <c r="C867" s="2">
         <f t="shared" si="70"/>
-        <v>282624.17668053793</v>
+        <v>282724.17668053793</v>
       </c>
       <c r="D867" s="2">
         <v>100</v>
@@ -25798,7 +25797,7 @@
       </c>
       <c r="C868" s="2">
         <f t="shared" si="70"/>
-        <v>283276.6591961396</v>
+        <v>283376.6591961396</v>
       </c>
       <c r="D868" s="2">
         <v>100</v>
@@ -25827,7 +25826,7 @@
       </c>
       <c r="C869" s="2">
         <f t="shared" si="70"/>
-        <v>283929.89428673044</v>
+        <v>284029.89428673044</v>
       </c>
       <c r="D869" s="2">
         <v>100</v>
@@ -25856,7 +25855,7 @@
       </c>
       <c r="C870" s="2">
         <f t="shared" si="70"/>
-        <v>284583.88195231045</v>
+        <v>284683.88195231045</v>
       </c>
       <c r="D870" s="2">
         <v>100</v>
@@ -25885,7 +25884,7 @@
       </c>
       <c r="C871" s="2">
         <f t="shared" si="70"/>
-        <v>285238.62219287961</v>
+        <v>285338.62219287961</v>
       </c>
       <c r="D871" s="2">
         <v>100</v>
@@ -25914,7 +25913,7 @@
       </c>
       <c r="C872" s="2">
         <f t="shared" si="70"/>
-        <v>285894.11500843795</v>
+        <v>285994.11500843795</v>
       </c>
       <c r="D872" s="2">
         <v>100</v>
@@ -25943,7 +25942,7 @@
       </c>
       <c r="C873" s="2">
         <f t="shared" si="70"/>
-        <v>286550.36039898545</v>
+        <v>286650.36039898545</v>
       </c>
       <c r="D873" s="2">
         <v>100</v>
@@ -25972,7 +25971,7 @@
       </c>
       <c r="C874" s="2">
         <f t="shared" si="70"/>
-        <v>287207.35836452211</v>
+        <v>287307.35836452211</v>
       </c>
       <c r="D874" s="2">
         <v>100</v>
@@ -26001,7 +26000,7 @@
       </c>
       <c r="C875" s="2">
         <f t="shared" si="70"/>
-        <v>287865.10890504793</v>
+        <v>287965.10890504793</v>
       </c>
       <c r="D875" s="2">
         <v>100</v>
@@ -26030,7 +26029,7 @@
       </c>
       <c r="C876" s="2">
         <f t="shared" si="70"/>
-        <v>288523.61202056287</v>
+        <v>288623.61202056287</v>
       </c>
       <c r="D876" s="2">
         <v>100</v>
@@ -26059,7 +26058,7 @@
       </c>
       <c r="C877" s="2">
         <f t="shared" si="70"/>
-        <v>289182.86771106697</v>
+        <v>289282.86771106697</v>
       </c>
       <c r="D877" s="2">
         <v>100</v>
@@ -26088,7 +26087,7 @@
       </c>
       <c r="C878" s="2">
         <f t="shared" si="70"/>
-        <v>289842.87597656023</v>
+        <v>289942.87597656023</v>
       </c>
       <c r="D878" s="2">
         <v>100</v>
@@ -26117,7 +26116,7 @@
       </c>
       <c r="C879" s="2">
         <f t="shared" si="70"/>
-        <v>290503.63681704266</v>
+        <v>290603.63681704266</v>
       </c>
       <c r="D879" s="2">
         <v>100</v>
@@ -26146,7 +26145,7 @@
       </c>
       <c r="C880" s="2">
         <f t="shared" si="70"/>
-        <v>291165.15023251425</v>
+        <v>291265.15023251425</v>
       </c>
       <c r="D880" s="2">
         <v>100</v>
@@ -26175,7 +26174,7 @@
       </c>
       <c r="C881" s="2">
         <f t="shared" si="70"/>
-        <v>291827.41622297501</v>
+        <v>291927.41622297501</v>
       </c>
       <c r="D881" s="2">
         <v>100</v>
@@ -26204,7 +26203,7 @@
       </c>
       <c r="C882" s="2">
         <f t="shared" si="70"/>
-        <v>292490.43478842493</v>
+        <v>292590.43478842493</v>
       </c>
       <c r="D882" s="2">
         <v>100</v>
@@ -26233,7 +26232,7 @@
       </c>
       <c r="C883" s="2">
         <f t="shared" si="70"/>
-        <v>293154.20592886402</v>
+        <v>293254.20592886402</v>
       </c>
       <c r="D883" s="2">
         <v>100</v>
@@ -26262,7 +26261,7 @@
       </c>
       <c r="C884" s="2">
         <f t="shared" si="70"/>
-        <v>293818.72964429227</v>
+        <v>293918.72964429227</v>
       </c>
       <c r="D884" s="2">
         <v>100</v>
@@ -26291,7 +26290,7 @@
       </c>
       <c r="C885" s="2">
         <f t="shared" si="70"/>
-        <v>294484.00593470968</v>
+        <v>294584.00593470968</v>
       </c>
       <c r="D885" s="2">
         <v>100</v>
@@ -26320,7 +26319,7 @@
       </c>
       <c r="C886" s="2">
         <f t="shared" si="70"/>
-        <v>295150.03480011626</v>
+        <v>295250.03480011626</v>
       </c>
       <c r="D886" s="2">
         <v>100</v>
@@ -26349,7 +26348,7 @@
       </c>
       <c r="C887" s="2">
         <f t="shared" si="70"/>
-        <v>295816.81624051201</v>
+        <v>295916.81624051201</v>
       </c>
       <c r="D887" s="2">
         <v>100</v>
@@ -26378,7 +26377,7 @@
       </c>
       <c r="C888" s="2">
         <f t="shared" si="70"/>
-        <v>296484.35025589686</v>
+        <v>296584.35025589686</v>
       </c>
       <c r="D888" s="2">
         <v>100</v>
@@ -26407,7 +26406,7 @@
       </c>
       <c r="C889" s="2">
         <f t="shared" si="70"/>
-        <v>297152.63684627088</v>
+        <v>297252.63684627088</v>
       </c>
       <c r="D889" s="2">
         <v>100</v>
@@ -26436,7 +26435,7 @@
       </c>
       <c r="C890" s="2">
         <f t="shared" si="70"/>
-        <v>297821.67601163406</v>
+        <v>297921.67601163406</v>
       </c>
       <c r="D890" s="2">
         <v>100</v>
@@ -26465,7 +26464,7 @@
       </c>
       <c r="C891" s="2">
         <f t="shared" si="70"/>
-        <v>298491.46775198641</v>
+        <v>298591.46775198641</v>
       </c>
       <c r="D891" s="2">
         <v>100</v>
@@ -26494,7 +26493,7 @@
       </c>
       <c r="C892" s="2">
         <f t="shared" si="70"/>
-        <v>299162.01206732792</v>
+        <v>299262.01206732792</v>
       </c>
       <c r="D892" s="2">
         <v>100</v>
@@ -26523,7 +26522,7 @@
       </c>
       <c r="C893" s="2">
         <f t="shared" si="70"/>
-        <v>299833.30895765859</v>
+        <v>299933.30895765859</v>
       </c>
       <c r="D893" s="2">
         <v>100</v>
@@ -26552,7 +26551,7 @@
       </c>
       <c r="C894" s="2">
         <f t="shared" si="70"/>
-        <v>300505.35842297843</v>
+        <v>300605.35842297843</v>
       </c>
       <c r="D894" s="2">
         <v>100</v>
@@ -26581,7 +26580,7 @@
       </c>
       <c r="C895" s="2">
         <f t="shared" si="70"/>
-        <v>301178.16046328744</v>
+        <v>301278.16046328744</v>
       </c>
       <c r="D895" s="2">
         <v>100</v>
@@ -26610,7 +26609,7 @@
       </c>
       <c r="C896" s="2">
         <f t="shared" si="70"/>
-        <v>301851.71507858561</v>
+        <v>301951.71507858561</v>
       </c>
       <c r="D896" s="2">
         <v>100</v>
@@ -26639,7 +26638,7 @@
       </c>
       <c r="C897" s="2">
         <f t="shared" si="70"/>
-        <v>302526.02226887294</v>
+        <v>302626.02226887294</v>
       </c>
       <c r="D897" s="2">
         <v>100</v>
@@ -26668,7 +26667,7 @@
       </c>
       <c r="C898" s="2">
         <f t="shared" si="70"/>
-        <v>303201.08203414944</v>
+        <v>303301.08203414944</v>
       </c>
       <c r="D898" s="2">
         <v>100</v>
@@ -26697,7 +26696,7 @@
       </c>
       <c r="C899" s="2">
         <f t="shared" si="70"/>
-        <v>303876.8943744151</v>
+        <v>303976.8943744151</v>
       </c>
       <c r="D899" s="2">
         <v>100</v>
@@ -26726,7 +26725,7 @@
       </c>
       <c r="C900" s="2">
         <f t="shared" ref="C900:C963" si="75">LOG(2)*A900*2.5+C899</f>
-        <v>304553.45928966987</v>
+        <v>304653.45928966987</v>
       </c>
       <c r="D900" s="2">
         <v>100</v>
@@ -26755,7 +26754,7 @@
       </c>
       <c r="C901" s="2">
         <f t="shared" si="75"/>
-        <v>305230.77677991381</v>
+        <v>305330.77677991381</v>
       </c>
       <c r="D901" s="2">
         <v>100</v>
@@ -26784,7 +26783,7 @@
       </c>
       <c r="C902" s="2">
         <f t="shared" si="75"/>
-        <v>305908.84684514691</v>
+        <v>306008.84684514691</v>
       </c>
       <c r="D902" s="2">
         <v>100</v>
@@ -26813,7 +26812,7 @@
       </c>
       <c r="C903" s="2">
         <f t="shared" si="75"/>
-        <v>306587.66948536917</v>
+        <v>306687.66948536917</v>
       </c>
       <c r="D903" s="2">
         <v>100</v>
@@ -26842,7 +26841,7 @@
       </c>
       <c r="C904" s="2">
         <f t="shared" si="75"/>
-        <v>307267.2447005806</v>
+        <v>307367.2447005806</v>
       </c>
       <c r="D904" s="2">
         <v>100</v>
@@ -26871,7 +26870,7 @@
       </c>
       <c r="C905" s="2">
         <f t="shared" si="75"/>
-        <v>307947.5724907812</v>
+        <v>308047.5724907812</v>
       </c>
       <c r="D905" s="2">
         <v>100</v>
@@ -26900,7 +26899,7 @@
       </c>
       <c r="C906" s="2">
         <f t="shared" si="75"/>
-        <v>308628.65285597095</v>
+        <v>308728.65285597095</v>
       </c>
       <c r="D906" s="2">
         <v>100</v>
@@ -26929,7 +26928,7 @@
       </c>
       <c r="C907" s="2">
         <f t="shared" si="75"/>
-        <v>309310.48579614988</v>
+        <v>309410.48579614988</v>
       </c>
       <c r="D907" s="2">
         <v>100</v>
@@ -26958,7 +26957,7 @@
       </c>
       <c r="C908" s="2">
         <f t="shared" si="75"/>
-        <v>309993.07131131797</v>
+        <v>310093.07131131797</v>
       </c>
       <c r="D908" s="2">
         <v>100</v>
@@ -26987,7 +26986,7 @@
       </c>
       <c r="C909" s="2">
         <f t="shared" si="75"/>
-        <v>310676.40940147522</v>
+        <v>310776.40940147522</v>
       </c>
       <c r="D909" s="2">
         <v>100</v>
@@ -27016,7 +27015,7 @@
       </c>
       <c r="C910" s="2">
         <f t="shared" si="75"/>
-        <v>311360.50006662164</v>
+        <v>311460.50006662164</v>
       </c>
       <c r="D910" s="2">
         <v>100</v>
@@ -27045,7 +27044,7 @@
       </c>
       <c r="C911" s="2">
         <f t="shared" si="75"/>
-        <v>312045.34330675722</v>
+        <v>312145.34330675722</v>
       </c>
       <c r="D911" s="2">
         <v>100</v>
@@ -27074,7 +27073,7 @@
       </c>
       <c r="C912" s="2">
         <f t="shared" si="75"/>
-        <v>312730.93912188191</v>
+        <v>312830.93912188191</v>
       </c>
       <c r="D912" s="2">
         <v>100</v>
@@ -27103,7 +27102,7 @@
       </c>
       <c r="C913" s="2">
         <f t="shared" si="75"/>
-        <v>313417.28751199576</v>
+        <v>313517.28751199576</v>
       </c>
       <c r="D913" s="2">
         <v>100</v>
@@ -27132,7 +27131,7 @@
       </c>
       <c r="C914" s="2">
         <f t="shared" si="75"/>
-        <v>314104.38847709878</v>
+        <v>314204.38847709878</v>
       </c>
       <c r="D914" s="2">
         <v>100</v>
@@ -27161,7 +27160,7 @@
       </c>
       <c r="C915" s="2">
         <f t="shared" si="75"/>
-        <v>314792.24201719096</v>
+        <v>314892.24201719096</v>
       </c>
       <c r="D915" s="2">
         <v>100</v>
@@ -27190,7 +27189,7 @@
       </c>
       <c r="C916" s="2">
         <f t="shared" si="75"/>
-        <v>315480.84813227231</v>
+        <v>315580.84813227231</v>
       </c>
       <c r="D916" s="2">
         <v>100</v>
@@ -27219,7 +27218,7 @@
       </c>
       <c r="C917" s="2">
         <f t="shared" si="75"/>
-        <v>316170.20682234282</v>
+        <v>316270.20682234282</v>
       </c>
       <c r="D917" s="2">
         <v>100</v>
@@ -27248,7 +27247,7 @@
       </c>
       <c r="C918" s="2">
         <f t="shared" si="75"/>
-        <v>316860.3180874025</v>
+        <v>316960.3180874025</v>
       </c>
       <c r="D918" s="2">
         <v>100</v>
@@ -27277,7 +27276,7 @@
       </c>
       <c r="C919" s="2">
         <f t="shared" si="75"/>
-        <v>317551.18192745134</v>
+        <v>317651.18192745134</v>
       </c>
       <c r="D919" s="2">
         <v>100</v>
@@ -27306,7 +27305,7 @@
       </c>
       <c r="C920" s="2">
         <f t="shared" si="75"/>
-        <v>318242.79834248935</v>
+        <v>318342.79834248935</v>
       </c>
       <c r="D920" s="2">
         <v>100</v>
@@ -27335,7 +27334,7 @@
       </c>
       <c r="C921" s="2">
         <f t="shared" si="75"/>
-        <v>318935.16733251652</v>
+        <v>319035.16733251652</v>
       </c>
       <c r="D921" s="2">
         <v>100</v>
@@ -27364,7 +27363,7 @@
       </c>
       <c r="C922" s="2">
         <f t="shared" si="75"/>
-        <v>319628.28889753285</v>
+        <v>319728.28889753285</v>
       </c>
       <c r="D922" s="2">
         <v>100</v>
@@ -27393,7 +27392,7 @@
       </c>
       <c r="C923" s="2">
         <f t="shared" si="75"/>
-        <v>320322.16303753835</v>
+        <v>320422.16303753835</v>
       </c>
       <c r="D923" s="2">
         <v>100</v>
@@ -27422,7 +27421,7 @@
       </c>
       <c r="C924" s="2">
         <f t="shared" si="75"/>
-        <v>321016.78975253302</v>
+        <v>321116.78975253302</v>
       </c>
       <c r="D924" s="2">
         <v>100</v>
@@ -27451,7 +27450,7 @@
       </c>
       <c r="C925" s="2">
         <f t="shared" si="75"/>
-        <v>321712.16904251679</v>
+        <v>321812.16904251679</v>
       </c>
       <c r="D925" s="2">
         <v>100</v>
@@ -27480,7 +27479,7 @@
       </c>
       <c r="C926" s="2">
         <f t="shared" si="75"/>
-        <v>322408.30090748973</v>
+        <v>322508.30090748973</v>
       </c>
       <c r="D926" s="2">
         <v>100</v>
@@ -27509,7 +27508,7 @@
       </c>
       <c r="C927" s="2">
         <f t="shared" si="75"/>
-        <v>323105.18534745183</v>
+        <v>323205.18534745183</v>
       </c>
       <c r="D927" s="2">
         <v>100</v>
@@ -27538,7 +27537,7 @@
       </c>
       <c r="C928" s="2">
         <f t="shared" si="75"/>
-        <v>323802.82236240309</v>
+        <v>323902.82236240309</v>
       </c>
       <c r="D928" s="2">
         <v>100</v>
@@ -27567,7 +27566,7 @@
       </c>
       <c r="C929" s="2">
         <f t="shared" si="75"/>
-        <v>324501.21195234352</v>
+        <v>324601.21195234352</v>
       </c>
       <c r="D929" s="2">
         <v>100</v>
@@ -27596,7 +27595,7 @@
       </c>
       <c r="C930" s="2">
         <f t="shared" si="75"/>
-        <v>325200.35411727312</v>
+        <v>325300.35411727312</v>
       </c>
       <c r="D930" s="2">
         <v>100</v>
@@ -27625,7 +27624,7 @@
       </c>
       <c r="C931" s="2">
         <f t="shared" si="75"/>
-        <v>325900.24885719188</v>
+        <v>326000.24885719188</v>
       </c>
       <c r="D931" s="2">
         <v>100</v>
@@ -27654,7 +27653,7 @@
       </c>
       <c r="C932" s="2">
         <f t="shared" si="75"/>
-        <v>326600.8961720998</v>
+        <v>326700.8961720998</v>
       </c>
       <c r="D932" s="2">
         <v>100</v>
@@ -27683,7 +27682,7 @@
       </c>
       <c r="C933" s="2">
         <f t="shared" si="75"/>
-        <v>327302.29606199689</v>
+        <v>327402.29606199689</v>
       </c>
       <c r="D933" s="2">
         <v>100</v>
@@ -27712,7 +27711,7 @@
       </c>
       <c r="C934" s="2">
         <f t="shared" si="75"/>
-        <v>328004.44852688315</v>
+        <v>328104.44852688315</v>
       </c>
       <c r="D934" s="2">
         <v>100</v>
@@ -27741,7 +27740,7 @@
       </c>
       <c r="C935" s="2">
         <f t="shared" si="75"/>
-        <v>328707.35356675857</v>
+        <v>328807.35356675857</v>
       </c>
       <c r="D935" s="2">
         <v>100</v>
@@ -27770,7 +27769,7 @@
       </c>
       <c r="C936" s="2">
         <f t="shared" si="75"/>
-        <v>329411.01118162315</v>
+        <v>329511.01118162315</v>
       </c>
       <c r="D936" s="2">
         <v>100</v>
@@ -27799,7 +27798,7 @@
       </c>
       <c r="C937" s="2">
         <f t="shared" si="75"/>
-        <v>330115.42137147684</v>
+        <v>330215.42137147684</v>
       </c>
       <c r="D937" s="2">
         <v>100</v>
@@ -27828,7 +27827,7 @@
       </c>
       <c r="C938" s="2">
         <f t="shared" si="75"/>
-        <v>330820.5841363197</v>
+        <v>330920.5841363197</v>
       </c>
       <c r="D938" s="2">
         <v>100</v>
@@ -27857,7 +27856,7 @@
       </c>
       <c r="C939" s="2">
         <f t="shared" si="75"/>
-        <v>331526.49947615172</v>
+        <v>331626.49947615172</v>
       </c>
       <c r="D939" s="2">
         <v>100</v>
@@ -27886,7 +27885,7 @@
       </c>
       <c r="C940" s="2">
         <f t="shared" si="75"/>
-        <v>332233.1673909729</v>
+        <v>332333.1673909729</v>
       </c>
       <c r="D940" s="2">
         <v>100</v>
@@ -27915,7 +27914,7 @@
       </c>
       <c r="C941" s="2">
         <f t="shared" si="75"/>
-        <v>332940.58788078325</v>
+        <v>333040.58788078325</v>
       </c>
       <c r="D941" s="2">
         <v>100</v>
@@ -27944,7 +27943,7 @@
       </c>
       <c r="C942" s="2">
         <f t="shared" si="75"/>
-        <v>333648.76094558276</v>
+        <v>333748.76094558276</v>
       </c>
       <c r="D942" s="2">
         <v>100</v>
@@ -27973,7 +27972,7 @@
       </c>
       <c r="C943" s="2">
         <f t="shared" si="75"/>
-        <v>334357.68658537144</v>
+        <v>334457.68658537144</v>
       </c>
       <c r="D943" s="2">
         <v>100</v>
@@ -28002,7 +28001,7 @@
       </c>
       <c r="C944" s="2">
         <f t="shared" si="75"/>
-        <v>335067.36480014928</v>
+        <v>335167.36480014928</v>
       </c>
       <c r="D944" s="2">
         <v>100</v>
@@ -28031,7 +28030,7 @@
       </c>
       <c r="C945" s="2">
         <f t="shared" si="75"/>
-        <v>335777.79558991629</v>
+        <v>335877.79558991629</v>
       </c>
       <c r="D945" s="2">
         <v>100</v>
@@ -28060,7 +28059,7 @@
       </c>
       <c r="C946" s="2">
         <f t="shared" si="75"/>
-        <v>336488.97895467246</v>
+        <v>336588.97895467246</v>
       </c>
       <c r="D946" s="2">
         <v>100</v>
@@ -28089,7 +28088,7 @@
       </c>
       <c r="C947" s="2">
         <f t="shared" si="75"/>
-        <v>337200.9148944178</v>
+        <v>337300.9148944178</v>
       </c>
       <c r="D947" s="2">
         <v>100</v>
@@ -28118,7 +28117,7 @@
       </c>
       <c r="C948" s="2">
         <f t="shared" si="75"/>
-        <v>337913.6034091523</v>
+        <v>338013.6034091523</v>
       </c>
       <c r="D948" s="2">
         <v>100</v>
@@ -28147,7 +28146,7 @@
       </c>
       <c r="C949" s="2">
         <f t="shared" si="75"/>
-        <v>338627.04449887591</v>
+        <v>338727.04449887591</v>
       </c>
       <c r="D949" s="2">
         <v>100</v>
@@ -28176,7 +28175,7 @@
       </c>
       <c r="C950" s="2">
         <f t="shared" si="75"/>
-        <v>339341.23816358868</v>
+        <v>339441.23816358868</v>
       </c>
       <c r="D950" s="2">
         <v>100</v>
@@ -28205,7 +28204,7 @@
       </c>
       <c r="C951" s="2">
         <f t="shared" si="75"/>
-        <v>340056.18440329062</v>
+        <v>340156.18440329062</v>
       </c>
       <c r="D951" s="2">
         <v>100</v>
@@ -28234,7 +28233,7 @@
       </c>
       <c r="C952" s="2">
         <f t="shared" si="75"/>
-        <v>340771.88321798173</v>
+        <v>340871.88321798173</v>
       </c>
       <c r="D952" s="2">
         <v>100</v>
@@ -28263,7 +28262,7 @@
       </c>
       <c r="C953" s="2">
         <f t="shared" si="75"/>
-        <v>341488.33460766199</v>
+        <v>341588.33460766199</v>
       </c>
       <c r="D953" s="2">
         <v>100</v>
@@ -28292,7 +28291,7 @@
       </c>
       <c r="C954" s="2">
         <f t="shared" si="75"/>
-        <v>342205.53857233142</v>
+        <v>342305.53857233142</v>
       </c>
       <c r="D954" s="2">
         <v>100</v>
@@ -28321,7 +28320,7 @@
       </c>
       <c r="C955" s="2">
         <f t="shared" si="75"/>
-        <v>342923.49511199002</v>
+        <v>343023.49511199002</v>
       </c>
       <c r="D955" s="2">
         <v>100</v>
@@ -28350,7 +28349,7 @@
       </c>
       <c r="C956" s="2">
         <f t="shared" si="75"/>
-        <v>343642.20422663778</v>
+        <v>343742.20422663778</v>
       </c>
       <c r="D956" s="2">
         <v>100</v>
@@ -28379,7 +28378,7 @@
       </c>
       <c r="C957" s="2">
         <f t="shared" si="75"/>
-        <v>344361.66591627471</v>
+        <v>344461.66591627471</v>
       </c>
       <c r="D957" s="2">
         <v>100</v>
@@ -28408,7 +28407,7 @@
       </c>
       <c r="C958" s="2">
         <f t="shared" si="75"/>
-        <v>345081.8801809008</v>
+        <v>345181.8801809008</v>
       </c>
       <c r="D958" s="2">
         <v>100</v>
@@ -28437,7 +28436,7 @@
       </c>
       <c r="C959" s="2">
         <f t="shared" si="75"/>
-        <v>345802.84702051606</v>
+        <v>345902.84702051606</v>
       </c>
       <c r="D959" s="2">
         <v>100</v>
@@ -28466,7 +28465,7 @@
       </c>
       <c r="C960" s="2">
         <f t="shared" si="75"/>
-        <v>346524.56643512048</v>
+        <v>346624.56643512048</v>
       </c>
       <c r="D960" s="2">
         <v>100</v>
@@ -28495,7 +28494,7 @@
       </c>
       <c r="C961" s="2">
         <f t="shared" si="75"/>
-        <v>347247.038424714</v>
+        <v>347347.038424714</v>
       </c>
       <c r="D961" s="2">
         <v>100</v>
@@ -28524,7 +28523,7 @@
       </c>
       <c r="C962" s="2">
         <f t="shared" si="75"/>
-        <v>347970.26298929669</v>
+        <v>348070.26298929669</v>
       </c>
       <c r="D962" s="2">
         <v>100</v>
@@ -28553,7 +28552,7 @@
       </c>
       <c r="C963" s="2">
         <f t="shared" si="75"/>
-        <v>348694.24012886855</v>
+        <v>348794.24012886855</v>
       </c>
       <c r="D963" s="2">
         <v>100</v>
@@ -28582,7 +28581,7 @@
       </c>
       <c r="C964" s="2">
         <f t="shared" ref="C964:C1001" si="80">LOG(2)*A964*2.5+C963</f>
-        <v>349418.96984342957</v>
+        <v>349518.96984342957</v>
       </c>
       <c r="D964" s="2">
         <v>100</v>
@@ -28611,7 +28610,7 @@
       </c>
       <c r="C965" s="2">
         <f t="shared" si="80"/>
-        <v>350144.45213297976</v>
+        <v>350244.45213297976</v>
       </c>
       <c r="D965" s="2">
         <v>100</v>
@@ -28640,7 +28639,7 @@
       </c>
       <c r="C966" s="2">
         <f t="shared" si="80"/>
-        <v>350870.68699751911</v>
+        <v>350970.68699751911</v>
       </c>
       <c r="D966" s="2">
         <v>100</v>
@@ -28669,7 +28668,7 @@
       </c>
       <c r="C967" s="2">
         <f t="shared" si="80"/>
-        <v>351597.67443704762</v>
+        <v>351697.67443704762</v>
       </c>
       <c r="D967" s="2">
         <v>100</v>
@@ -28698,7 +28697,7 @@
       </c>
       <c r="C968" s="2">
         <f t="shared" si="80"/>
-        <v>352325.4144515653</v>
+        <v>352425.4144515653</v>
       </c>
       <c r="D968" s="2">
         <v>100</v>
@@ -28727,7 +28726,7 @@
       </c>
       <c r="C969" s="2">
         <f t="shared" si="80"/>
-        <v>353053.90704107215</v>
+        <v>353153.90704107215</v>
       </c>
       <c r="D969" s="2">
         <v>100</v>
@@ -28756,7 +28755,7 @@
       </c>
       <c r="C970" s="2">
         <f t="shared" si="80"/>
-        <v>353783.15220556816</v>
+        <v>353883.15220556816</v>
       </c>
       <c r="D970" s="2">
         <v>100</v>
@@ -28785,7 +28784,7 @@
       </c>
       <c r="C971" s="2">
         <f t="shared" si="80"/>
-        <v>354513.14994505333</v>
+        <v>354613.14994505333</v>
       </c>
       <c r="D971" s="2">
         <v>100</v>
@@ -28814,7 +28813,7 @@
       </c>
       <c r="C972" s="2">
         <f t="shared" si="80"/>
-        <v>355243.90025952767</v>
+        <v>355343.90025952767</v>
       </c>
       <c r="D972" s="2">
         <v>100</v>
@@ -28843,7 +28842,7 @@
       </c>
       <c r="C973" s="2">
         <f t="shared" si="80"/>
-        <v>355975.40314899117</v>
+        <v>356075.40314899117</v>
       </c>
       <c r="D973" s="2">
         <v>100</v>
@@ -28872,7 +28871,7 @@
       </c>
       <c r="C974" s="2">
         <f t="shared" si="80"/>
-        <v>356707.65861344378</v>
+        <v>356807.65861344378</v>
       </c>
       <c r="D974" s="2">
         <v>100</v>
@@ -28901,7 +28900,7 @@
       </c>
       <c r="C975" s="2">
         <f t="shared" si="80"/>
-        <v>357440.66665288556</v>
+        <v>357540.66665288556</v>
       </c>
       <c r="D975" s="2">
         <v>100</v>
@@ -28930,7 +28929,7 @@
       </c>
       <c r="C976" s="2">
         <f t="shared" si="80"/>
-        <v>358174.4272673165</v>
+        <v>358274.4272673165</v>
       </c>
       <c r="D976" s="2">
         <v>100</v>
@@ -28959,7 +28958,7 @@
       </c>
       <c r="C977" s="2">
         <f t="shared" si="80"/>
-        <v>358908.9404567366</v>
+        <v>359008.9404567366</v>
       </c>
       <c r="D977" s="2">
         <v>100</v>
@@ -28988,7 +28987,7 @@
       </c>
       <c r="C978" s="2">
         <f t="shared" si="80"/>
-        <v>359644.20622114587</v>
+        <v>359744.20622114587</v>
       </c>
       <c r="D978" s="2">
         <v>100</v>
@@ -29017,7 +29016,7 @@
       </c>
       <c r="C979" s="2">
         <f t="shared" si="80"/>
-        <v>360380.2245605443</v>
+        <v>360480.2245605443</v>
       </c>
       <c r="D979" s="2">
         <v>100</v>
@@ -29046,7 +29045,7 @@
       </c>
       <c r="C980" s="2">
         <f t="shared" si="80"/>
-        <v>361116.9954749319</v>
+        <v>361216.9954749319</v>
       </c>
       <c r="D980" s="2">
         <v>100</v>
@@ -29075,7 +29074,7 @@
       </c>
       <c r="C981" s="2">
         <f t="shared" si="80"/>
-        <v>361854.51896430866</v>
+        <v>361954.51896430866</v>
       </c>
       <c r="D981" s="2">
         <v>100</v>
@@ -29104,7 +29103,7 @@
       </c>
       <c r="C982" s="2">
         <f t="shared" si="80"/>
-        <v>362592.79502867459</v>
+        <v>362692.79502867459</v>
       </c>
       <c r="D982" s="2">
         <v>100</v>
@@ -29133,7 +29132,7 @@
       </c>
       <c r="C983" s="2">
         <f t="shared" si="80"/>
-        <v>363331.82366802968</v>
+        <v>363431.82366802968</v>
       </c>
       <c r="D983" s="2">
         <v>100</v>
@@ -29162,7 +29161,7 @@
       </c>
       <c r="C984" s="2">
         <f t="shared" si="80"/>
-        <v>364071.60488237394</v>
+        <v>364171.60488237394</v>
       </c>
       <c r="D984" s="2">
         <v>100</v>
@@ -29191,7 +29190,7 @@
       </c>
       <c r="C985" s="2">
         <f t="shared" si="80"/>
-        <v>364812.13867170736</v>
+        <v>364912.13867170736</v>
       </c>
       <c r="D985" s="2">
         <v>100</v>
@@ -29220,7 +29219,7 @@
       </c>
       <c r="C986" s="2">
         <f t="shared" si="80"/>
-        <v>365553.42503602989</v>
+        <v>365653.42503602989</v>
       </c>
       <c r="D986" s="2">
         <v>100</v>
@@ -29249,7 +29248,7 @@
       </c>
       <c r="C987" s="2">
         <f t="shared" si="80"/>
-        <v>366295.46397534158</v>
+        <v>366395.46397534158</v>
       </c>
       <c r="D987" s="2">
         <v>100</v>
@@ -29278,7 +29277,7 @@
       </c>
       <c r="C988" s="2">
         <f t="shared" si="80"/>
-        <v>367038.25548964244</v>
+        <v>367138.25548964244</v>
       </c>
       <c r="D988" s="2">
         <v>100</v>
@@ -29307,7 +29306,7 @@
       </c>
       <c r="C989" s="2">
         <f t="shared" si="80"/>
-        <v>367781.79957893246</v>
+        <v>367881.79957893246</v>
       </c>
       <c r="D989" s="2">
         <v>100</v>
@@ -29336,7 +29335,7 @@
       </c>
       <c r="C990" s="2">
         <f t="shared" si="80"/>
-        <v>368526.09624321165</v>
+        <v>368626.09624321165</v>
       </c>
       <c r="D990" s="2">
         <v>100</v>
@@ -29365,7 +29364,7 @@
       </c>
       <c r="C991" s="2">
         <f t="shared" si="80"/>
-        <v>369271.14548248</v>
+        <v>369371.14548248</v>
       </c>
       <c r="D991" s="2">
         <v>100</v>
@@ -29394,7 +29393,7 @@
       </c>
       <c r="C992" s="2">
         <f t="shared" si="80"/>
-        <v>370016.94729673752</v>
+        <v>370116.94729673752</v>
       </c>
       <c r="D992" s="2">
         <v>100</v>
@@ -29423,7 +29422,7 @@
       </c>
       <c r="C993" s="2">
         <f t="shared" si="80"/>
-        <v>370763.5016859842</v>
+        <v>370863.5016859842</v>
       </c>
       <c r="D993" s="2">
         <v>100</v>
@@ -29452,7 +29451,7 @@
       </c>
       <c r="C994" s="2">
         <f t="shared" si="80"/>
-        <v>371510.80865022005</v>
+        <v>371610.80865022005</v>
       </c>
       <c r="D994" s="2">
         <v>100</v>
@@ -29481,7 +29480,7 @@
       </c>
       <c r="C995" s="2">
         <f t="shared" si="80"/>
-        <v>372258.86818944506</v>
+        <v>372358.86818944506</v>
       </c>
       <c r="D995" s="2">
         <v>100</v>
@@ -29510,7 +29509,7 @@
       </c>
       <c r="C996" s="2">
         <f t="shared" si="80"/>
-        <v>373007.68030365923</v>
+        <v>373107.68030365923</v>
       </c>
       <c r="D996" s="2">
         <v>100</v>
@@ -29539,7 +29538,7 @@
       </c>
       <c r="C997" s="2">
         <f t="shared" si="80"/>
-        <v>373757.24499286257</v>
+        <v>373857.24499286257</v>
       </c>
       <c r="D997" s="2">
         <v>100</v>
@@ -29568,7 +29567,7 @@
       </c>
       <c r="C998" s="2">
         <f t="shared" si="80"/>
-        <v>374507.56225705502</v>
+        <v>374607.56225705502</v>
       </c>
       <c r="D998" s="2">
         <v>100</v>
@@ -29597,7 +29596,7 @@
       </c>
       <c r="C999" s="2">
         <f t="shared" si="80"/>
-        <v>375258.63209623663</v>
+        <v>375358.63209623663</v>
       </c>
       <c r="D999" s="2">
         <v>100</v>
@@ -29626,7 +29625,7 @@
       </c>
       <c r="C1000" s="2">
         <f t="shared" si="80"/>
-        <v>376010.45451040741</v>
+        <v>376110.45451040741</v>
       </c>
       <c r="D1000" s="2">
         <v>100</v>
@@ -29655,7 +29654,7 @@
       </c>
       <c r="C1001" s="2">
         <f t="shared" si="80"/>
-        <v>376763.02949956735</v>
+        <v>376863.02949956735</v>
       </c>
       <c r="D1001" s="2">
         <v>100</v>
